--- a/diary/two-step-ngrid-3.xlsx
+++ b/diary/two-step-ngrid-3.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21126"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jasmine\Documents\Github\DDCMixture_NFD\diary\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2AEBF82C-CB62-4B87-BF99-F3C89B8D295B}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F486C722-BC71-4B3D-8A89-AA513A255C37}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="51600" windowHeight="18090" activeTab="1" xr2:uid="{86090E7E-B0AA-4EF5-BEDB-C21DDA02C47A}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="51600" windowHeight="18090" xr2:uid="{86090E7E-B0AA-4EF5-BEDB-C21DDA02C47A}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5057" uniqueCount="574">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4749" uniqueCount="659">
   <si>
     <t xml:space="preserve">\caption{The bias and variance of FD estimator}                </t>
   </si>
@@ -1003,18 +1003,6 @@
     <t>\label{table:large_gamma_2}</t>
   </si>
   <si>
-    <t>\caption{The bias and variance of 2-step estimators when sample size = 100 and time = 120 and nGrid=3, $\gamma_a=3$}</t>
-  </si>
-  <si>
-    <t>\label{table:large_gamma_3}</t>
-  </si>
-  <si>
-    <t>\caption{The bias and variance of 2-step estimators when sample size = 100 and time = 120 and nGrid=3, $\gamma_a=4$}</t>
-  </si>
-  <si>
-    <t>\label{table:large_gamma_4}</t>
-  </si>
-  <si>
     <t xml:space="preserve"> 4 </t>
   </si>
   <si>
@@ -1754,6 +1742,273 @@
   </si>
   <si>
     <t>\label{table:large_gamma_0_seq}</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.0187 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.0476 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.1268 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.0211 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.0579 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.0063 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.0204 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.0130 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.0065 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.0150 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.0077 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 12.1757 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 25.0164 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 13.7335 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 24.9460 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 24.5536 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 10.2351 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 25.4198 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 11.0450 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.0097 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.0766 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> (0.0274) </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.0435 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> (0.0052) </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.0967 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> (0.0159) </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.0159 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.0443 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> (0.0115) </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.1201 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.0442 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.5576 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> (0.0474) </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.1008 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.0505 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> (0.0126) </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.2577 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 1.0344 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> (0.0259) </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.0338 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.0118 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.0357 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> (0.0109) </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.1340 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.3830 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> (0.0669) </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.0462 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.0957 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> (0.0165) </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> (0.0156) </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.0336 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> (0.0103) </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.0300 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 12.1189 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 21.1655 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 13.9045 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 22.1635 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 29.0484 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 9.5631 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 29.4570 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 9.8776 </t>
+  </si>
+  <si>
+    <t>\caption{The bias and variance of 2-step estimators when sample size = 100 and time = 120 and nGrid=3, $\gamma_a=5$}</t>
+  </si>
+  <si>
+    <t>\label{table:large_gamma_5}</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.1230 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.0079 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.4693 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> (0.0397) </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.0242 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.0351 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> (0.0193) </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> (0.0127) </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.2389 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.0312 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.9379 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> (0.0426) </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.0779 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.0434 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.0894 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.0952 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> (0.0263) </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> (0.0125) </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> (0.0116) </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> (0.0849) </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.0233 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.0165 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> (0.0261) </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.0119 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> (0.0129) </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> (0.0100) </t>
   </si>
 </sst>
 </file>
@@ -2120,8 +2375,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A1C1B74A-0671-49CF-80AC-530CCE1FE00A}">
   <dimension ref="A1:AS221"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="AB145" sqref="A1:XFD1048576"/>
+    <sheetView tabSelected="1" topLeftCell="J75" workbookViewId="0">
+      <selection activeCell="K89" sqref="K89:AB117"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2170,10 +2425,10 @@
         <v>31</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>327</v>
+        <v>323</v>
       </c>
       <c r="H4" t="s">
-        <v>328</v>
+        <v>324</v>
       </c>
       <c r="K4" t="s">
         <v>309</v>
@@ -2204,7 +2459,7 @@
         <v>36</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="K6" t="s">
         <v>307</v>
@@ -2230,7 +2485,7 @@
         <v>82</v>
       </c>
       <c r="H7" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
       <c r="L7" t="s">
         <v>313</v>
@@ -2307,51 +2562,51 @@
         <v>313</v>
       </c>
       <c r="M8" s="1" t="s">
-        <v>263</v>
+        <v>581</v>
       </c>
       <c r="N8" t="s">
         <v>313</v>
       </c>
       <c r="O8" s="1" t="s">
-        <v>269</v>
+        <v>582</v>
       </c>
       <c r="P8" t="s">
         <v>313</v>
       </c>
       <c r="Q8" s="1" t="s">
-        <v>274</v>
+        <v>583</v>
       </c>
       <c r="R8" t="s">
         <v>313</v>
       </c>
       <c r="S8" s="1" t="s">
-        <v>279</v>
+        <v>584</v>
       </c>
       <c r="T8" t="s">
         <v>313</v>
       </c>
       <c r="U8" s="1" t="s">
-        <v>284</v>
+        <v>585</v>
       </c>
       <c r="V8" t="s">
         <v>313</v>
       </c>
       <c r="W8" s="1" t="s">
-        <v>289</v>
+        <v>586</v>
       </c>
       <c r="X8" t="s">
         <v>313</v>
       </c>
       <c r="Y8" s="1" t="s">
-        <v>294</v>
+        <v>587</v>
       </c>
       <c r="Z8" t="s">
         <v>313</v>
       </c>
       <c r="AA8" s="1" t="s">
-        <v>299</v>
-      </c>
-      <c r="AB8" s="3" t="s">
+        <v>588</v>
+      </c>
+      <c r="AB8" s="2" t="s">
         <v>308</v>
       </c>
     </row>
@@ -2372,10 +2627,10 @@
         <v>49</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>331</v>
+        <v>327</v>
       </c>
       <c r="H9" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
       <c r="K9" t="s">
         <v>306</v>
@@ -2482,7 +2737,7 @@
         <v>198</v>
       </c>
       <c r="H11" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
       <c r="K11" t="s">
         <v>32</v>
@@ -2491,49 +2746,49 @@
         <v>313</v>
       </c>
       <c r="M11" s="1" t="s">
-        <v>33</v>
+        <v>570</v>
       </c>
       <c r="N11" t="s">
         <v>313</v>
       </c>
       <c r="O11" s="1" t="s">
+        <v>575</v>
+      </c>
+      <c r="P11" t="s">
+        <v>313</v>
+      </c>
+      <c r="Q11" s="1" t="s">
+        <v>570</v>
+      </c>
+      <c r="R11" t="s">
+        <v>313</v>
+      </c>
+      <c r="S11" s="1" t="s">
+        <v>575</v>
+      </c>
+      <c r="T11" t="s">
+        <v>313</v>
+      </c>
+      <c r="U11" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="P11" t="s">
-        <v>313</v>
-      </c>
-      <c r="Q11" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="R11" t="s">
-        <v>313</v>
-      </c>
-      <c r="S11" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="T11" t="s">
-        <v>313</v>
-      </c>
-      <c r="U11" s="1" t="s">
-        <v>52</v>
-      </c>
       <c r="V11" t="s">
         <v>313</v>
       </c>
       <c r="W11" s="1" t="s">
-        <v>33</v>
+        <v>570</v>
       </c>
       <c r="X11" t="s">
         <v>313</v>
       </c>
       <c r="Y11" s="1" t="s">
-        <v>180</v>
+        <v>578</v>
       </c>
       <c r="Z11" t="s">
         <v>313</v>
       </c>
       <c r="AA11" s="1" t="s">
-        <v>93</v>
+        <v>204</v>
       </c>
       <c r="AB11" s="2" t="s">
         <v>308</v>
@@ -2556,55 +2811,55 @@
         <v>61</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
       <c r="L12" t="s">
         <v>313</v>
       </c>
       <c r="M12" s="1" t="s">
-        <v>37</v>
+        <v>239</v>
       </c>
       <c r="N12" t="s">
         <v>313</v>
       </c>
       <c r="O12" s="1" t="s">
-        <v>97</v>
+        <v>110</v>
       </c>
       <c r="P12" t="s">
         <v>313</v>
       </c>
       <c r="Q12" s="1" t="s">
-        <v>37</v>
+        <v>239</v>
       </c>
       <c r="R12" t="s">
         <v>313</v>
       </c>
       <c r="S12" s="1" t="s">
-        <v>97</v>
+        <v>110</v>
       </c>
       <c r="T12" t="s">
         <v>313</v>
       </c>
       <c r="U12" s="1" t="s">
-        <v>97</v>
+        <v>110</v>
       </c>
       <c r="V12" t="s">
         <v>313</v>
       </c>
       <c r="W12" s="1" t="s">
-        <v>37</v>
+        <v>239</v>
       </c>
       <c r="X12" t="s">
         <v>313</v>
       </c>
       <c r="Y12" s="1" t="s">
-        <v>97</v>
+        <v>110</v>
       </c>
       <c r="Z12" t="s">
         <v>313</v>
       </c>
       <c r="AA12" s="1" t="s">
-        <v>110</v>
+        <v>103</v>
       </c>
       <c r="AB12" s="2" t="s">
         <v>308</v>
@@ -2627,10 +2882,10 @@
         <v>65</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>333</v>
+        <v>329</v>
       </c>
       <c r="H13" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
       <c r="K13" t="s">
         <v>41</v>
@@ -2639,49 +2894,49 @@
         <v>313</v>
       </c>
       <c r="M13" s="1" t="s">
-        <v>42</v>
+        <v>571</v>
       </c>
       <c r="N13" t="s">
         <v>313</v>
       </c>
       <c r="O13" s="1" t="s">
-        <v>99</v>
+        <v>118</v>
       </c>
       <c r="P13" t="s">
         <v>313</v>
       </c>
       <c r="Q13" s="1" t="s">
-        <v>42</v>
+        <v>571</v>
       </c>
       <c r="R13" t="s">
         <v>313</v>
       </c>
       <c r="S13" s="1" t="s">
-        <v>99</v>
+        <v>118</v>
       </c>
       <c r="T13" t="s">
         <v>313</v>
       </c>
       <c r="U13" s="1" t="s">
-        <v>99</v>
+        <v>217</v>
       </c>
       <c r="V13" t="s">
         <v>313</v>
       </c>
       <c r="W13" s="1" t="s">
-        <v>42</v>
+        <v>571</v>
       </c>
       <c r="X13" t="s">
         <v>313</v>
       </c>
       <c r="Y13" s="1" t="s">
-        <v>185</v>
+        <v>251</v>
       </c>
       <c r="Z13" t="s">
         <v>313</v>
       </c>
       <c r="AA13" s="1" t="s">
-        <v>221</v>
+        <v>251</v>
       </c>
       <c r="AB13" s="2" t="s">
         <v>308</v>
@@ -2704,55 +2959,55 @@
         <v>70</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>334</v>
+        <v>330</v>
       </c>
       <c r="L14" t="s">
         <v>313</v>
       </c>
       <c r="M14" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="N14" t="s">
         <v>313</v>
       </c>
       <c r="O14" s="1" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
       <c r="P14" t="s">
         <v>313</v>
       </c>
       <c r="Q14" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="R14" t="s">
         <v>313</v>
       </c>
       <c r="S14" s="1" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
       <c r="T14" t="s">
         <v>313</v>
       </c>
       <c r="U14" s="1" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
       <c r="V14" t="s">
         <v>313</v>
       </c>
       <c r="W14" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="X14" t="s">
         <v>313</v>
       </c>
       <c r="Y14" s="1" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
       <c r="Z14" t="s">
         <v>313</v>
       </c>
       <c r="AA14" s="1" t="s">
-        <v>103</v>
+        <v>144</v>
       </c>
       <c r="AB14" s="2" t="s">
         <v>308</v>
@@ -2778,7 +3033,7 @@
         <v>133</v>
       </c>
       <c r="H15" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
       <c r="K15" t="s">
         <v>50</v>
@@ -2787,37 +3042,37 @@
         <v>313</v>
       </c>
       <c r="M15" s="1" t="s">
-        <v>51</v>
+        <v>194</v>
       </c>
       <c r="N15" t="s">
         <v>313</v>
       </c>
       <c r="O15" s="1" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="P15" t="s">
         <v>313</v>
       </c>
       <c r="Q15" s="1" t="s">
-        <v>51</v>
+        <v>194</v>
       </c>
       <c r="R15" t="s">
         <v>313</v>
       </c>
       <c r="S15" s="1" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="T15" t="s">
         <v>313</v>
       </c>
       <c r="U15" s="1" t="s">
-        <v>192</v>
+        <v>105</v>
       </c>
       <c r="V15" t="s">
         <v>313</v>
       </c>
       <c r="W15" s="1" t="s">
-        <v>51</v>
+        <v>194</v>
       </c>
       <c r="X15" t="s">
         <v>313</v>
@@ -2829,7 +3084,7 @@
         <v>313</v>
       </c>
       <c r="AA15" s="1" t="s">
-        <v>120</v>
+        <v>172</v>
       </c>
       <c r="AB15" s="2" t="s">
         <v>308</v>
@@ -2858,49 +3113,49 @@
         <v>313</v>
       </c>
       <c r="M16" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="N16" t="s">
         <v>313</v>
       </c>
       <c r="O16" s="1" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="P16" t="s">
         <v>313</v>
       </c>
       <c r="Q16" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="R16" t="s">
         <v>313</v>
       </c>
       <c r="S16" s="1" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="T16" t="s">
         <v>313</v>
       </c>
       <c r="U16" s="1" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="V16" t="s">
         <v>313</v>
       </c>
       <c r="W16" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="X16" t="s">
         <v>313</v>
       </c>
       <c r="Y16" s="1" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="Z16" t="s">
         <v>313</v>
       </c>
       <c r="AA16" s="1" t="s">
-        <v>144</v>
+        <v>104</v>
       </c>
       <c r="AB16" s="2" t="s">
         <v>308</v>
@@ -2923,10 +3178,10 @@
         <v>83</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>335</v>
+        <v>331</v>
       </c>
       <c r="H17" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
       <c r="K17" t="s">
         <v>57</v>
@@ -2935,49 +3190,49 @@
         <v>313</v>
       </c>
       <c r="M17" s="1" t="s">
-        <v>58</v>
+        <v>572</v>
       </c>
       <c r="N17" t="s">
         <v>313</v>
       </c>
       <c r="O17" s="1" t="s">
-        <v>67</v>
+        <v>338</v>
       </c>
       <c r="P17" t="s">
         <v>313</v>
       </c>
       <c r="Q17" s="1" t="s">
-        <v>58</v>
+        <v>572</v>
       </c>
       <c r="R17" t="s">
         <v>313</v>
       </c>
       <c r="S17" s="1" t="s">
-        <v>67</v>
+        <v>338</v>
       </c>
       <c r="T17" t="s">
         <v>313</v>
       </c>
       <c r="U17" s="1" t="s">
-        <v>194</v>
+        <v>143</v>
       </c>
       <c r="V17" t="s">
         <v>313</v>
       </c>
       <c r="W17" s="1" t="s">
-        <v>58</v>
+        <v>572</v>
       </c>
       <c r="X17" t="s">
         <v>313</v>
       </c>
       <c r="Y17" s="1" t="s">
-        <v>35</v>
+        <v>44</v>
       </c>
       <c r="Z17" t="s">
         <v>313</v>
       </c>
       <c r="AA17" s="1" t="s">
-        <v>131</v>
+        <v>580</v>
       </c>
       <c r="AB17" s="2" t="s">
         <v>308</v>
@@ -3000,55 +3255,55 @@
         <v>88</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>336</v>
+        <v>332</v>
       </c>
       <c r="L18" t="s">
         <v>313</v>
       </c>
       <c r="M18" s="1" t="s">
-        <v>62</v>
+        <v>239</v>
       </c>
       <c r="N18" t="s">
         <v>313</v>
       </c>
       <c r="O18" s="1" t="s">
-        <v>114</v>
+        <v>54</v>
       </c>
       <c r="P18" t="s">
         <v>313</v>
       </c>
       <c r="Q18" s="1" t="s">
-        <v>62</v>
+        <v>239</v>
       </c>
       <c r="R18" t="s">
         <v>313</v>
       </c>
       <c r="S18" s="1" t="s">
-        <v>114</v>
+        <v>54</v>
       </c>
       <c r="T18" t="s">
         <v>313</v>
       </c>
       <c r="U18" s="1" t="s">
-        <v>198</v>
+        <v>54</v>
       </c>
       <c r="V18" t="s">
         <v>313</v>
       </c>
       <c r="W18" s="1" t="s">
-        <v>62</v>
+        <v>239</v>
       </c>
       <c r="X18" t="s">
         <v>313</v>
       </c>
       <c r="Y18" s="1" t="s">
-        <v>114</v>
+        <v>54</v>
       </c>
       <c r="Z18" t="s">
         <v>313</v>
       </c>
       <c r="AA18" s="1" t="s">
-        <v>239</v>
+        <v>190</v>
       </c>
       <c r="AB18" s="2" t="s">
         <v>308</v>
@@ -3071,10 +3326,10 @@
         <v>92</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>337</v>
+        <v>333</v>
       </c>
       <c r="H19" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
       <c r="K19" t="s">
         <v>66</v>
@@ -3083,49 +3338,49 @@
         <v>313</v>
       </c>
       <c r="M19" s="1" t="s">
-        <v>67</v>
+        <v>217</v>
       </c>
       <c r="N19" t="s">
         <v>313</v>
       </c>
       <c r="O19" s="1" t="s">
-        <v>118</v>
+        <v>247</v>
       </c>
       <c r="P19" t="s">
         <v>313</v>
       </c>
       <c r="Q19" s="1" t="s">
-        <v>67</v>
+        <v>217</v>
       </c>
       <c r="R19" t="s">
         <v>313</v>
       </c>
       <c r="S19" s="1" t="s">
-        <v>118</v>
+        <v>247</v>
       </c>
       <c r="T19" t="s">
         <v>313</v>
       </c>
       <c r="U19" s="1" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="V19" t="s">
         <v>313</v>
       </c>
       <c r="W19" s="1" t="s">
-        <v>67</v>
+        <v>217</v>
       </c>
       <c r="X19" t="s">
         <v>313</v>
       </c>
       <c r="Y19" s="1" t="s">
-        <v>208</v>
+        <v>247</v>
       </c>
       <c r="Z19" t="s">
         <v>313</v>
       </c>
       <c r="AA19" s="1" t="s">
-        <v>191</v>
+        <v>247</v>
       </c>
       <c r="AB19" s="2" t="s">
         <v>308</v>
@@ -3139,49 +3394,49 @@
         <v>313</v>
       </c>
       <c r="M20" s="1" t="s">
-        <v>71</v>
+        <v>417</v>
       </c>
       <c r="N20" t="s">
         <v>313</v>
       </c>
       <c r="O20" s="1" t="s">
-        <v>121</v>
+        <v>128</v>
       </c>
       <c r="P20" t="s">
         <v>313</v>
       </c>
       <c r="Q20" s="1" t="s">
-        <v>71</v>
+        <v>417</v>
       </c>
       <c r="R20" t="s">
         <v>313</v>
       </c>
       <c r="S20" s="1" t="s">
-        <v>121</v>
+        <v>128</v>
       </c>
       <c r="T20" t="s">
         <v>313</v>
       </c>
       <c r="U20" s="1" t="s">
-        <v>121</v>
+        <v>128</v>
       </c>
       <c r="V20" t="s">
         <v>313</v>
       </c>
       <c r="W20" s="1" t="s">
-        <v>71</v>
+        <v>417</v>
       </c>
       <c r="X20" t="s">
         <v>313</v>
       </c>
       <c r="Y20" s="1" t="s">
-        <v>121</v>
+        <v>128</v>
       </c>
       <c r="Z20" t="s">
         <v>313</v>
       </c>
       <c r="AA20" s="1" t="s">
-        <v>80</v>
+        <v>157</v>
       </c>
       <c r="AB20" s="2" t="s">
         <v>308</v>
@@ -3198,49 +3453,49 @@
         <v>313</v>
       </c>
       <c r="M21" s="1" t="s">
-        <v>76</v>
+        <v>573</v>
       </c>
       <c r="N21" t="s">
         <v>313</v>
       </c>
       <c r="O21" s="1" t="s">
-        <v>123</v>
+        <v>338</v>
       </c>
       <c r="P21" t="s">
         <v>313</v>
       </c>
       <c r="Q21" s="1" t="s">
-        <v>76</v>
+        <v>573</v>
       </c>
       <c r="R21" t="s">
         <v>313</v>
       </c>
       <c r="S21" s="1" t="s">
-        <v>123</v>
+        <v>338</v>
       </c>
       <c r="T21" t="s">
         <v>313</v>
       </c>
       <c r="U21" s="1" t="s">
-        <v>204</v>
+        <v>529</v>
       </c>
       <c r="V21" t="s">
         <v>313</v>
       </c>
       <c r="W21" s="1" t="s">
-        <v>76</v>
+        <v>573</v>
       </c>
       <c r="X21" t="s">
         <v>313</v>
       </c>
       <c r="Y21" s="1" t="s">
-        <v>246</v>
+        <v>131</v>
       </c>
       <c r="Z21" t="s">
         <v>313</v>
       </c>
       <c r="AA21" s="1" t="s">
-        <v>257</v>
+        <v>102</v>
       </c>
       <c r="AB21" s="2" t="s">
         <v>308</v>
@@ -3254,49 +3509,49 @@
         <v>313</v>
       </c>
       <c r="M22" s="1" t="s">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="N22" t="s">
         <v>313</v>
       </c>
       <c r="O22" s="1" t="s">
-        <v>98</v>
+        <v>37</v>
       </c>
       <c r="P22" t="s">
         <v>313</v>
       </c>
       <c r="Q22" s="1" t="s">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="R22" t="s">
         <v>313</v>
       </c>
       <c r="S22" s="1" t="s">
-        <v>98</v>
+        <v>37</v>
       </c>
       <c r="T22" t="s">
         <v>313</v>
       </c>
       <c r="U22" s="1" t="s">
-        <v>80</v>
+        <v>413</v>
       </c>
       <c r="V22" t="s">
         <v>313</v>
       </c>
       <c r="W22" s="1" t="s">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="X22" t="s">
         <v>313</v>
       </c>
       <c r="Y22" s="1" t="s">
-        <v>80</v>
+        <v>413</v>
       </c>
       <c r="Z22" t="s">
         <v>313</v>
       </c>
       <c r="AA22" s="1" t="s">
-        <v>259</v>
+        <v>413</v>
       </c>
       <c r="AB22" s="2" t="s">
         <v>308</v>
@@ -3313,49 +3568,49 @@
         <v>313</v>
       </c>
       <c r="M23" s="1" t="s">
-        <v>85</v>
+        <v>574</v>
       </c>
       <c r="N23" t="s">
         <v>313</v>
       </c>
       <c r="O23" s="1" t="s">
-        <v>129</v>
+        <v>576</v>
       </c>
       <c r="P23" t="s">
         <v>313</v>
       </c>
       <c r="Q23" s="1" t="s">
-        <v>85</v>
+        <v>574</v>
       </c>
       <c r="R23" t="s">
         <v>313</v>
       </c>
       <c r="S23" s="1" t="s">
-        <v>129</v>
+        <v>576</v>
       </c>
       <c r="T23" t="s">
         <v>313</v>
       </c>
       <c r="U23" s="1" t="s">
-        <v>43</v>
+        <v>577</v>
       </c>
       <c r="V23" t="s">
         <v>313</v>
       </c>
       <c r="W23" s="1" t="s">
-        <v>85</v>
+        <v>574</v>
       </c>
       <c r="X23" t="s">
         <v>313</v>
       </c>
       <c r="Y23" s="1" t="s">
-        <v>248</v>
+        <v>579</v>
       </c>
       <c r="Z23" t="s">
         <v>313</v>
       </c>
       <c r="AA23" s="1" t="s">
-        <v>131</v>
+        <v>241</v>
       </c>
       <c r="AB23" s="2" t="s">
         <v>308</v>
@@ -3369,49 +3624,49 @@
         <v>313</v>
       </c>
       <c r="M24" s="1" t="s">
-        <v>89</v>
+        <v>141</v>
       </c>
       <c r="N24" t="s">
         <v>313</v>
       </c>
       <c r="O24" s="1" t="s">
-        <v>133</v>
+        <v>168</v>
       </c>
       <c r="P24" t="s">
         <v>313</v>
       </c>
       <c r="Q24" s="1" t="s">
-        <v>89</v>
+        <v>141</v>
       </c>
       <c r="R24" t="s">
         <v>313</v>
       </c>
       <c r="S24" s="1" t="s">
-        <v>133</v>
+        <v>168</v>
       </c>
       <c r="T24" t="s">
         <v>313</v>
       </c>
       <c r="U24" s="1" t="s">
-        <v>209</v>
+        <v>115</v>
       </c>
       <c r="V24" t="s">
         <v>313</v>
       </c>
       <c r="W24" s="1" t="s">
-        <v>89</v>
+        <v>141</v>
       </c>
       <c r="X24" t="s">
         <v>313</v>
       </c>
       <c r="Y24" s="1" t="s">
-        <v>209</v>
+        <v>115</v>
       </c>
       <c r="Z24" t="s">
         <v>313</v>
       </c>
       <c r="AA24" s="1" t="s">
-        <v>81</v>
+        <v>408</v>
       </c>
       <c r="AB24" s="2" t="s">
         <v>308</v>
@@ -3466,10 +3721,10 @@
         <v>31</v>
       </c>
       <c r="F29" s="1" t="s">
-        <v>327</v>
+        <v>323</v>
       </c>
       <c r="H29" t="s">
-        <v>328</v>
+        <v>324</v>
       </c>
     </row>
     <row r="30" spans="1:28" x14ac:dyDescent="0.25">
@@ -3494,7 +3749,7 @@
         <v>96</v>
       </c>
       <c r="F31" s="1" t="s">
-        <v>338</v>
+        <v>334</v>
       </c>
       <c r="K31" t="s">
         <v>311</v>
@@ -3520,7 +3775,7 @@
         <v>163</v>
       </c>
       <c r="H32" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
       <c r="K32" t="s">
         <v>312</v>
@@ -3569,7 +3824,7 @@
         <v>108</v>
       </c>
       <c r="H34" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
       <c r="K34" t="s">
         <v>309</v>
@@ -3592,7 +3847,7 @@
         <v>107</v>
       </c>
       <c r="F35" s="1" t="s">
-        <v>339</v>
+        <v>335</v>
       </c>
       <c r="K35" t="s">
         <v>310</v>
@@ -3618,7 +3873,7 @@
         <v>104</v>
       </c>
       <c r="H36" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
       <c r="K36" t="s">
         <v>307</v>
@@ -3641,7 +3896,7 @@
         <v>113</v>
       </c>
       <c r="F37" s="1" t="s">
-        <v>340</v>
+        <v>336</v>
       </c>
       <c r="L37" t="s">
         <v>313</v>
@@ -3709,10 +3964,10 @@
         <v>117</v>
       </c>
       <c r="F38" s="1" t="s">
-        <v>341</v>
+        <v>337</v>
       </c>
       <c r="H38" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
       <c r="K38" t="s">
         <v>305</v>
@@ -3787,7 +4042,7 @@
         <v>120</v>
       </c>
       <c r="F39" s="1" t="s">
-        <v>342</v>
+        <v>338</v>
       </c>
       <c r="K39" t="s">
         <v>306</v>
@@ -3864,7 +4119,7 @@
         <v>98</v>
       </c>
       <c r="H40" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
       <c r="K40" t="s">
         <v>307</v>
@@ -3894,7 +4149,7 @@
         <v>125</v>
       </c>
       <c r="F41" s="1" t="s">
-        <v>343</v>
+        <v>339</v>
       </c>
       <c r="K41" t="s">
         <v>32</v>
@@ -3903,49 +4158,49 @@
         <v>313</v>
       </c>
       <c r="M41" s="1" t="s">
-        <v>34</v>
+        <v>589</v>
       </c>
       <c r="N41" t="s">
         <v>313</v>
       </c>
       <c r="O41" s="1" t="s">
-        <v>94</v>
+        <v>129</v>
       </c>
       <c r="P41" t="s">
         <v>313</v>
       </c>
       <c r="Q41" s="1" t="s">
-        <v>137</v>
+        <v>599</v>
       </c>
       <c r="R41" t="s">
         <v>313</v>
       </c>
       <c r="S41" s="1" t="s">
-        <v>169</v>
+        <v>606</v>
       </c>
       <c r="T41" t="s">
         <v>313</v>
       </c>
       <c r="U41" s="1" t="s">
-        <v>187</v>
+        <v>182</v>
       </c>
       <c r="V41" t="s">
         <v>313</v>
       </c>
       <c r="W41" s="1" t="s">
-        <v>211</v>
+        <v>613</v>
       </c>
       <c r="X41" t="s">
         <v>313</v>
       </c>
       <c r="Y41" s="1" t="s">
-        <v>105</v>
+        <v>399</v>
       </c>
       <c r="Z41" t="s">
         <v>313</v>
       </c>
       <c r="AA41" s="1" t="s">
-        <v>251</v>
+        <v>205</v>
       </c>
       <c r="AB41" s="2" t="s">
         <v>308</v>
@@ -3971,55 +4226,55 @@
         <v>83</v>
       </c>
       <c r="H42" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
       <c r="L42" t="s">
         <v>313</v>
       </c>
       <c r="M42" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="N42" t="s">
+        <v>313</v>
+      </c>
+      <c r="O42" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="P42" t="s">
+        <v>313</v>
+      </c>
+      <c r="Q42" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="R42" t="s">
+        <v>313</v>
+      </c>
+      <c r="S42" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="N42" t="s">
-        <v>313</v>
-      </c>
-      <c r="O42" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="P42" t="s">
-        <v>313</v>
-      </c>
-      <c r="Q42" s="1" t="s">
-        <v>140</v>
-      </c>
-      <c r="R42" t="s">
-        <v>313</v>
-      </c>
-      <c r="S42" s="1" t="s">
-        <v>56</v>
-      </c>
       <c r="T42" t="s">
         <v>313</v>
       </c>
       <c r="U42" s="1" t="s">
-        <v>56</v>
+        <v>327</v>
       </c>
       <c r="V42" t="s">
         <v>313</v>
       </c>
       <c r="W42" s="1" t="s">
-        <v>83</v>
+        <v>91</v>
       </c>
       <c r="X42" t="s">
         <v>313</v>
       </c>
       <c r="Y42" s="1" t="s">
-        <v>56</v>
+        <v>219</v>
       </c>
       <c r="Z42" t="s">
         <v>313</v>
       </c>
       <c r="AA42" s="1" t="s">
-        <v>144</v>
+        <v>198</v>
       </c>
       <c r="AB42" s="2" t="s">
         <v>308</v>
@@ -4042,7 +4297,7 @@
         <v>132</v>
       </c>
       <c r="F43" s="1" t="s">
-        <v>344</v>
+        <v>340</v>
       </c>
       <c r="K43" t="s">
         <v>41</v>
@@ -4051,49 +4306,49 @@
         <v>313</v>
       </c>
       <c r="M43" s="1" t="s">
-        <v>43</v>
+        <v>208</v>
       </c>
       <c r="N43" t="s">
         <v>313</v>
       </c>
       <c r="O43" s="1" t="s">
-        <v>100</v>
+        <v>423</v>
       </c>
       <c r="P43" t="s">
         <v>313</v>
       </c>
       <c r="Q43" s="1" t="s">
-        <v>142</v>
+        <v>123</v>
       </c>
       <c r="R43" t="s">
         <v>313</v>
       </c>
       <c r="S43" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="T43" t="s">
+        <v>313</v>
+      </c>
+      <c r="U43" s="1" t="s">
         <v>130</v>
       </c>
-      <c r="T43" t="s">
-        <v>313</v>
-      </c>
-      <c r="U43" s="1" t="s">
-        <v>120</v>
-      </c>
       <c r="V43" t="s">
         <v>313</v>
       </c>
       <c r="W43" s="1" t="s">
-        <v>216</v>
+        <v>172</v>
       </c>
       <c r="X43" t="s">
         <v>313</v>
       </c>
       <c r="Y43" s="1" t="s">
-        <v>208</v>
+        <v>423</v>
       </c>
       <c r="Z43" t="s">
         <v>313</v>
       </c>
       <c r="AA43" s="1" t="s">
-        <v>252</v>
+        <v>191</v>
       </c>
       <c r="AB43" s="2" t="s">
         <v>308</v>
@@ -4116,58 +4371,58 @@
         <v>136</v>
       </c>
       <c r="F44" s="1" t="s">
-        <v>345</v>
+        <v>341</v>
       </c>
       <c r="H44" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
       <c r="L44" t="s">
         <v>313</v>
       </c>
       <c r="M44" s="1" t="s">
-        <v>47</v>
+        <v>327</v>
       </c>
       <c r="N44" t="s">
         <v>313</v>
       </c>
       <c r="O44" s="1" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
       <c r="P44" t="s">
         <v>313</v>
       </c>
       <c r="Q44" s="1" t="s">
-        <v>104</v>
+        <v>55</v>
       </c>
       <c r="R44" t="s">
         <v>313</v>
       </c>
       <c r="S44" s="1" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
       <c r="T44" t="s">
         <v>313</v>
       </c>
       <c r="U44" s="1" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="V44" t="s">
         <v>313</v>
       </c>
       <c r="W44" s="1" t="s">
-        <v>54</v>
+        <v>361</v>
       </c>
       <c r="X44" t="s">
         <v>313</v>
       </c>
       <c r="Y44" s="1" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="Z44" t="s">
         <v>313</v>
       </c>
       <c r="AA44" s="1" t="s">
-        <v>103</v>
+        <v>144</v>
       </c>
       <c r="AB44" s="2" t="s">
         <v>308</v>
@@ -4184,49 +4439,49 @@
         <v>313</v>
       </c>
       <c r="M45" s="1" t="s">
-        <v>35</v>
+        <v>93</v>
       </c>
       <c r="N45" t="s">
         <v>313</v>
       </c>
       <c r="O45" s="1" t="s">
-        <v>105</v>
+        <v>172</v>
       </c>
       <c r="P45" t="s">
         <v>313</v>
       </c>
       <c r="Q45" s="1" t="s">
-        <v>145</v>
+        <v>600</v>
       </c>
       <c r="R45" t="s">
         <v>313</v>
       </c>
       <c r="S45" s="1" t="s">
-        <v>172</v>
+        <v>205</v>
       </c>
       <c r="T45" t="s">
         <v>313</v>
       </c>
       <c r="U45" s="1" t="s">
+        <v>250</v>
+      </c>
+      <c r="V45" t="s">
+        <v>313</v>
+      </c>
+      <c r="W45" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="V45" t="s">
-        <v>313</v>
-      </c>
-      <c r="W45" s="1" t="s">
-        <v>172</v>
-      </c>
       <c r="X45" t="s">
         <v>313</v>
       </c>
       <c r="Y45" s="1" t="s">
-        <v>240</v>
+        <v>182</v>
       </c>
       <c r="Z45" t="s">
         <v>313</v>
       </c>
       <c r="AA45" s="1" t="s">
-        <v>240</v>
+        <v>399</v>
       </c>
       <c r="AB45" s="2" t="s">
         <v>308</v>
@@ -4240,13 +4495,13 @@
         <v>313</v>
       </c>
       <c r="M46" s="1" t="s">
-        <v>55</v>
+        <v>144</v>
       </c>
       <c r="N46" t="s">
         <v>313</v>
       </c>
       <c r="O46" s="1" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
       <c r="P46" t="s">
         <v>313</v>
@@ -4258,31 +4513,31 @@
         <v>313</v>
       </c>
       <c r="S46" s="1" t="s">
-        <v>97</v>
+        <v>103</v>
       </c>
       <c r="T46" t="s">
         <v>313</v>
       </c>
       <c r="U46" s="1" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
       <c r="V46" t="s">
         <v>313</v>
       </c>
       <c r="W46" s="1" t="s">
-        <v>55</v>
+        <v>144</v>
       </c>
       <c r="X46" t="s">
         <v>313</v>
       </c>
       <c r="Y46" s="1" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
       <c r="Z46" t="s">
         <v>313</v>
       </c>
       <c r="AA46" s="1" t="s">
-        <v>97</v>
+        <v>104</v>
       </c>
       <c r="AB46" s="2" t="s">
         <v>308</v>
@@ -4299,49 +4554,49 @@
         <v>313</v>
       </c>
       <c r="M47" s="1" t="s">
-        <v>59</v>
+        <v>590</v>
       </c>
       <c r="N47" t="s">
         <v>313</v>
       </c>
       <c r="O47" s="1" t="s">
-        <v>111</v>
+        <v>87</v>
       </c>
       <c r="P47" t="s">
         <v>313</v>
       </c>
       <c r="Q47" s="1" t="s">
-        <v>148</v>
+        <v>601</v>
       </c>
       <c r="R47" t="s">
         <v>313</v>
       </c>
       <c r="S47" s="1" t="s">
-        <v>173</v>
+        <v>607</v>
       </c>
       <c r="T47" t="s">
         <v>313</v>
       </c>
       <c r="U47" s="1" t="s">
-        <v>195</v>
+        <v>160</v>
       </c>
       <c r="V47" t="s">
         <v>313</v>
       </c>
       <c r="W47" s="1" t="s">
-        <v>222</v>
+        <v>614</v>
       </c>
       <c r="X47" t="s">
         <v>313</v>
       </c>
       <c r="Y47" s="1" t="s">
-        <v>241</v>
+        <v>100</v>
       </c>
       <c r="Z47" t="s">
         <v>313</v>
       </c>
       <c r="AA47" s="1" t="s">
-        <v>254</v>
+        <v>188</v>
       </c>
       <c r="AB47" s="2" t="s">
         <v>308</v>
@@ -4355,49 +4610,49 @@
         <v>313</v>
       </c>
       <c r="M48" s="1" t="s">
-        <v>63</v>
+        <v>591</v>
       </c>
       <c r="N48" t="s">
         <v>313</v>
       </c>
       <c r="O48" s="1" t="s">
-        <v>115</v>
+        <v>595</v>
       </c>
       <c r="P48" t="s">
         <v>313</v>
       </c>
       <c r="Q48" s="1" t="s">
-        <v>151</v>
+        <v>602</v>
       </c>
       <c r="R48" t="s">
         <v>313</v>
       </c>
       <c r="S48" s="1" t="s">
-        <v>175</v>
+        <v>608</v>
       </c>
       <c r="T48" t="s">
         <v>313</v>
       </c>
       <c r="U48" s="1" t="s">
-        <v>199</v>
+        <v>536</v>
       </c>
       <c r="V48" t="s">
         <v>313</v>
       </c>
       <c r="W48" s="1" t="s">
-        <v>225</v>
+        <v>615</v>
       </c>
       <c r="X48" t="s">
         <v>313</v>
       </c>
       <c r="Y48" s="1" t="s">
-        <v>134</v>
+        <v>619</v>
       </c>
       <c r="Z48" t="s">
         <v>313</v>
       </c>
       <c r="AA48" s="1" t="s">
-        <v>115</v>
+        <v>621</v>
       </c>
       <c r="AB48" s="2" t="s">
         <v>308</v>
@@ -4414,49 +4669,49 @@
         <v>313</v>
       </c>
       <c r="M49" s="1" t="s">
-        <v>68</v>
+        <v>105</v>
       </c>
       <c r="N49" t="s">
         <v>313</v>
       </c>
       <c r="O49" s="1" t="s">
-        <v>79</v>
+        <v>538</v>
       </c>
       <c r="P49" t="s">
         <v>313</v>
       </c>
       <c r="Q49" s="1" t="s">
-        <v>154</v>
+        <v>603</v>
       </c>
       <c r="R49" t="s">
         <v>313</v>
       </c>
       <c r="S49" s="1" t="s">
-        <v>178</v>
+        <v>105</v>
       </c>
       <c r="T49" t="s">
         <v>313</v>
       </c>
       <c r="U49" s="1" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="V49" t="s">
         <v>313</v>
       </c>
       <c r="W49" s="1" t="s">
-        <v>123</v>
+        <v>221</v>
       </c>
       <c r="X49" t="s">
         <v>313</v>
       </c>
       <c r="Y49" s="1" t="s">
-        <v>244</v>
+        <v>118</v>
       </c>
       <c r="Z49" t="s">
         <v>313</v>
       </c>
       <c r="AA49" s="1" t="s">
-        <v>202</v>
+        <v>118</v>
       </c>
       <c r="AB49" s="2" t="s">
         <v>308</v>
@@ -4470,31 +4725,31 @@
         <v>313</v>
       </c>
       <c r="M50" s="1" t="s">
-        <v>72</v>
+        <v>140</v>
       </c>
       <c r="N50" t="s">
         <v>313</v>
       </c>
       <c r="O50" s="1" t="s">
-        <v>122</v>
+        <v>98</v>
       </c>
       <c r="P50" t="s">
         <v>313</v>
       </c>
       <c r="Q50" s="1" t="s">
-        <v>157</v>
+        <v>331</v>
       </c>
       <c r="R50" t="s">
         <v>313</v>
       </c>
       <c r="S50" s="1" t="s">
-        <v>122</v>
+        <v>98</v>
       </c>
       <c r="T50" t="s">
         <v>313</v>
       </c>
       <c r="U50" s="1" t="s">
-        <v>122</v>
+        <v>259</v>
       </c>
       <c r="V50" t="s">
         <v>313</v>
@@ -4506,13 +4761,13 @@
         <v>313</v>
       </c>
       <c r="Y50" s="1" t="s">
-        <v>122</v>
+        <v>98</v>
       </c>
       <c r="Z50" t="s">
         <v>313</v>
       </c>
       <c r="AA50" s="1" t="s">
-        <v>98</v>
+        <v>412</v>
       </c>
       <c r="AB50" s="2" t="s">
         <v>308</v>
@@ -4529,49 +4784,49 @@
         <v>313</v>
       </c>
       <c r="M51" s="1" t="s">
-        <v>77</v>
+        <v>592</v>
       </c>
       <c r="N51" t="s">
         <v>313</v>
       </c>
       <c r="O51" s="1" t="s">
-        <v>124</v>
+        <v>596</v>
       </c>
       <c r="P51" t="s">
         <v>313</v>
       </c>
       <c r="Q51" s="1" t="s">
-        <v>159</v>
+        <v>330</v>
       </c>
       <c r="R51" t="s">
         <v>313</v>
       </c>
       <c r="S51" s="1" t="s">
-        <v>181</v>
+        <v>402</v>
       </c>
       <c r="T51" t="s">
         <v>313</v>
       </c>
       <c r="U51" s="1" t="s">
-        <v>205</v>
+        <v>610</v>
       </c>
       <c r="V51" t="s">
         <v>313</v>
       </c>
       <c r="W51" s="1" t="s">
-        <v>231</v>
+        <v>616</v>
       </c>
       <c r="X51" t="s">
         <v>313</v>
       </c>
       <c r="Y51" s="1" t="s">
-        <v>247</v>
+        <v>229</v>
       </c>
       <c r="Z51" t="s">
         <v>313</v>
       </c>
       <c r="AA51" s="1" t="s">
-        <v>99</v>
+        <v>359</v>
       </c>
       <c r="AB51" s="2" t="s">
         <v>308</v>
@@ -4585,7 +4840,7 @@
         <v>313</v>
       </c>
       <c r="M52" s="1" t="s">
-        <v>81</v>
+        <v>593</v>
       </c>
       <c r="N52" t="s">
         <v>313</v>
@@ -4597,25 +4852,25 @@
         <v>313</v>
       </c>
       <c r="Q52" s="1" t="s">
-        <v>162</v>
+        <v>331</v>
       </c>
       <c r="R52" t="s">
         <v>313</v>
       </c>
       <c r="S52" s="1" t="s">
-        <v>126</v>
+        <v>40</v>
       </c>
       <c r="T52" t="s">
         <v>313</v>
       </c>
       <c r="U52" s="1" t="s">
-        <v>126</v>
+        <v>40</v>
       </c>
       <c r="V52" t="s">
         <v>313</v>
       </c>
       <c r="W52" s="1" t="s">
-        <v>81</v>
+        <v>593</v>
       </c>
       <c r="X52" t="s">
         <v>313</v>
@@ -4627,7 +4882,7 @@
         <v>313</v>
       </c>
       <c r="AA52" s="1" t="s">
-        <v>157</v>
+        <v>83</v>
       </c>
       <c r="AB52" s="2" t="s">
         <v>308</v>
@@ -4644,49 +4899,49 @@
         <v>313</v>
       </c>
       <c r="M53" s="1" t="s">
-        <v>86</v>
+        <v>594</v>
       </c>
       <c r="N53" t="s">
         <v>313</v>
       </c>
       <c r="O53" s="1" t="s">
-        <v>130</v>
+        <v>597</v>
       </c>
       <c r="P53" t="s">
         <v>313</v>
       </c>
       <c r="Q53" s="1" t="s">
-        <v>164</v>
+        <v>604</v>
       </c>
       <c r="R53" t="s">
         <v>313</v>
       </c>
       <c r="S53" s="1" t="s">
-        <v>184</v>
+        <v>609</v>
       </c>
       <c r="T53" t="s">
         <v>313</v>
       </c>
       <c r="U53" s="1" t="s">
-        <v>207</v>
+        <v>611</v>
       </c>
       <c r="V53" t="s">
         <v>313</v>
       </c>
       <c r="W53" s="1" t="s">
-        <v>234</v>
+        <v>617</v>
       </c>
       <c r="X53" t="s">
         <v>313</v>
       </c>
       <c r="Y53" s="1" t="s">
-        <v>249</v>
+        <v>620</v>
       </c>
       <c r="Z53" t="s">
         <v>313</v>
       </c>
       <c r="AA53" s="1" t="s">
-        <v>260</v>
+        <v>622</v>
       </c>
       <c r="AB53" s="2" t="s">
         <v>308</v>
@@ -4709,58 +4964,58 @@
         <v>31</v>
       </c>
       <c r="F54" s="1" t="s">
-        <v>327</v>
+        <v>323</v>
       </c>
       <c r="H54" t="s">
-        <v>328</v>
+        <v>324</v>
       </c>
       <c r="L54" t="s">
         <v>313</v>
       </c>
       <c r="M54" s="1" t="s">
-        <v>90</v>
+        <v>201</v>
       </c>
       <c r="N54" t="s">
         <v>313</v>
       </c>
       <c r="O54" s="1" t="s">
-        <v>134</v>
+        <v>598</v>
       </c>
       <c r="P54" t="s">
         <v>313</v>
       </c>
       <c r="Q54" s="1" t="s">
-        <v>167</v>
+        <v>605</v>
       </c>
       <c r="R54" t="s">
         <v>313</v>
       </c>
       <c r="S54" s="1" t="s">
-        <v>186</v>
+        <v>598</v>
       </c>
       <c r="T54" t="s">
         <v>313</v>
       </c>
       <c r="U54" s="1" t="s">
-        <v>136</v>
+        <v>612</v>
       </c>
       <c r="V54" t="s">
         <v>313</v>
       </c>
       <c r="W54" s="1" t="s">
-        <v>237</v>
+        <v>618</v>
       </c>
       <c r="X54" t="s">
         <v>313</v>
       </c>
       <c r="Y54" s="1" t="s">
-        <v>199</v>
+        <v>238</v>
       </c>
       <c r="Z54" t="s">
         <v>313</v>
       </c>
       <c r="AA54" s="1" t="s">
-        <v>261</v>
+        <v>542</v>
       </c>
       <c r="AB54" s="2" t="s">
         <v>308</v>
@@ -4791,7 +5046,7 @@
         <v>139</v>
       </c>
       <c r="F56" s="1" t="s">
-        <v>346</v>
+        <v>342</v>
       </c>
       <c r="K56" t="s">
         <v>315</v>
@@ -4817,7 +5072,7 @@
         <v>72</v>
       </c>
       <c r="H57" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
       <c r="K57" t="s">
         <v>320</v>
@@ -4840,7 +5095,7 @@
         <v>132</v>
       </c>
       <c r="F58" s="1" t="s">
-        <v>347</v>
+        <v>343</v>
       </c>
       <c r="K58" t="s">
         <v>316</v>
@@ -4866,7 +5121,7 @@
         <v>144</v>
       </c>
       <c r="H59" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
     </row>
     <row r="60" spans="1:28" x14ac:dyDescent="0.25">
@@ -4886,7 +5141,7 @@
         <v>147</v>
       </c>
       <c r="F60" s="1" t="s">
-        <v>348</v>
+        <v>344</v>
       </c>
       <c r="K60" t="s">
         <v>311</v>
@@ -4912,7 +5167,7 @@
         <v>108</v>
       </c>
       <c r="H61" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
       <c r="K61" t="s">
         <v>312</v>
@@ -4935,7 +5190,7 @@
         <v>150</v>
       </c>
       <c r="F62" s="1" t="s">
-        <v>349</v>
+        <v>345</v>
       </c>
       <c r="K62" t="s">
         <v>321</v>
@@ -4958,10 +5213,10 @@
         <v>153</v>
       </c>
       <c r="F63" s="1" t="s">
-        <v>350</v>
+        <v>346</v>
       </c>
       <c r="H63" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
       <c r="K63" t="s">
         <v>309</v>
@@ -4984,7 +5239,7 @@
         <v>156</v>
       </c>
       <c r="F64" s="1" t="s">
-        <v>351</v>
+        <v>347</v>
       </c>
       <c r="K64" t="s">
         <v>310</v>
@@ -5010,7 +5265,7 @@
         <v>71</v>
       </c>
       <c r="H65" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
       <c r="K65" t="s">
         <v>307</v>
@@ -5033,7 +5288,7 @@
         <v>161</v>
       </c>
       <c r="F66" s="1" t="s">
-        <v>352</v>
+        <v>348</v>
       </c>
       <c r="L66" t="s">
         <v>313</v>
@@ -5107,7 +5362,7 @@
         <v>40</v>
       </c>
       <c r="H67" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
       <c r="K67" t="s">
         <v>305</v>
@@ -5116,51 +5371,51 @@
         <v>313</v>
       </c>
       <c r="M67" s="1" t="s">
-        <v>265</v>
-      </c>
-      <c r="N67" s="1" t="s">
+        <v>623</v>
+      </c>
+      <c r="N67" t="s">
         <v>313</v>
       </c>
       <c r="O67" s="1" t="s">
-        <v>271</v>
-      </c>
-      <c r="P67" s="1" t="s">
+        <v>624</v>
+      </c>
+      <c r="P67" t="s">
         <v>313</v>
       </c>
       <c r="Q67" s="1" t="s">
-        <v>276</v>
-      </c>
-      <c r="R67" s="1" t="s">
+        <v>625</v>
+      </c>
+      <c r="R67" t="s">
         <v>313</v>
       </c>
       <c r="S67" s="1" t="s">
-        <v>281</v>
-      </c>
-      <c r="T67" s="1" t="s">
+        <v>626</v>
+      </c>
+      <c r="T67" t="s">
         <v>313</v>
       </c>
       <c r="U67" s="1" t="s">
-        <v>286</v>
-      </c>
-      <c r="V67" s="1" t="s">
+        <v>627</v>
+      </c>
+      <c r="V67" t="s">
         <v>313</v>
       </c>
       <c r="W67" s="1" t="s">
-        <v>291</v>
-      </c>
-      <c r="X67" s="1" t="s">
+        <v>628</v>
+      </c>
+      <c r="X67" t="s">
         <v>313</v>
       </c>
       <c r="Y67" s="1" t="s">
-        <v>296</v>
-      </c>
-      <c r="Z67" s="1" t="s">
+        <v>629</v>
+      </c>
+      <c r="Z67" t="s">
         <v>313</v>
       </c>
       <c r="AA67" s="1" t="s">
-        <v>301</v>
-      </c>
-      <c r="AB67" s="3" t="s">
+        <v>630</v>
+      </c>
+      <c r="AB67" s="2" t="s">
         <v>308</v>
       </c>
     </row>
@@ -5181,7 +5436,7 @@
         <v>166</v>
       </c>
       <c r="F68" s="1" t="s">
-        <v>353</v>
+        <v>349</v>
       </c>
       <c r="K68" t="s">
         <v>306</v>
@@ -5258,7 +5513,7 @@
         <v>135</v>
       </c>
       <c r="H69" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
       <c r="K69" t="s">
         <v>307</v>
@@ -5807,10 +6062,10 @@
         <v>31</v>
       </c>
       <c r="F79" s="1" t="s">
-        <v>327</v>
+        <v>323</v>
       </c>
       <c r="H79" t="s">
-        <v>328</v>
+        <v>324</v>
       </c>
       <c r="L79" t="s">
         <v>313</v>
@@ -6014,7 +6269,7 @@
         <v>40</v>
       </c>
       <c r="H82" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
       <c r="K82" t="s">
         <v>84</v>
@@ -6162,7 +6417,7 @@
         <v>104</v>
       </c>
       <c r="H84" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
       <c r="K84" t="s">
         <v>314</v>
@@ -6211,7 +6466,7 @@
         <v>103</v>
       </c>
       <c r="H86" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
       <c r="K86" t="s">
         <v>322</v>
@@ -6234,7 +6489,7 @@
         <v>100</v>
       </c>
       <c r="F87" s="1" t="s">
-        <v>354</v>
+        <v>350</v>
       </c>
       <c r="K87" t="s">
         <v>316</v>
@@ -6257,10 +6512,10 @@
         <v>177</v>
       </c>
       <c r="F88" s="1" t="s">
-        <v>355</v>
+        <v>351</v>
       </c>
       <c r="H88" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
     </row>
     <row r="89" spans="1:28" x14ac:dyDescent="0.25">
@@ -6280,7 +6535,7 @@
         <v>180</v>
       </c>
       <c r="F89" s="1" t="s">
-        <v>356</v>
+        <v>352</v>
       </c>
       <c r="K89" t="s">
         <v>311</v>
@@ -6306,7 +6561,7 @@
         <v>98</v>
       </c>
       <c r="H90" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
       <c r="K90" t="s">
         <v>312</v>
@@ -6332,7 +6587,7 @@
         <v>142</v>
       </c>
       <c r="K91" t="s">
-        <v>323</v>
+        <v>631</v>
       </c>
     </row>
     <row r="92" spans="1:28" x14ac:dyDescent="0.25">
@@ -6355,7 +6610,7 @@
         <v>62</v>
       </c>
       <c r="H92" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
       <c r="K92" t="s">
         <v>309</v>
@@ -6378,7 +6633,7 @@
         <v>93</v>
       </c>
       <c r="F93" s="1" t="s">
-        <v>356</v>
+        <v>352</v>
       </c>
       <c r="K93" t="s">
         <v>310</v>
@@ -6404,7 +6659,7 @@
         <v>210</v>
       </c>
       <c r="H94" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
       <c r="K94" t="s">
         <v>307</v>
@@ -6607,49 +6862,49 @@
         <v>313</v>
       </c>
       <c r="M99" s="1" t="s">
-        <v>33</v>
+        <v>633</v>
       </c>
       <c r="N99" t="s">
         <v>313</v>
       </c>
       <c r="O99" s="1" t="s">
-        <v>96</v>
+        <v>530</v>
       </c>
       <c r="P99" t="s">
         <v>313</v>
       </c>
       <c r="Q99" s="1" t="s">
-        <v>139</v>
+        <v>641</v>
       </c>
       <c r="R99" t="s">
         <v>313</v>
       </c>
       <c r="S99" s="1" t="s">
-        <v>107</v>
+        <v>641</v>
       </c>
       <c r="T99" t="s">
         <v>313</v>
       </c>
       <c r="U99" s="1" t="s">
-        <v>189</v>
+        <v>76</v>
       </c>
       <c r="V99" t="s">
         <v>313</v>
       </c>
       <c r="W99" s="1" t="s">
-        <v>213</v>
+        <v>179</v>
       </c>
       <c r="X99" t="s">
         <v>313</v>
       </c>
       <c r="Y99" s="1" t="s">
-        <v>179</v>
+        <v>247</v>
       </c>
       <c r="Z99" t="s">
         <v>313</v>
       </c>
       <c r="AA99" s="1" t="s">
-        <v>69</v>
+        <v>393</v>
       </c>
       <c r="AB99" s="2" t="s">
         <v>308</v>
@@ -6663,49 +6918,49 @@
         <v>313</v>
       </c>
       <c r="M100" s="1" t="s">
-        <v>37</v>
+        <v>83</v>
       </c>
       <c r="N100" t="s">
         <v>313</v>
       </c>
       <c r="O100" s="1" t="s">
-        <v>98</v>
+        <v>258</v>
       </c>
       <c r="P100" t="s">
         <v>313</v>
       </c>
       <c r="Q100" s="1" t="s">
-        <v>141</v>
+        <v>162</v>
       </c>
       <c r="R100" t="s">
         <v>313</v>
       </c>
       <c r="S100" s="1" t="s">
-        <v>121</v>
+        <v>162</v>
       </c>
       <c r="T100" t="s">
         <v>313</v>
       </c>
       <c r="U100" s="1" t="s">
-        <v>190</v>
+        <v>412</v>
       </c>
       <c r="V100" t="s">
         <v>313</v>
       </c>
       <c r="W100" s="1" t="s">
-        <v>215</v>
+        <v>651</v>
       </c>
       <c r="X100" t="s">
         <v>313</v>
       </c>
       <c r="Y100" s="1" t="s">
-        <v>38</v>
+        <v>412</v>
       </c>
       <c r="Z100" t="s">
         <v>313</v>
       </c>
       <c r="AA100" s="1" t="s">
-        <v>46</v>
+        <v>54</v>
       </c>
       <c r="AB100" s="2" t="s">
         <v>308</v>
@@ -6722,49 +6977,49 @@
         <v>313</v>
       </c>
       <c r="M101" s="1" t="s">
-        <v>42</v>
+        <v>203</v>
       </c>
       <c r="N101" t="s">
         <v>313</v>
       </c>
       <c r="O101" s="1" t="s">
-        <v>102</v>
+        <v>185</v>
       </c>
       <c r="P101" t="s">
         <v>313</v>
       </c>
       <c r="Q101" s="1" t="s">
-        <v>132</v>
+        <v>244</v>
       </c>
       <c r="R101" t="s">
         <v>313</v>
       </c>
       <c r="S101" s="1" t="s">
-        <v>171</v>
+        <v>244</v>
       </c>
       <c r="T101" t="s">
         <v>313</v>
       </c>
       <c r="U101" s="1" t="s">
-        <v>191</v>
+        <v>399</v>
       </c>
       <c r="V101" t="s">
         <v>313</v>
       </c>
       <c r="W101" s="1" t="s">
-        <v>218</v>
+        <v>411</v>
       </c>
       <c r="X101" t="s">
         <v>313</v>
       </c>
       <c r="Y101" s="1" t="s">
-        <v>171</v>
+        <v>120</v>
       </c>
       <c r="Z101" t="s">
         <v>313</v>
       </c>
       <c r="AA101" s="1" t="s">
-        <v>69</v>
+        <v>185</v>
       </c>
       <c r="AB101" s="2" t="s">
         <v>308</v>
@@ -6778,49 +7033,49 @@
         <v>313</v>
       </c>
       <c r="M102" s="1" t="s">
-        <v>46</v>
+        <v>373</v>
       </c>
       <c r="N102" t="s">
         <v>313</v>
       </c>
       <c r="O102" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="P102" t="s">
+        <v>313</v>
+      </c>
+      <c r="Q102" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="R102" t="s">
+        <v>313</v>
+      </c>
+      <c r="S102" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="T102" t="s">
+        <v>313</v>
+      </c>
+      <c r="U102" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="V102" t="s">
+        <v>313</v>
+      </c>
+      <c r="W102" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="X102" t="s">
+        <v>313</v>
+      </c>
+      <c r="Y102" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="Z102" t="s">
+        <v>313</v>
+      </c>
+      <c r="AA102" s="1" t="s">
         <v>104</v>
-      </c>
-      <c r="P102" t="s">
-        <v>313</v>
-      </c>
-      <c r="Q102" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="R102" t="s">
-        <v>313</v>
-      </c>
-      <c r="S102" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="T102" t="s">
-        <v>313</v>
-      </c>
-      <c r="U102" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="V102" t="s">
-        <v>313</v>
-      </c>
-      <c r="W102" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="X102" t="s">
-        <v>313</v>
-      </c>
-      <c r="Y102" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="Z102" t="s">
-        <v>313</v>
-      </c>
-      <c r="AA102" s="1" t="s">
-        <v>108</v>
       </c>
       <c r="AB102" s="2" t="s">
         <v>308</v>
@@ -6837,49 +7092,49 @@
         <v>313</v>
       </c>
       <c r="M103" s="1" t="s">
-        <v>51</v>
+        <v>634</v>
       </c>
       <c r="N103" t="s">
         <v>313</v>
       </c>
       <c r="O103" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="P103" t="s">
         <v>313</v>
       </c>
       <c r="Q103" s="1" t="s">
-        <v>147</v>
+        <v>642</v>
       </c>
       <c r="R103" t="s">
         <v>313</v>
       </c>
       <c r="S103" s="1" t="s">
-        <v>93</v>
+        <v>642</v>
       </c>
       <c r="T103" t="s">
         <v>313</v>
       </c>
       <c r="U103" s="1" t="s">
-        <v>118</v>
+        <v>207</v>
       </c>
       <c r="V103" t="s">
         <v>313</v>
       </c>
       <c r="W103" s="1" t="s">
-        <v>221</v>
+        <v>354</v>
       </c>
       <c r="X103" t="s">
         <v>313</v>
       </c>
       <c r="Y103" s="1" t="s">
-        <v>67</v>
+        <v>249</v>
       </c>
       <c r="Z103" t="s">
         <v>313</v>
       </c>
       <c r="AA103" s="1" t="s">
-        <v>253</v>
+        <v>248</v>
       </c>
       <c r="AB103" s="2" t="s">
         <v>308</v>
@@ -6902,58 +7157,58 @@
         <v>31</v>
       </c>
       <c r="F104" s="1" t="s">
-        <v>327</v>
+        <v>323</v>
       </c>
       <c r="H104" t="s">
-        <v>328</v>
+        <v>324</v>
       </c>
       <c r="L104" t="s">
         <v>313</v>
       </c>
       <c r="M104" s="1" t="s">
-        <v>54</v>
+        <v>198</v>
       </c>
       <c r="N104" t="s">
         <v>313</v>
       </c>
       <c r="O104" s="1" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="P104" t="s">
         <v>313</v>
       </c>
       <c r="Q104" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="R104" t="s">
+        <v>313</v>
+      </c>
+      <c r="S104" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="T104" t="s">
+        <v>313</v>
+      </c>
+      <c r="U104" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="V104" t="s">
+        <v>313</v>
+      </c>
+      <c r="W104" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="X104" t="s">
+        <v>313</v>
+      </c>
+      <c r="Y104" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="Z104" t="s">
+        <v>313</v>
+      </c>
+      <c r="AA104" s="1" t="s">
         <v>108</v>
-      </c>
-      <c r="R104" t="s">
-        <v>313</v>
-      </c>
-      <c r="S104" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="T104" t="s">
-        <v>313</v>
-      </c>
-      <c r="U104" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="V104" t="s">
-        <v>313</v>
-      </c>
-      <c r="W104" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="X104" t="s">
-        <v>313</v>
-      </c>
-      <c r="Y104" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="Z104" t="s">
-        <v>313</v>
-      </c>
-      <c r="AA104" s="1" t="s">
-        <v>104</v>
       </c>
       <c r="AB104" s="2" t="s">
         <v>308</v>
@@ -6970,49 +7225,49 @@
         <v>313</v>
       </c>
       <c r="M105" s="1" t="s">
-        <v>58</v>
+        <v>635</v>
       </c>
       <c r="N105" t="s">
         <v>313</v>
       </c>
       <c r="O105" s="1" t="s">
-        <v>113</v>
+        <v>130</v>
       </c>
       <c r="P105" t="s">
         <v>313</v>
       </c>
       <c r="Q105" s="1" t="s">
-        <v>150</v>
+        <v>643</v>
       </c>
       <c r="R105" t="s">
         <v>313</v>
       </c>
       <c r="S105" s="1" t="s">
-        <v>100</v>
+        <v>643</v>
       </c>
       <c r="T105" t="s">
         <v>313</v>
       </c>
       <c r="U105" s="1" t="s">
-        <v>197</v>
+        <v>648</v>
       </c>
       <c r="V105" t="s">
         <v>313</v>
       </c>
       <c r="W105" s="1" t="s">
-        <v>224</v>
+        <v>185</v>
       </c>
       <c r="X105" t="s">
         <v>313</v>
       </c>
       <c r="Y105" s="1" t="s">
-        <v>242</v>
+        <v>654</v>
       </c>
       <c r="Z105" t="s">
         <v>313</v>
       </c>
       <c r="AA105" s="1" t="s">
-        <v>255</v>
+        <v>194</v>
       </c>
       <c r="AB105" s="2" t="s">
         <v>308</v>
@@ -7035,55 +7290,55 @@
         <v>189</v>
       </c>
       <c r="F106" s="1" t="s">
-        <v>357</v>
+        <v>353</v>
       </c>
       <c r="L106" t="s">
         <v>313</v>
       </c>
       <c r="M106" s="1" t="s">
-        <v>62</v>
+        <v>636</v>
       </c>
       <c r="N106" t="s">
         <v>313</v>
       </c>
       <c r="O106" s="1" t="s">
-        <v>117</v>
+        <v>438</v>
       </c>
       <c r="P106" t="s">
         <v>313</v>
       </c>
       <c r="Q106" s="1" t="s">
-        <v>153</v>
+        <v>644</v>
       </c>
       <c r="R106" t="s">
         <v>313</v>
       </c>
       <c r="S106" s="1" t="s">
-        <v>177</v>
+        <v>644</v>
       </c>
       <c r="T106" t="s">
         <v>313</v>
       </c>
       <c r="U106" s="1" t="s">
-        <v>201</v>
+        <v>649</v>
       </c>
       <c r="V106" t="s">
         <v>313</v>
       </c>
       <c r="W106" s="1" t="s">
-        <v>227</v>
+        <v>652</v>
       </c>
       <c r="X106" t="s">
         <v>313</v>
       </c>
       <c r="Y106" s="1" t="s">
-        <v>243</v>
+        <v>655</v>
       </c>
       <c r="Z106" t="s">
         <v>313</v>
       </c>
       <c r="AA106" s="1" t="s">
-        <v>135</v>
+        <v>657</v>
       </c>
       <c r="AB106" s="2" t="s">
         <v>308</v>
@@ -7109,7 +7364,7 @@
         <v>157</v>
       </c>
       <c r="H107" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
       <c r="K107" t="s">
         <v>66</v>
@@ -7118,49 +7373,49 @@
         <v>313</v>
       </c>
       <c r="M107" s="1" t="s">
-        <v>67</v>
+        <v>637</v>
       </c>
       <c r="N107" t="s">
         <v>313</v>
       </c>
       <c r="O107" s="1" t="s">
-        <v>120</v>
+        <v>229</v>
       </c>
       <c r="P107" t="s">
         <v>313</v>
       </c>
       <c r="Q107" s="1" t="s">
-        <v>156</v>
+        <v>645</v>
       </c>
       <c r="R107" t="s">
         <v>313</v>
       </c>
       <c r="S107" s="1" t="s">
-        <v>180</v>
+        <v>645</v>
       </c>
       <c r="T107" t="s">
         <v>313</v>
       </c>
       <c r="U107" s="1" t="s">
-        <v>203</v>
+        <v>70</v>
       </c>
       <c r="V107" t="s">
         <v>313</v>
       </c>
       <c r="W107" s="1" t="s">
-        <v>229</v>
+        <v>653</v>
       </c>
       <c r="X107" t="s">
         <v>313</v>
       </c>
       <c r="Y107" s="1" t="s">
-        <v>35</v>
+        <v>656</v>
       </c>
       <c r="Z107" t="s">
         <v>313</v>
       </c>
       <c r="AA107" s="1" t="s">
-        <v>251</v>
+        <v>68</v>
       </c>
       <c r="AB107" s="2" t="s">
         <v>308</v>
@@ -7189,49 +7444,49 @@
         <v>313</v>
       </c>
       <c r="M108" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="N108" t="s">
+        <v>313</v>
+      </c>
+      <c r="O108" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="N108" t="s">
-        <v>313</v>
-      </c>
-      <c r="O108" s="1" t="s">
-        <v>98</v>
-      </c>
       <c r="P108" t="s">
         <v>313</v>
       </c>
       <c r="Q108" s="1" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="R108" t="s">
         <v>313</v>
       </c>
       <c r="S108" s="1" t="s">
-        <v>98</v>
+        <v>157</v>
       </c>
       <c r="T108" t="s">
         <v>313</v>
       </c>
       <c r="U108" s="1" t="s">
-        <v>98</v>
+        <v>71</v>
       </c>
       <c r="V108" t="s">
         <v>313</v>
       </c>
       <c r="W108" s="1" t="s">
-        <v>230</v>
+        <v>168</v>
       </c>
       <c r="X108" t="s">
         <v>313</v>
       </c>
       <c r="Y108" s="1" t="s">
-        <v>98</v>
+        <v>71</v>
       </c>
       <c r="Z108" t="s">
         <v>313</v>
       </c>
       <c r="AA108" s="1" t="s">
-        <v>258</v>
+        <v>183</v>
       </c>
       <c r="AB108" s="2" t="s">
         <v>308</v>
@@ -7257,7 +7512,7 @@
         <v>104</v>
       </c>
       <c r="H109" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
       <c r="K109" t="s">
         <v>75</v>
@@ -7266,49 +7521,49 @@
         <v>313</v>
       </c>
       <c r="M109" s="1" t="s">
-        <v>76</v>
+        <v>247</v>
       </c>
       <c r="N109" t="s">
         <v>313</v>
       </c>
       <c r="O109" s="1" t="s">
-        <v>125</v>
+        <v>392</v>
       </c>
       <c r="P109" t="s">
         <v>313</v>
       </c>
       <c r="Q109" s="1" t="s">
-        <v>161</v>
+        <v>646</v>
       </c>
       <c r="R109" t="s">
         <v>313</v>
       </c>
       <c r="S109" s="1" t="s">
-        <v>101</v>
+        <v>646</v>
       </c>
       <c r="T109" t="s">
         <v>313</v>
       </c>
       <c r="U109" s="1" t="s">
-        <v>206</v>
+        <v>217</v>
       </c>
       <c r="V109" t="s">
         <v>313</v>
       </c>
       <c r="W109" s="1" t="s">
-        <v>233</v>
+        <v>578</v>
       </c>
       <c r="X109" t="s">
         <v>313</v>
       </c>
       <c r="Y109" s="1" t="s">
-        <v>35</v>
+        <v>181</v>
       </c>
       <c r="Z109" t="s">
         <v>313</v>
       </c>
       <c r="AA109" s="1" t="s">
-        <v>118</v>
+        <v>401</v>
       </c>
       <c r="AB109" s="2" t="s">
         <v>308</v>
@@ -7331,55 +7586,55 @@
         <v>118</v>
       </c>
       <c r="F110" s="1" t="s">
-        <v>358</v>
+        <v>354</v>
       </c>
       <c r="L110" t="s">
         <v>313</v>
       </c>
       <c r="M110" s="1" t="s">
-        <v>80</v>
+        <v>140</v>
       </c>
       <c r="N110" t="s">
         <v>313</v>
       </c>
       <c r="O110" s="1" t="s">
-        <v>128</v>
+        <v>405</v>
       </c>
       <c r="P110" t="s">
         <v>313</v>
       </c>
       <c r="Q110" s="1" t="s">
-        <v>83</v>
+        <v>133</v>
       </c>
       <c r="R110" t="s">
         <v>313</v>
       </c>
       <c r="S110" s="1" t="s">
-        <v>183</v>
+        <v>133</v>
       </c>
       <c r="T110" t="s">
         <v>313</v>
       </c>
       <c r="U110" s="1" t="s">
-        <v>183</v>
+        <v>405</v>
       </c>
       <c r="V110" t="s">
         <v>313</v>
       </c>
       <c r="W110" s="1" t="s">
-        <v>62</v>
+        <v>74</v>
       </c>
       <c r="X110" t="s">
         <v>313</v>
       </c>
       <c r="Y110" s="1" t="s">
-        <v>183</v>
+        <v>405</v>
       </c>
       <c r="Z110" t="s">
         <v>313</v>
       </c>
       <c r="AA110" s="1" t="s">
-        <v>258</v>
+        <v>404</v>
       </c>
       <c r="AB110" s="2" t="s">
         <v>308</v>
@@ -7405,7 +7660,7 @@
         <v>103</v>
       </c>
       <c r="H111" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
       <c r="K111" t="s">
         <v>84</v>
@@ -7414,49 +7669,49 @@
         <v>313</v>
       </c>
       <c r="M111" s="1" t="s">
-        <v>85</v>
+        <v>638</v>
       </c>
       <c r="N111" t="s">
         <v>313</v>
       </c>
       <c r="O111" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="P111" t="s">
+        <v>313</v>
+      </c>
+      <c r="Q111" s="1" t="s">
+        <v>647</v>
+      </c>
+      <c r="R111" t="s">
+        <v>313</v>
+      </c>
+      <c r="S111" s="1" t="s">
+        <v>647</v>
+      </c>
+      <c r="T111" t="s">
+        <v>313</v>
+      </c>
+      <c r="U111" s="1" t="s">
         <v>132</v>
       </c>
-      <c r="P111" t="s">
-        <v>313</v>
-      </c>
-      <c r="Q111" s="1" t="s">
-        <v>166</v>
-      </c>
-      <c r="R111" t="s">
-        <v>313</v>
-      </c>
-      <c r="S111" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="T111" t="s">
-        <v>313</v>
-      </c>
-      <c r="U111" s="1" t="s">
-        <v>203</v>
-      </c>
       <c r="V111" t="s">
         <v>313</v>
       </c>
       <c r="W111" s="1" t="s">
-        <v>236</v>
+        <v>638</v>
       </c>
       <c r="X111" t="s">
         <v>313</v>
       </c>
       <c r="Y111" s="1" t="s">
-        <v>100</v>
+        <v>217</v>
       </c>
       <c r="Z111" t="s">
         <v>313</v>
       </c>
       <c r="AA111" s="1" t="s">
-        <v>191</v>
+        <v>228</v>
       </c>
       <c r="AB111" s="2" t="s">
         <v>308</v>
@@ -7485,49 +7740,49 @@
         <v>313</v>
       </c>
       <c r="M112" s="1" t="s">
-        <v>89</v>
+        <v>639</v>
       </c>
       <c r="N112" t="s">
         <v>313</v>
       </c>
       <c r="O112" s="1" t="s">
-        <v>136</v>
+        <v>640</v>
       </c>
       <c r="P112" t="s">
         <v>313</v>
       </c>
       <c r="Q112" s="1" t="s">
-        <v>136</v>
+        <v>333</v>
       </c>
       <c r="R112" t="s">
         <v>313</v>
       </c>
       <c r="S112" s="1" t="s">
-        <v>72</v>
+        <v>333</v>
       </c>
       <c r="T112" t="s">
         <v>313</v>
       </c>
       <c r="U112" s="1" t="s">
-        <v>115</v>
+        <v>650</v>
       </c>
       <c r="V112" t="s">
         <v>313</v>
       </c>
       <c r="W112" s="1" t="s">
-        <v>92</v>
+        <v>419</v>
       </c>
       <c r="X112" t="s">
         <v>313</v>
       </c>
       <c r="Y112" s="1" t="s">
-        <v>115</v>
+        <v>650</v>
       </c>
       <c r="Z112" t="s">
         <v>313</v>
       </c>
       <c r="AA112" s="1" t="s">
-        <v>39</v>
+        <v>658</v>
       </c>
       <c r="AB112" s="2" t="s">
         <v>308</v>
@@ -7550,14 +7805,17 @@
         <v>201</v>
       </c>
       <c r="F113" s="1" t="s">
-        <v>359</v>
+        <v>355</v>
       </c>
       <c r="H113" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
       <c r="K113" t="s">
         <v>314</v>
       </c>
+      <c r="U113"/>
+      <c r="W113"/>
+      <c r="AA113"/>
     </row>
     <row r="114" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A114" s="1" t="s">
@@ -7576,7 +7834,7 @@
         <v>203</v>
       </c>
       <c r="F114" s="1" t="s">
-        <v>360</v>
+        <v>356</v>
       </c>
       <c r="K114" t="s">
         <v>315</v>
@@ -7602,10 +7860,10 @@
         <v>80</v>
       </c>
       <c r="H115" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
       <c r="K115" t="s">
-        <v>324</v>
+        <v>632</v>
       </c>
     </row>
     <row r="116" spans="1:45" x14ac:dyDescent="0.25">
@@ -7625,7 +7883,7 @@
         <v>206</v>
       </c>
       <c r="F116" s="1" t="s">
-        <v>361</v>
+        <v>357</v>
       </c>
       <c r="K116" t="s">
         <v>316</v>
@@ -7651,7 +7909,7 @@
         <v>183</v>
       </c>
       <c r="H117" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
     </row>
     <row r="118" spans="1:45" x14ac:dyDescent="0.25">
@@ -7671,10 +7929,7 @@
         <v>203</v>
       </c>
       <c r="F118" s="1" t="s">
-        <v>362</v>
-      </c>
-      <c r="K118" t="s">
-        <v>311</v>
+        <v>358</v>
       </c>
     </row>
     <row r="119" spans="1:45" x14ac:dyDescent="0.25">
@@ -7697,222 +7952,64 @@
         <v>186</v>
       </c>
       <c r="H119" t="s">
-        <v>330</v>
-      </c>
-      <c r="K119" t="s">
-        <v>312</v>
+        <v>326</v>
       </c>
     </row>
     <row r="120" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A120" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="K120" t="s">
-        <v>325</v>
-      </c>
     </row>
     <row r="121" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A121" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="K121" t="s">
-        <v>309</v>
-      </c>
     </row>
     <row r="122" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A122" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="K122" t="s">
-        <v>310</v>
-      </c>
     </row>
     <row r="123" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A123" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="K123" t="s">
-        <v>307</v>
-      </c>
     </row>
     <row r="124" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A124" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="L124" t="s">
-        <v>313</v>
-      </c>
-      <c r="M124" s="1" t="s">
-        <v>262</v>
-      </c>
-      <c r="N124" t="s">
-        <v>313</v>
-      </c>
-      <c r="O124" s="1" t="s">
-        <v>268</v>
-      </c>
-      <c r="P124" t="s">
-        <v>313</v>
-      </c>
-      <c r="Q124" s="1" t="s">
-        <v>273</v>
-      </c>
-      <c r="R124" t="s">
-        <v>313</v>
-      </c>
-      <c r="S124" s="1" t="s">
-        <v>278</v>
-      </c>
-      <c r="T124" t="s">
-        <v>313</v>
-      </c>
-      <c r="U124" s="1" t="s">
-        <v>283</v>
-      </c>
-      <c r="V124" t="s">
-        <v>313</v>
-      </c>
-      <c r="W124" s="1" t="s">
-        <v>288</v>
-      </c>
-      <c r="X124" t="s">
-        <v>313</v>
-      </c>
-      <c r="Y124" s="1" t="s">
-        <v>303</v>
-      </c>
-      <c r="Z124" t="s">
-        <v>313</v>
-      </c>
-      <c r="AA124" s="1" t="s">
-        <v>304</v>
-      </c>
+      <c r="N124"/>
+      <c r="P124"/>
+      <c r="R124"/>
+      <c r="T124"/>
+      <c r="V124"/>
+      <c r="X124"/>
+      <c r="Z124"/>
     </row>
     <row r="125" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A125" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="K125" t="s">
-        <v>305</v>
-      </c>
-      <c r="L125" t="s">
-        <v>313</v>
-      </c>
-      <c r="M125" s="1" t="s">
-        <v>382</v>
-      </c>
-      <c r="N125" s="1" t="s">
-        <v>313</v>
-      </c>
-      <c r="O125" s="1" t="s">
-        <v>384</v>
-      </c>
-      <c r="P125" s="1" t="s">
-        <v>313</v>
-      </c>
-      <c r="Q125" s="1" t="s">
-        <v>386</v>
-      </c>
-      <c r="R125" s="1" t="s">
-        <v>313</v>
-      </c>
-      <c r="S125" s="1" t="s">
-        <v>387</v>
-      </c>
-      <c r="T125" s="1" t="s">
-        <v>313</v>
-      </c>
-      <c r="U125" s="1" t="s">
-        <v>389</v>
-      </c>
-      <c r="V125" s="1" t="s">
-        <v>313</v>
-      </c>
-      <c r="W125" s="1" t="s">
-        <v>390</v>
-      </c>
-      <c r="X125" s="1" t="s">
-        <v>313</v>
-      </c>
-      <c r="Y125" s="1" t="s">
-        <v>392</v>
-      </c>
-      <c r="Z125" s="1" t="s">
-        <v>313</v>
-      </c>
-      <c r="AA125" s="1" t="s">
-        <v>393</v>
-      </c>
-      <c r="AB125" s="3" t="s">
-        <v>308</v>
-      </c>
+      <c r="AB125" s="3"/>
       <c r="AS125" s="1"/>
     </row>
     <row r="126" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A126" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="K126" t="s">
-        <v>306</v>
-      </c>
-      <c r="L126" t="s">
-        <v>313</v>
-      </c>
-      <c r="M126" s="1" t="s">
-        <v>267</v>
-      </c>
-      <c r="N126" t="s">
-        <v>313</v>
-      </c>
-      <c r="O126" s="1" t="s">
-        <v>267</v>
-      </c>
-      <c r="P126" t="s">
-        <v>313</v>
-      </c>
-      <c r="Q126" s="1" t="s">
-        <v>267</v>
-      </c>
-      <c r="R126" t="s">
-        <v>313</v>
-      </c>
-      <c r="S126" s="1" t="s">
-        <v>267</v>
-      </c>
-      <c r="T126" t="s">
-        <v>313</v>
-      </c>
-      <c r="U126" s="1" t="s">
-        <v>267</v>
-      </c>
-      <c r="V126" t="s">
-        <v>313</v>
-      </c>
-      <c r="W126" s="1" t="s">
-        <v>267</v>
-      </c>
-      <c r="X126" t="s">
-        <v>313</v>
-      </c>
-      <c r="Y126" s="1" t="s">
-        <v>267</v>
-      </c>
-      <c r="Z126" t="s">
-        <v>313</v>
-      </c>
-      <c r="AA126" s="1" t="s">
-        <v>267</v>
-      </c>
-      <c r="AB126" s="3" t="s">
-        <v>308</v>
-      </c>
+      <c r="N126"/>
+      <c r="P126"/>
+      <c r="R126"/>
+      <c r="T126"/>
+      <c r="V126"/>
+      <c r="X126"/>
+      <c r="Z126"/>
+      <c r="AB126" s="3"/>
     </row>
     <row r="127" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A127" s="1" t="s">
         <v>1</v>
-      </c>
-      <c r="K127" t="s">
-        <v>307</v>
       </c>
       <c r="N127"/>
       <c r="P127"/>
@@ -7926,60 +8023,14 @@
       <c r="A128" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="K128" t="s">
-        <v>32</v>
-      </c>
-      <c r="L128" t="s">
-        <v>313</v>
-      </c>
-      <c r="M128" s="1" t="s">
-        <v>329</v>
-      </c>
-      <c r="N128" t="s">
-        <v>313</v>
-      </c>
-      <c r="O128" s="1" t="s">
-        <v>338</v>
-      </c>
-      <c r="P128" t="s">
-        <v>313</v>
-      </c>
-      <c r="Q128" s="1" t="s">
-        <v>346</v>
-      </c>
-      <c r="R128" t="s">
-        <v>313</v>
-      </c>
-      <c r="S128" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="T128" t="s">
-        <v>313</v>
-      </c>
-      <c r="U128" s="1" t="s">
-        <v>357</v>
-      </c>
-      <c r="V128" t="s">
-        <v>313</v>
-      </c>
-      <c r="W128" s="1" t="s">
-        <v>363</v>
-      </c>
-      <c r="X128" t="s">
-        <v>313</v>
-      </c>
-      <c r="Y128" s="1" t="s">
-        <v>371</v>
-      </c>
-      <c r="Z128" t="s">
-        <v>313</v>
-      </c>
-      <c r="AA128" s="1" t="s">
-        <v>207</v>
-      </c>
-      <c r="AB128" s="2" t="s">
-        <v>308</v>
-      </c>
+      <c r="N128"/>
+      <c r="P128"/>
+      <c r="R128"/>
+      <c r="T128"/>
+      <c r="V128"/>
+      <c r="X128"/>
+      <c r="Z128"/>
+      <c r="AB128" s="2"/>
     </row>
     <row r="129" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A129" s="1" t="s">
@@ -7998,121 +8049,32 @@
         <v>31</v>
       </c>
       <c r="F129" s="1" t="s">
-        <v>327</v>
+        <v>323</v>
       </c>
       <c r="H129" t="s">
-        <v>328</v>
-      </c>
-      <c r="L129" t="s">
-        <v>313</v>
-      </c>
-      <c r="M129" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="N129" t="s">
-        <v>313</v>
-      </c>
-      <c r="O129" s="1" t="s">
-        <v>163</v>
-      </c>
-      <c r="P129" t="s">
-        <v>313</v>
-      </c>
-      <c r="Q129" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="R129" t="s">
-        <v>313</v>
-      </c>
-      <c r="S129" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="T129" t="s">
-        <v>313</v>
-      </c>
-      <c r="U129" s="1" t="s">
-        <v>157</v>
-      </c>
-      <c r="V129" t="s">
-        <v>313</v>
-      </c>
-      <c r="W129" s="1" t="s">
-        <v>364</v>
-      </c>
-      <c r="X129" t="s">
-        <v>313</v>
-      </c>
-      <c r="Y129" s="1" t="s">
-        <v>157</v>
-      </c>
-      <c r="Z129" t="s">
-        <v>313</v>
-      </c>
-      <c r="AA129" s="1" t="s">
-        <v>377</v>
-      </c>
-      <c r="AB129" s="2" t="s">
-        <v>308</v>
-      </c>
+        <v>324</v>
+      </c>
+      <c r="N129"/>
+      <c r="P129"/>
+      <c r="R129"/>
+      <c r="T129"/>
+      <c r="V129"/>
+      <c r="X129"/>
+      <c r="Z129"/>
+      <c r="AB129" s="2"/>
     </row>
     <row r="130" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A130" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="K130" t="s">
-        <v>41</v>
-      </c>
-      <c r="L130" t="s">
-        <v>313</v>
-      </c>
-      <c r="M130" s="1" t="s">
-        <v>250</v>
-      </c>
-      <c r="N130" t="s">
-        <v>313</v>
-      </c>
-      <c r="O130" s="1" t="s">
-        <v>180</v>
-      </c>
-      <c r="P130" t="s">
-        <v>313</v>
-      </c>
-      <c r="Q130" s="1" t="s">
-        <v>347</v>
-      </c>
-      <c r="R130" t="s">
-        <v>313</v>
-      </c>
-      <c r="S130" s="1" t="s">
-        <v>250</v>
-      </c>
-      <c r="T130" t="s">
-        <v>313</v>
-      </c>
-      <c r="U130" s="1" t="s">
-        <v>182</v>
-      </c>
-      <c r="V130" t="s">
-        <v>313</v>
-      </c>
-      <c r="W130" s="1" t="s">
-        <v>251</v>
-      </c>
-      <c r="X130" t="s">
-        <v>313</v>
-      </c>
-      <c r="Y130" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="Z130" t="s">
-        <v>313</v>
-      </c>
-      <c r="AA130" s="1" t="s">
-        <v>247</v>
-      </c>
-      <c r="AB130" s="2" t="s">
-        <v>308</v>
-      </c>
+      <c r="N130"/>
+      <c r="P130"/>
+      <c r="R130"/>
+      <c r="T130"/>
+      <c r="V130"/>
+      <c r="X130"/>
+      <c r="Z130"/>
+      <c r="AB130" s="2"/>
     </row>
     <row r="131" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A131" s="1" t="s">
@@ -8131,59 +8093,16 @@
         <v>213</v>
       </c>
       <c r="F131" s="1" t="s">
-        <v>363</v>
-      </c>
-      <c r="L131" t="s">
-        <v>313</v>
-      </c>
-      <c r="M131" s="1" t="s">
-        <v>331</v>
-      </c>
-      <c r="N131" t="s">
-        <v>313</v>
-      </c>
-      <c r="O131" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="P131" t="s">
-        <v>313</v>
-      </c>
-      <c r="Q131" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="R131" t="s">
-        <v>313</v>
-      </c>
-      <c r="S131" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="T131" t="s">
-        <v>313</v>
-      </c>
-      <c r="U131" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="V131" t="s">
-        <v>313</v>
-      </c>
-      <c r="W131" s="1" t="s">
-        <v>365</v>
-      </c>
-      <c r="X131" t="s">
-        <v>313</v>
-      </c>
-      <c r="Y131" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="Z131" t="s">
-        <v>313</v>
-      </c>
-      <c r="AA131" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="AB131" s="2" t="s">
-        <v>308</v>
-      </c>
+        <v>359</v>
+      </c>
+      <c r="N131"/>
+      <c r="P131"/>
+      <c r="R131"/>
+      <c r="T131"/>
+      <c r="V131"/>
+      <c r="X131"/>
+      <c r="Z131"/>
+      <c r="AB131" s="2"/>
     </row>
     <row r="132" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A132" s="1" t="s">
@@ -8202,65 +8121,19 @@
         <v>215</v>
       </c>
       <c r="F132" s="1" t="s">
-        <v>364</v>
+        <v>360</v>
       </c>
       <c r="H132" t="s">
-        <v>330</v>
-      </c>
-      <c r="K132" t="s">
-        <v>50</v>
-      </c>
-      <c r="L132" t="s">
-        <v>313</v>
-      </c>
-      <c r="M132" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="N132" t="s">
-        <v>313</v>
-      </c>
-      <c r="O132" s="1" t="s">
-        <v>339</v>
-      </c>
-      <c r="P132" t="s">
-        <v>313</v>
-      </c>
-      <c r="Q132" s="1" t="s">
-        <v>348</v>
-      </c>
-      <c r="R132" t="s">
-        <v>313</v>
-      </c>
-      <c r="S132" s="1" t="s">
-        <v>240</v>
-      </c>
-      <c r="T132" t="s">
-        <v>313</v>
-      </c>
-      <c r="U132" s="1" t="s">
-        <v>358</v>
-      </c>
-      <c r="V132" t="s">
-        <v>313</v>
-      </c>
-      <c r="W132" s="1" t="s">
-        <v>182</v>
-      </c>
-      <c r="X132" t="s">
-        <v>313</v>
-      </c>
-      <c r="Y132" s="1" t="s">
-        <v>372</v>
-      </c>
-      <c r="Z132" t="s">
-        <v>313</v>
-      </c>
-      <c r="AA132" s="1" t="s">
-        <v>339</v>
-      </c>
-      <c r="AB132" s="2" t="s">
-        <v>308</v>
-      </c>
+        <v>326</v>
+      </c>
+      <c r="N132"/>
+      <c r="P132"/>
+      <c r="R132"/>
+      <c r="T132"/>
+      <c r="V132"/>
+      <c r="X132"/>
+      <c r="Z132"/>
+      <c r="AB132" s="2"/>
     </row>
     <row r="133" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A133" s="1" t="s">
@@ -8281,57 +8154,14 @@
       <c r="F133" s="1" t="s">
         <v>251</v>
       </c>
-      <c r="L133" t="s">
-        <v>313</v>
-      </c>
-      <c r="M133" s="1" t="s">
-        <v>198</v>
-      </c>
-      <c r="N133" t="s">
-        <v>313</v>
-      </c>
-      <c r="O133" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="P133" t="s">
-        <v>313</v>
-      </c>
-      <c r="Q133" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="R133" t="s">
-        <v>313</v>
-      </c>
-      <c r="S133" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="T133" t="s">
-        <v>313</v>
-      </c>
-      <c r="U133" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="V133" t="s">
-        <v>313</v>
-      </c>
-      <c r="W133" s="1" t="s">
-        <v>198</v>
-      </c>
-      <c r="X133" t="s">
-        <v>313</v>
-      </c>
-      <c r="Y133" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="Z133" t="s">
-        <v>313</v>
-      </c>
-      <c r="AA133" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="AB133" s="2" t="s">
-        <v>308</v>
-      </c>
+      <c r="N133"/>
+      <c r="P133"/>
+      <c r="R133"/>
+      <c r="T133"/>
+      <c r="V133"/>
+      <c r="X133"/>
+      <c r="Z133"/>
+      <c r="AB133" s="2"/>
     </row>
     <row r="134" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A134" s="1" t="s">
@@ -8350,65 +8180,19 @@
         <v>49</v>
       </c>
       <c r="F134" s="1" t="s">
-        <v>365</v>
+        <v>361</v>
       </c>
       <c r="H134" t="s">
-        <v>330</v>
-      </c>
-      <c r="K134" t="s">
-        <v>57</v>
-      </c>
-      <c r="L134" t="s">
-        <v>313</v>
-      </c>
-      <c r="M134" s="1" t="s">
-        <v>332</v>
-      </c>
-      <c r="N134" t="s">
-        <v>313</v>
-      </c>
-      <c r="O134" s="1" t="s">
-        <v>340</v>
-      </c>
-      <c r="P134" t="s">
-        <v>313</v>
-      </c>
-      <c r="Q134" s="1" t="s">
-        <v>349</v>
-      </c>
-      <c r="R134" t="s">
-        <v>313</v>
-      </c>
-      <c r="S134" s="1" t="s">
-        <v>354</v>
-      </c>
-      <c r="T134" t="s">
-        <v>313</v>
-      </c>
-      <c r="U134" s="1" t="s">
-        <v>173</v>
-      </c>
-      <c r="V134" t="s">
-        <v>313</v>
-      </c>
-      <c r="W134" s="1" t="s">
-        <v>366</v>
-      </c>
-      <c r="X134" t="s">
-        <v>313</v>
-      </c>
-      <c r="Y134" s="1" t="s">
-        <v>373</v>
-      </c>
-      <c r="Z134" t="s">
-        <v>313</v>
-      </c>
-      <c r="AA134" s="1" t="s">
-        <v>378</v>
-      </c>
-      <c r="AB134" s="2" t="s">
-        <v>308</v>
-      </c>
+        <v>326</v>
+      </c>
+      <c r="N134"/>
+      <c r="P134"/>
+      <c r="R134"/>
+      <c r="T134"/>
+      <c r="V134"/>
+      <c r="X134"/>
+      <c r="Z134"/>
+      <c r="AB134" s="2"/>
     </row>
     <row r="135" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A135" s="1" t="s">
@@ -8429,57 +8213,14 @@
       <c r="F135" s="1" t="s">
         <v>182</v>
       </c>
-      <c r="L135" t="s">
-        <v>313</v>
-      </c>
-      <c r="M135" s="1" t="s">
-        <v>333</v>
-      </c>
-      <c r="N135" t="s">
-        <v>313</v>
-      </c>
-      <c r="O135" s="1" t="s">
-        <v>341</v>
-      </c>
-      <c r="P135" t="s">
-        <v>313</v>
-      </c>
-      <c r="Q135" s="1" t="s">
-        <v>350</v>
-      </c>
-      <c r="R135" t="s">
-        <v>313</v>
-      </c>
-      <c r="S135" s="1" t="s">
-        <v>355</v>
-      </c>
-      <c r="T135" t="s">
-        <v>313</v>
-      </c>
-      <c r="U135" s="1" t="s">
-        <v>359</v>
-      </c>
-      <c r="V135" t="s">
-        <v>313</v>
-      </c>
-      <c r="W135" s="1" t="s">
-        <v>367</v>
-      </c>
-      <c r="X135" t="s">
-        <v>313</v>
-      </c>
-      <c r="Y135" s="1" t="s">
-        <v>374</v>
-      </c>
-      <c r="Z135" t="s">
-        <v>313</v>
-      </c>
-      <c r="AA135" s="1" t="s">
-        <v>379</v>
-      </c>
-      <c r="AB135" s="2" t="s">
-        <v>308</v>
-      </c>
+      <c r="N135"/>
+      <c r="P135"/>
+      <c r="R135"/>
+      <c r="T135"/>
+      <c r="V135"/>
+      <c r="X135"/>
+      <c r="Z135"/>
+      <c r="AB135" s="2"/>
     </row>
     <row r="136" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A136" s="1" t="s">
@@ -8501,62 +8242,16 @@
         <v>198</v>
       </c>
       <c r="H136" t="s">
-        <v>330</v>
-      </c>
-      <c r="K136" t="s">
-        <v>66</v>
-      </c>
-      <c r="L136" t="s">
-        <v>313</v>
-      </c>
-      <c r="M136" s="1" t="s">
-        <v>334</v>
-      </c>
-      <c r="N136" t="s">
-        <v>313</v>
-      </c>
-      <c r="O136" s="1" t="s">
-        <v>342</v>
-      </c>
-      <c r="P136" t="s">
-        <v>313</v>
-      </c>
-      <c r="Q136" s="1" t="s">
-        <v>351</v>
-      </c>
-      <c r="R136" t="s">
-        <v>313</v>
-      </c>
-      <c r="S136" s="1" t="s">
-        <v>356</v>
-      </c>
-      <c r="T136" t="s">
-        <v>313</v>
-      </c>
-      <c r="U136" s="1" t="s">
-        <v>360</v>
-      </c>
-      <c r="V136" t="s">
-        <v>313</v>
-      </c>
-      <c r="W136" s="1" t="s">
-        <v>368</v>
-      </c>
-      <c r="X136" t="s">
-        <v>313</v>
-      </c>
-      <c r="Y136" s="1" t="s">
-        <v>375</v>
-      </c>
-      <c r="Z136" t="s">
-        <v>313</v>
-      </c>
-      <c r="AA136" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="AB136" s="2" t="s">
-        <v>308</v>
-      </c>
+        <v>326</v>
+      </c>
+      <c r="N136"/>
+      <c r="P136"/>
+      <c r="R136"/>
+      <c r="T136"/>
+      <c r="V136"/>
+      <c r="X136"/>
+      <c r="Z136"/>
+      <c r="AB136" s="2"/>
     </row>
     <row r="137" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A137" s="1" t="s">
@@ -8575,59 +8270,16 @@
         <v>224</v>
       </c>
       <c r="F137" s="1" t="s">
-        <v>366</v>
-      </c>
-      <c r="L137" t="s">
-        <v>313</v>
-      </c>
-      <c r="M137" s="1" t="s">
-        <v>133</v>
-      </c>
-      <c r="N137" t="s">
-        <v>313</v>
-      </c>
-      <c r="O137" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="P137" t="s">
-        <v>313</v>
-      </c>
-      <c r="Q137" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="R137" t="s">
-        <v>313</v>
-      </c>
-      <c r="S137" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="T137" t="s">
-        <v>313</v>
-      </c>
-      <c r="U137" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="V137" t="s">
-        <v>313</v>
-      </c>
-      <c r="W137" s="1" t="s">
-        <v>209</v>
-      </c>
-      <c r="X137" t="s">
-        <v>313</v>
-      </c>
-      <c r="Y137" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="Z137" t="s">
-        <v>313</v>
-      </c>
-      <c r="AA137" s="1" t="s">
-        <v>258</v>
-      </c>
-      <c r="AB137" s="2" t="s">
-        <v>308</v>
-      </c>
+        <v>362</v>
+      </c>
+      <c r="N137"/>
+      <c r="P137"/>
+      <c r="R137"/>
+      <c r="T137"/>
+      <c r="V137"/>
+      <c r="X137"/>
+      <c r="Z137"/>
+      <c r="AB137" s="2"/>
     </row>
     <row r="138" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A138" s="1" t="s">
@@ -8646,65 +8298,19 @@
         <v>227</v>
       </c>
       <c r="F138" s="1" t="s">
-        <v>367</v>
+        <v>363</v>
       </c>
       <c r="H138" t="s">
-        <v>330</v>
-      </c>
-      <c r="K138" t="s">
-        <v>75</v>
-      </c>
-      <c r="L138" t="s">
-        <v>313</v>
-      </c>
-      <c r="M138" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="N138" t="s">
-        <v>313</v>
-      </c>
-      <c r="O138" s="1" t="s">
-        <v>343</v>
-      </c>
-      <c r="P138" t="s">
-        <v>313</v>
-      </c>
-      <c r="Q138" s="1" t="s">
-        <v>352</v>
-      </c>
-      <c r="R138" t="s">
-        <v>313</v>
-      </c>
-      <c r="S138" s="1" t="s">
-        <v>142</v>
-      </c>
-      <c r="T138" t="s">
-        <v>313</v>
-      </c>
-      <c r="U138" s="1" t="s">
-        <v>361</v>
-      </c>
-      <c r="V138" t="s">
-        <v>313</v>
-      </c>
-      <c r="W138" s="1" t="s">
-        <v>369</v>
-      </c>
-      <c r="X138" t="s">
-        <v>313</v>
-      </c>
-      <c r="Y138" s="1" t="s">
-        <v>376</v>
-      </c>
-      <c r="Z138" t="s">
-        <v>313</v>
-      </c>
-      <c r="AA138" s="1" t="s">
-        <v>244</v>
-      </c>
-      <c r="AB138" s="2" t="s">
-        <v>308</v>
-      </c>
+        <v>326</v>
+      </c>
+      <c r="N138"/>
+      <c r="P138"/>
+      <c r="R138"/>
+      <c r="T138"/>
+      <c r="V138"/>
+      <c r="X138"/>
+      <c r="Z138"/>
+      <c r="AB138" s="2"/>
     </row>
     <row r="139" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A139" s="1" t="s">
@@ -8723,59 +8329,16 @@
         <v>229</v>
       </c>
       <c r="F139" s="1" t="s">
-        <v>368</v>
-      </c>
-      <c r="L139" t="s">
-        <v>313</v>
-      </c>
-      <c r="M139" s="1" t="s">
-        <v>335</v>
-      </c>
-      <c r="N139" t="s">
-        <v>313</v>
-      </c>
-      <c r="O139" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="P139" t="s">
-        <v>313</v>
-      </c>
-      <c r="Q139" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="R139" t="s">
-        <v>313</v>
-      </c>
-      <c r="S139" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="T139" t="s">
-        <v>313</v>
-      </c>
-      <c r="U139" s="1" t="s">
-        <v>183</v>
-      </c>
-      <c r="V139" t="s">
-        <v>313</v>
-      </c>
-      <c r="W139" s="1" t="s">
-        <v>335</v>
-      </c>
-      <c r="X139" t="s">
-        <v>313</v>
-      </c>
-      <c r="Y139" s="1" t="s">
-        <v>183</v>
-      </c>
-      <c r="Z139" t="s">
-        <v>313</v>
-      </c>
-      <c r="AA139" s="1" t="s">
-        <v>258</v>
-      </c>
-      <c r="AB139" s="2" t="s">
-        <v>308</v>
-      </c>
+        <v>364</v>
+      </c>
+      <c r="N139"/>
+      <c r="P139"/>
+      <c r="R139"/>
+      <c r="T139"/>
+      <c r="V139"/>
+      <c r="X139"/>
+      <c r="Z139"/>
+      <c r="AB139" s="2"/>
     </row>
     <row r="140" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A140" s="1" t="s">
@@ -8797,62 +8360,16 @@
         <v>209</v>
       </c>
       <c r="H140" t="s">
-        <v>330</v>
-      </c>
-      <c r="K140" t="s">
-        <v>84</v>
-      </c>
-      <c r="L140" t="s">
-        <v>313</v>
-      </c>
-      <c r="M140" s="1" t="s">
-        <v>336</v>
-      </c>
-      <c r="N140" t="s">
-        <v>313</v>
-      </c>
-      <c r="O140" s="1" t="s">
-        <v>344</v>
-      </c>
-      <c r="P140" t="s">
-        <v>313</v>
-      </c>
-      <c r="Q140" s="1" t="s">
-        <v>353</v>
-      </c>
-      <c r="R140" t="s">
-        <v>313</v>
-      </c>
-      <c r="S140" s="1" t="s">
-        <v>356</v>
-      </c>
-      <c r="T140" t="s">
-        <v>313</v>
-      </c>
-      <c r="U140" s="1" t="s">
-        <v>362</v>
-      </c>
-      <c r="V140" t="s">
-        <v>313</v>
-      </c>
-      <c r="W140" s="1" t="s">
-        <v>370</v>
-      </c>
-      <c r="X140" t="s">
-        <v>313</v>
-      </c>
-      <c r="Y140" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="Z140" t="s">
-        <v>313</v>
-      </c>
-      <c r="AA140" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="AB140" s="2" t="s">
-        <v>308</v>
-      </c>
+        <v>326</v>
+      </c>
+      <c r="N140"/>
+      <c r="P140"/>
+      <c r="R140"/>
+      <c r="T140"/>
+      <c r="V140"/>
+      <c r="X140"/>
+      <c r="Z140"/>
+      <c r="AB140" s="2"/>
     </row>
     <row r="141" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A141" s="1" t="s">
@@ -8871,59 +8388,16 @@
         <v>233</v>
       </c>
       <c r="F141" s="1" t="s">
-        <v>369</v>
-      </c>
-      <c r="L141" t="s">
-        <v>313</v>
-      </c>
-      <c r="M141" s="1" t="s">
-        <v>337</v>
-      </c>
-      <c r="N141" t="s">
-        <v>313</v>
-      </c>
-      <c r="O141" s="1" t="s">
-        <v>345</v>
-      </c>
-      <c r="P141" t="s">
-        <v>313</v>
-      </c>
-      <c r="Q141" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="R141" t="s">
-        <v>313</v>
-      </c>
-      <c r="S141" s="1" t="s">
-        <v>210</v>
-      </c>
-      <c r="T141" t="s">
-        <v>313</v>
-      </c>
-      <c r="U141" s="1" t="s">
-        <v>186</v>
-      </c>
-      <c r="V141" t="s">
-        <v>313</v>
-      </c>
-      <c r="W141" s="1" t="s">
-        <v>214</v>
-      </c>
-      <c r="X141" t="s">
-        <v>313</v>
-      </c>
-      <c r="Y141" s="1" t="s">
-        <v>141</v>
-      </c>
-      <c r="Z141" t="s">
-        <v>313</v>
-      </c>
-      <c r="AA141" s="1" t="s">
-        <v>380</v>
-      </c>
-      <c r="AB141" s="2" t="s">
-        <v>308</v>
-      </c>
+        <v>365</v>
+      </c>
+      <c r="N141"/>
+      <c r="P141"/>
+      <c r="R141"/>
+      <c r="T141"/>
+      <c r="V141"/>
+      <c r="X141"/>
+      <c r="Z141"/>
+      <c r="AB141" s="2"/>
     </row>
     <row r="142" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A142" s="1" t="s">
@@ -8942,13 +8416,10 @@
         <v>62</v>
       </c>
       <c r="F142" s="1" t="s">
-        <v>335</v>
+        <v>331</v>
       </c>
       <c r="H142" t="s">
-        <v>330</v>
-      </c>
-      <c r="K142" t="s">
-        <v>314</v>
+        <v>326</v>
       </c>
     </row>
     <row r="143" spans="1:28" x14ac:dyDescent="0.25">
@@ -8968,10 +8439,7 @@
         <v>236</v>
       </c>
       <c r="F143" s="1" t="s">
-        <v>370</v>
-      </c>
-      <c r="K143" t="s">
-        <v>315</v>
+        <v>366</v>
       </c>
     </row>
     <row r="144" spans="1:28" x14ac:dyDescent="0.25">
@@ -8994,61 +8462,55 @@
         <v>214</v>
       </c>
       <c r="H144" t="s">
-        <v>330</v>
-      </c>
-      <c r="K144" t="s">
         <v>326</v>
       </c>
     </row>
-    <row r="145" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A145" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="K145" t="s">
-        <v>316</v>
-      </c>
-    </row>
-    <row r="146" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="146" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A146" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="147" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A147" s="1" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="148" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A148" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="149" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A149" s="1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="150" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A150" s="1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="151" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A151" s="1" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="152" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A152" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="153" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A153" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="154" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A154" s="1" t="s">
         <v>27</v>
       </c>
@@ -9065,18 +8527,18 @@
         <v>31</v>
       </c>
       <c r="F154" s="1" t="s">
-        <v>327</v>
+        <v>323</v>
       </c>
       <c r="H154" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="155" spans="1:11" x14ac:dyDescent="0.25">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="155" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A155" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="156" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A156" s="1" t="s">
         <v>32</v>
       </c>
@@ -9093,10 +8555,10 @@
         <v>179</v>
       </c>
       <c r="F156" s="1" t="s">
-        <v>371</v>
-      </c>
-    </row>
-    <row r="157" spans="1:11" x14ac:dyDescent="0.25">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="157" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A157" s="1" t="s">
         <v>27</v>
       </c>
@@ -9116,10 +8578,10 @@
         <v>157</v>
       </c>
       <c r="H157" t="s">
-        <v>330</v>
-      </c>
-    </row>
-    <row r="158" spans="1:11" x14ac:dyDescent="0.25">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="158" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A158" s="1" t="s">
         <v>41</v>
       </c>
@@ -9139,7 +8601,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="159" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A159" s="1" t="s">
         <v>27</v>
       </c>
@@ -9159,10 +8621,10 @@
         <v>104</v>
       </c>
       <c r="H159" t="s">
-        <v>330</v>
-      </c>
-    </row>
-    <row r="160" spans="1:11" x14ac:dyDescent="0.25">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="160" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A160" s="1" t="s">
         <v>50</v>
       </c>
@@ -9179,7 +8641,7 @@
         <v>67</v>
       </c>
       <c r="F160" s="1" t="s">
-        <v>372</v>
+        <v>368</v>
       </c>
     </row>
     <row r="161" spans="1:8" x14ac:dyDescent="0.25">
@@ -9202,7 +8664,7 @@
         <v>103</v>
       </c>
       <c r="H161" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
     </row>
     <row r="162" spans="1:8" x14ac:dyDescent="0.25">
@@ -9222,7 +8684,7 @@
         <v>242</v>
       </c>
       <c r="F162" s="1" t="s">
-        <v>373</v>
+        <v>369</v>
       </c>
     </row>
     <row r="163" spans="1:8" x14ac:dyDescent="0.25">
@@ -9242,10 +8704,10 @@
         <v>243</v>
       </c>
       <c r="F163" s="1" t="s">
-        <v>374</v>
+        <v>370</v>
       </c>
       <c r="H163" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
     </row>
     <row r="164" spans="1:8" x14ac:dyDescent="0.25">
@@ -9265,7 +8727,7 @@
         <v>35</v>
       </c>
       <c r="F164" s="1" t="s">
-        <v>375</v>
+        <v>371</v>
       </c>
     </row>
     <row r="165" spans="1:8" x14ac:dyDescent="0.25">
@@ -9288,7 +8750,7 @@
         <v>98</v>
       </c>
       <c r="H165" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
     </row>
     <row r="166" spans="1:8" x14ac:dyDescent="0.25">
@@ -9308,7 +8770,7 @@
         <v>35</v>
       </c>
       <c r="F166" s="1" t="s">
-        <v>376</v>
+        <v>372</v>
       </c>
     </row>
     <row r="167" spans="1:8" x14ac:dyDescent="0.25">
@@ -9331,7 +8793,7 @@
         <v>183</v>
       </c>
       <c r="H167" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
     </row>
     <row r="168" spans="1:8" x14ac:dyDescent="0.25">
@@ -9374,7 +8836,7 @@
         <v>141</v>
       </c>
       <c r="H169" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
     </row>
     <row r="170" spans="1:8" x14ac:dyDescent="0.25">
@@ -9439,10 +8901,10 @@
         <v>31</v>
       </c>
       <c r="F179" s="1" t="s">
-        <v>327</v>
+        <v>323</v>
       </c>
       <c r="H179" t="s">
-        <v>328</v>
+        <v>324</v>
       </c>
     </row>
     <row r="180" spans="1:8" x14ac:dyDescent="0.25">
@@ -9487,10 +8949,10 @@
         <v>46</v>
       </c>
       <c r="F182" s="1" t="s">
-        <v>377</v>
+        <v>373</v>
       </c>
       <c r="H182" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
     </row>
     <row r="183" spans="1:8" x14ac:dyDescent="0.25">
@@ -9533,7 +8995,7 @@
         <v>144</v>
       </c>
       <c r="H184" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
     </row>
     <row r="185" spans="1:8" x14ac:dyDescent="0.25">
@@ -9553,7 +9015,7 @@
         <v>253</v>
       </c>
       <c r="F185" s="1" t="s">
-        <v>339</v>
+        <v>335</v>
       </c>
     </row>
     <row r="186" spans="1:8" x14ac:dyDescent="0.25">
@@ -9576,7 +9038,7 @@
         <v>108</v>
       </c>
       <c r="H186" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
     </row>
     <row r="187" spans="1:8" x14ac:dyDescent="0.25">
@@ -9596,7 +9058,7 @@
         <v>255</v>
       </c>
       <c r="F187" s="1" t="s">
-        <v>378</v>
+        <v>374</v>
       </c>
     </row>
     <row r="188" spans="1:8" x14ac:dyDescent="0.25">
@@ -9616,10 +9078,10 @@
         <v>135</v>
       </c>
       <c r="F188" s="1" t="s">
-        <v>379</v>
+        <v>375</v>
       </c>
       <c r="H188" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
     </row>
     <row r="189" spans="1:8" x14ac:dyDescent="0.25">
@@ -9662,7 +9124,7 @@
         <v>258</v>
       </c>
       <c r="H190" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
     </row>
     <row r="191" spans="1:8" x14ac:dyDescent="0.25">
@@ -9705,7 +9167,7 @@
         <v>258</v>
       </c>
       <c r="H192" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
     </row>
     <row r="193" spans="1:8" x14ac:dyDescent="0.25">
@@ -9745,10 +9207,10 @@
         <v>39</v>
       </c>
       <c r="F194" s="1" t="s">
-        <v>380</v>
+        <v>376</v>
       </c>
       <c r="H194" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
     </row>
     <row r="195" spans="1:8" x14ac:dyDescent="0.25">
@@ -9813,10 +9275,10 @@
         <v>31</v>
       </c>
       <c r="F204" s="1" t="s">
-        <v>327</v>
+        <v>323</v>
       </c>
       <c r="H204" t="s">
-        <v>381</v>
+        <v>377</v>
       </c>
     </row>
     <row r="205" spans="1:8" x14ac:dyDescent="0.25">
@@ -9841,10 +9303,10 @@
         <v>266</v>
       </c>
       <c r="F206" s="1" t="s">
-        <v>382</v>
+        <v>378</v>
       </c>
       <c r="H206" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
     </row>
     <row r="207" spans="1:8" x14ac:dyDescent="0.25">
@@ -9867,7 +9329,7 @@
         <v>267</v>
       </c>
       <c r="H207" t="s">
-        <v>383</v>
+        <v>379</v>
       </c>
     </row>
     <row r="208" spans="1:8" x14ac:dyDescent="0.25">
@@ -9887,10 +9349,10 @@
         <v>272</v>
       </c>
       <c r="F208" s="1" t="s">
-        <v>384</v>
+        <v>380</v>
       </c>
       <c r="H208" t="s">
-        <v>385</v>
+        <v>381</v>
       </c>
     </row>
     <row r="209" spans="1:8" x14ac:dyDescent="0.25">
@@ -9913,7 +9375,7 @@
         <v>267</v>
       </c>
       <c r="H209" t="s">
-        <v>383</v>
+        <v>379</v>
       </c>
     </row>
     <row r="210" spans="1:8" x14ac:dyDescent="0.25">
@@ -9933,10 +9395,10 @@
         <v>277</v>
       </c>
       <c r="F210" s="1" t="s">
-        <v>386</v>
+        <v>382</v>
       </c>
       <c r="H210" t="s">
-        <v>385</v>
+        <v>381</v>
       </c>
     </row>
     <row r="211" spans="1:8" x14ac:dyDescent="0.25">
@@ -9959,7 +9421,7 @@
         <v>267</v>
       </c>
       <c r="H211" t="s">
-        <v>383</v>
+        <v>379</v>
       </c>
     </row>
     <row r="212" spans="1:8" x14ac:dyDescent="0.25">
@@ -9979,10 +9441,10 @@
         <v>282</v>
       </c>
       <c r="F212" s="1" t="s">
-        <v>387</v>
+        <v>383</v>
       </c>
       <c r="H212" t="s">
-        <v>388</v>
+        <v>384</v>
       </c>
     </row>
     <row r="213" spans="1:8" x14ac:dyDescent="0.25">
@@ -10005,7 +9467,7 @@
         <v>267</v>
       </c>
       <c r="H213" t="s">
-        <v>383</v>
+        <v>379</v>
       </c>
     </row>
     <row r="214" spans="1:8" x14ac:dyDescent="0.25">
@@ -10025,10 +9487,10 @@
         <v>287</v>
       </c>
       <c r="F214" s="1" t="s">
-        <v>389</v>
+        <v>385</v>
       </c>
       <c r="H214" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
     </row>
     <row r="215" spans="1:8" x14ac:dyDescent="0.25">
@@ -10051,7 +9513,7 @@
         <v>267</v>
       </c>
       <c r="H215" t="s">
-        <v>383</v>
+        <v>379</v>
       </c>
     </row>
     <row r="216" spans="1:8" x14ac:dyDescent="0.25">
@@ -10071,10 +9533,10 @@
         <v>292</v>
       </c>
       <c r="F216" s="1" t="s">
-        <v>390</v>
+        <v>386</v>
       </c>
       <c r="H216" t="s">
-        <v>391</v>
+        <v>387</v>
       </c>
     </row>
     <row r="217" spans="1:8" x14ac:dyDescent="0.25">
@@ -10097,7 +9559,7 @@
         <v>267</v>
       </c>
       <c r="H217" t="s">
-        <v>383</v>
+        <v>379</v>
       </c>
     </row>
     <row r="218" spans="1:8" x14ac:dyDescent="0.25">
@@ -10117,7 +9579,7 @@
         <v>297</v>
       </c>
       <c r="F218" s="1" t="s">
-        <v>392</v>
+        <v>388</v>
       </c>
     </row>
     <row r="219" spans="1:8" x14ac:dyDescent="0.25">
@@ -10140,7 +9602,7 @@
         <v>267</v>
       </c>
       <c r="H219" t="s">
-        <v>383</v>
+        <v>379</v>
       </c>
     </row>
     <row r="220" spans="1:8" x14ac:dyDescent="0.25">
@@ -10160,10 +9622,10 @@
         <v>302</v>
       </c>
       <c r="F220" s="1" t="s">
-        <v>393</v>
+        <v>389</v>
       </c>
       <c r="H220" t="s">
-        <v>388</v>
+        <v>384</v>
       </c>
     </row>
     <row r="221" spans="1:8" x14ac:dyDescent="0.25">
@@ -10186,7 +9648,7 @@
         <v>267</v>
       </c>
       <c r="H221" t="s">
-        <v>383</v>
+        <v>379</v>
       </c>
     </row>
   </sheetData>
@@ -10207,10 +9669,6 @@
     <hyperlink ref="AB100:AB112" r:id="rId14" display="\\" xr:uid="{8D80710F-374A-4DED-AFB8-075B17A6CFCA}"/>
     <hyperlink ref="AB96" r:id="rId15" xr:uid="{AF1EB088-82A7-4F44-BBCA-2214B48DC2D5}"/>
     <hyperlink ref="AB97" r:id="rId16" xr:uid="{2C232BF7-2A8F-47C0-ADF1-B11DC6F0B621}"/>
-    <hyperlink ref="AB128" r:id="rId17" xr:uid="{0F80A5D3-A932-4F3A-AF6C-4AF93D19DB08}"/>
-    <hyperlink ref="AB129:AB141" r:id="rId18" display="\\" xr:uid="{24A7D3B7-10F5-49BD-9392-A59B15592684}"/>
-    <hyperlink ref="AB125" r:id="rId19" xr:uid="{B11B0ECB-E033-41A3-B716-77B76C75D127}"/>
-    <hyperlink ref="AB126" r:id="rId20" xr:uid="{4AF0ADF0-F94E-4AF5-ABAD-DFCD1D94B849}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -10220,7 +9678,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4B0462CD-589F-4F93-8FA7-6477B40D9D78}">
   <dimension ref="A1:AS225"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="J127" workbookViewId="0">
+    <sheetView topLeftCell="J115" workbookViewId="0">
       <selection activeCell="K1" sqref="K1:AB145"/>
     </sheetView>
   </sheetViews>
@@ -10250,7 +9708,7 @@
         <v>2</v>
       </c>
       <c r="K3" t="s">
-        <v>566</v>
+        <v>562</v>
       </c>
     </row>
     <row r="4" spans="1:28" x14ac:dyDescent="0.25">
@@ -10270,10 +9728,10 @@
         <v>31</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>327</v>
+        <v>323</v>
       </c>
       <c r="H4" t="s">
-        <v>328</v>
+        <v>324</v>
       </c>
       <c r="K4" t="s">
         <v>309</v>
@@ -10295,16 +9753,16 @@
         <v>188</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>529</v>
+        <v>525</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>530</v>
+        <v>526</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>531</v>
+        <v>527</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>532</v>
+        <v>528</v>
       </c>
       <c r="K6" t="s">
         <v>307</v>
@@ -10324,13 +9782,13 @@
         <v>37</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>377</v>
+        <v>373</v>
       </c>
       <c r="F7" s="1" t="s">
         <v>190</v>
       </c>
       <c r="H7" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
       <c r="L7" t="s">
         <v>313</v>
@@ -10407,49 +9865,49 @@
         <v>313</v>
       </c>
       <c r="M8" s="1" t="s">
-        <v>452</v>
+        <v>448</v>
       </c>
       <c r="N8" s="1" t="s">
         <v>313</v>
       </c>
       <c r="O8" s="1" t="s">
-        <v>462</v>
+        <v>458</v>
       </c>
       <c r="P8" s="1" t="s">
         <v>313</v>
       </c>
       <c r="Q8" s="1" t="s">
-        <v>472</v>
+        <v>468</v>
       </c>
       <c r="R8" s="1" t="s">
         <v>313</v>
       </c>
       <c r="S8" s="1" t="s">
-        <v>481</v>
+        <v>477</v>
       </c>
       <c r="T8" s="1" t="s">
         <v>313</v>
       </c>
       <c r="U8" s="1" t="s">
-        <v>490</v>
+        <v>486</v>
       </c>
       <c r="V8" s="1" t="s">
         <v>313</v>
       </c>
       <c r="W8" s="1" t="s">
-        <v>497</v>
+        <v>493</v>
       </c>
       <c r="X8" s="1" t="s">
         <v>313</v>
       </c>
       <c r="Y8" s="1" t="s">
-        <v>507</v>
+        <v>503</v>
       </c>
       <c r="Z8" s="1" t="s">
         <v>313</v>
       </c>
       <c r="AA8" s="1" t="s">
-        <v>516</v>
+        <v>512</v>
       </c>
       <c r="AB8" s="3" t="s">
         <v>308</v>
@@ -10475,7 +9933,7 @@
         <v>55</v>
       </c>
       <c r="H9" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
       <c r="K9" t="s">
         <v>306</v>
@@ -10484,49 +9942,49 @@
         <v>313</v>
       </c>
       <c r="M9" s="1" t="s">
-        <v>457</v>
+        <v>453</v>
       </c>
       <c r="N9" s="1" t="s">
         <v>313</v>
       </c>
       <c r="O9" s="1" t="s">
-        <v>467</v>
+        <v>463</v>
       </c>
       <c r="P9" s="1" t="s">
         <v>313</v>
       </c>
       <c r="Q9" s="1" t="s">
-        <v>457</v>
+        <v>453</v>
       </c>
       <c r="R9" s="1" t="s">
         <v>313</v>
       </c>
       <c r="S9" s="1" t="s">
-        <v>467</v>
+        <v>463</v>
       </c>
       <c r="T9" s="1" t="s">
         <v>313</v>
       </c>
       <c r="U9" s="1" t="s">
-        <v>495</v>
+        <v>491</v>
       </c>
       <c r="V9" s="1" t="s">
         <v>313</v>
       </c>
       <c r="W9" s="1" t="s">
-        <v>502</v>
+        <v>498</v>
       </c>
       <c r="X9" s="1" t="s">
         <v>313</v>
       </c>
       <c r="Y9" s="1" t="s">
-        <v>512</v>
+        <v>508</v>
       </c>
       <c r="Z9" s="1" t="s">
         <v>313</v>
       </c>
       <c r="AA9" s="1" t="s">
-        <v>521</v>
+        <v>517</v>
       </c>
       <c r="AB9" s="3" t="s">
         <v>308</v>
@@ -10537,19 +9995,19 @@
         <v>50</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>396</v>
+        <v>392</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>533</v>
+        <v>529</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>534</v>
+        <v>530</v>
       </c>
       <c r="E10" s="1" t="s">
         <v>67</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>427</v>
+        <v>423</v>
       </c>
       <c r="K10" t="s">
         <v>307</v>
@@ -10582,7 +10040,7 @@
         <v>103</v>
       </c>
       <c r="H11" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
       <c r="K11" t="s">
         <v>32</v>
@@ -10647,16 +10105,16 @@
         <v>250</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>535</v>
+        <v>531</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>536</v>
+        <v>532</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>537</v>
+        <v>533</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>538</v>
+        <v>534</v>
       </c>
       <c r="L12" t="s">
         <v>313</v>
@@ -10718,19 +10176,19 @@
         <v>49</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>335</v>
+        <v>331</v>
       </c>
       <c r="D13" s="1" t="s">
         <v>243</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>539</v>
+        <v>535</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>540</v>
+        <v>536</v>
       </c>
       <c r="H13" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
       <c r="K13" t="s">
         <v>41</v>
@@ -10792,10 +10250,10 @@
         <v>66</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>403</v>
+        <v>399</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>541</v>
+        <v>537</v>
       </c>
       <c r="D14" s="1" t="s">
         <v>119</v>
@@ -10878,7 +10336,7 @@
         <v>48</v>
       </c>
       <c r="H15" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
       <c r="K15" t="s">
         <v>50</v>
@@ -10887,25 +10345,25 @@
         <v>313</v>
       </c>
       <c r="M15" s="1" t="s">
-        <v>396</v>
+        <v>392</v>
       </c>
       <c r="N15" t="s">
         <v>313</v>
       </c>
       <c r="O15" s="1" t="s">
-        <v>396</v>
+        <v>392</v>
       </c>
       <c r="P15" t="s">
         <v>313</v>
       </c>
       <c r="Q15" s="1" t="s">
-        <v>396</v>
+        <v>392</v>
       </c>
       <c r="R15" t="s">
         <v>313</v>
       </c>
       <c r="S15" s="1" t="s">
-        <v>396</v>
+        <v>392</v>
       </c>
       <c r="T15" t="s">
         <v>313</v>
@@ -10917,7 +10375,7 @@
         <v>313</v>
       </c>
       <c r="W15" s="1" t="s">
-        <v>396</v>
+        <v>392</v>
       </c>
       <c r="X15" t="s">
         <v>313</v>
@@ -10929,7 +10387,7 @@
         <v>313</v>
       </c>
       <c r="AA15" s="1" t="s">
-        <v>396</v>
+        <v>392</v>
       </c>
       <c r="AB15" s="2" t="s">
         <v>308</v>
@@ -10940,16 +10398,16 @@
         <v>75</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>406</v>
+        <v>402</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>542</v>
+        <v>538</v>
       </c>
       <c r="D16" s="1" t="s">
         <v>193</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>543</v>
+        <v>539</v>
       </c>
       <c r="F16" s="1" t="s">
         <v>216</v>
@@ -11020,13 +10478,13 @@
         <v>163</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>335</v>
+        <v>331</v>
       </c>
       <c r="F17" s="1" t="s">
         <v>209</v>
       </c>
       <c r="H17" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
       <c r="K17" t="s">
         <v>57</v>
@@ -11091,10 +10549,10 @@
         <v>228</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>544</v>
+        <v>540</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>545</v>
+        <v>541</v>
       </c>
       <c r="E18" s="1" t="s">
         <v>208</v>
@@ -11159,13 +10617,13 @@
         <v>27</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>411</v>
+        <v>407</v>
       </c>
       <c r="C19" s="1" t="s">
         <v>134</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>546</v>
+        <v>542</v>
       </c>
       <c r="E19" s="1" t="s">
         <v>210</v>
@@ -11174,7 +10632,7 @@
         <v>39</v>
       </c>
       <c r="H19" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
       <c r="K19" t="s">
         <v>66</v>
@@ -11183,49 +10641,49 @@
         <v>313</v>
       </c>
       <c r="M19" s="1" t="s">
-        <v>403</v>
+        <v>399</v>
       </c>
       <c r="N19" t="s">
         <v>313</v>
       </c>
       <c r="O19" s="1" t="s">
-        <v>403</v>
+        <v>399</v>
       </c>
       <c r="P19" t="s">
         <v>313</v>
       </c>
       <c r="Q19" s="1" t="s">
-        <v>403</v>
+        <v>399</v>
       </c>
       <c r="R19" t="s">
         <v>313</v>
       </c>
       <c r="S19" s="1" t="s">
-        <v>403</v>
+        <v>399</v>
       </c>
       <c r="T19" t="s">
         <v>313</v>
       </c>
       <c r="U19" s="1" t="s">
-        <v>403</v>
+        <v>399</v>
       </c>
       <c r="V19" t="s">
         <v>313</v>
       </c>
       <c r="W19" s="1" t="s">
-        <v>403</v>
+        <v>399</v>
       </c>
       <c r="X19" t="s">
         <v>313</v>
       </c>
       <c r="Y19" s="1" t="s">
-        <v>403</v>
+        <v>399</v>
       </c>
       <c r="Z19" t="s">
         <v>313</v>
       </c>
       <c r="AA19" s="1" t="s">
-        <v>403</v>
+        <v>399</v>
       </c>
       <c r="AB19" s="2" t="s">
         <v>308</v>
@@ -11298,49 +10756,49 @@
         <v>313</v>
       </c>
       <c r="M21" s="1" t="s">
-        <v>406</v>
+        <v>402</v>
       </c>
       <c r="N21" t="s">
         <v>313</v>
       </c>
       <c r="O21" s="1" t="s">
-        <v>406</v>
+        <v>402</v>
       </c>
       <c r="P21" t="s">
         <v>313</v>
       </c>
       <c r="Q21" s="1" t="s">
-        <v>406</v>
+        <v>402</v>
       </c>
       <c r="R21" t="s">
         <v>313</v>
       </c>
       <c r="S21" s="1" t="s">
-        <v>406</v>
+        <v>402</v>
       </c>
       <c r="T21" t="s">
         <v>313</v>
       </c>
       <c r="U21" s="1" t="s">
-        <v>426</v>
+        <v>422</v>
       </c>
       <c r="V21" t="s">
         <v>313</v>
       </c>
       <c r="W21" s="1" t="s">
-        <v>406</v>
+        <v>402</v>
       </c>
       <c r="X21" t="s">
         <v>313</v>
       </c>
       <c r="Y21" s="1" t="s">
-        <v>426</v>
+        <v>422</v>
       </c>
       <c r="Z21" t="s">
         <v>313</v>
       </c>
       <c r="AA21" s="1" t="s">
-        <v>406</v>
+        <v>402</v>
       </c>
       <c r="AB21" s="2" t="s">
         <v>308</v>
@@ -11469,49 +10927,49 @@
         <v>313</v>
       </c>
       <c r="M24" s="1" t="s">
-        <v>411</v>
+        <v>407</v>
       </c>
       <c r="N24" t="s">
         <v>313</v>
       </c>
       <c r="O24" s="1" t="s">
-        <v>411</v>
+        <v>407</v>
       </c>
       <c r="P24" t="s">
         <v>313</v>
       </c>
       <c r="Q24" s="1" t="s">
-        <v>411</v>
+        <v>407</v>
       </c>
       <c r="R24" t="s">
         <v>313</v>
       </c>
       <c r="S24" s="1" t="s">
-        <v>411</v>
+        <v>407</v>
       </c>
       <c r="T24" t="s">
         <v>313</v>
       </c>
       <c r="U24" s="1" t="s">
-        <v>345</v>
+        <v>341</v>
       </c>
       <c r="V24" t="s">
         <v>313</v>
       </c>
       <c r="W24" s="1" t="s">
-        <v>411</v>
+        <v>407</v>
       </c>
       <c r="X24" t="s">
         <v>313</v>
       </c>
       <c r="Y24" s="1" t="s">
-        <v>345</v>
+        <v>341</v>
       </c>
       <c r="Z24" t="s">
         <v>313</v>
       </c>
       <c r="AA24" s="1" t="s">
-        <v>411</v>
+        <v>407</v>
       </c>
       <c r="AB24" s="2" t="s">
         <v>308</v>
@@ -11538,7 +10996,7 @@
         <v>1</v>
       </c>
       <c r="K27" t="s">
-        <v>573</v>
+        <v>569</v>
       </c>
     </row>
     <row r="28" spans="1:28" x14ac:dyDescent="0.25">
@@ -11566,10 +11024,10 @@
         <v>31</v>
       </c>
       <c r="F29" s="1" t="s">
-        <v>327</v>
+        <v>323</v>
       </c>
       <c r="H29" t="s">
-        <v>328</v>
+        <v>324</v>
       </c>
     </row>
     <row r="30" spans="1:28" x14ac:dyDescent="0.25">
@@ -11585,16 +11043,16 @@
         <v>188</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>547</v>
+        <v>543</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>548</v>
+        <v>544</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>549</v>
+        <v>545</v>
       </c>
       <c r="F31" s="1" t="s">
-        <v>550</v>
+        <v>546</v>
       </c>
       <c r="K31" t="s">
         <v>311</v>
@@ -11614,13 +11072,13 @@
         <v>190</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>365</v>
+        <v>361</v>
       </c>
       <c r="F32" s="1" t="s">
         <v>122</v>
       </c>
       <c r="H32" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
       <c r="K32" t="s">
         <v>312</v>
@@ -11646,7 +11104,7 @@
         <v>184</v>
       </c>
       <c r="K33" t="s">
-        <v>567</v>
+        <v>563</v>
       </c>
     </row>
     <row r="34" spans="1:45" x14ac:dyDescent="0.25">
@@ -11669,7 +11127,7 @@
         <v>55</v>
       </c>
       <c r="H34" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
       <c r="K34" t="s">
         <v>309</v>
@@ -11680,7 +11138,7 @@
         <v>50</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>396</v>
+        <v>392</v>
       </c>
       <c r="C35" s="1" t="s">
         <v>250</v>
@@ -11718,7 +11176,7 @@
         <v>103</v>
       </c>
       <c r="H36" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
       <c r="K36" t="s">
         <v>307</v>
@@ -11732,16 +11190,16 @@
         <v>250</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>551</v>
+        <v>547</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>552</v>
+        <v>548</v>
       </c>
       <c r="E37" s="1" t="s">
-        <v>553</v>
+        <v>549</v>
       </c>
       <c r="F37" s="1" t="s">
-        <v>554</v>
+        <v>550</v>
       </c>
       <c r="L37" t="s">
         <v>313</v>
@@ -11803,16 +11261,16 @@
         <v>81</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>555</v>
+        <v>551</v>
       </c>
       <c r="E38" s="1" t="s">
-        <v>556</v>
+        <v>552</v>
       </c>
       <c r="F38" s="1" t="s">
         <v>201</v>
       </c>
       <c r="H38" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
       <c r="K38" t="s">
         <v>305</v>
@@ -11821,49 +11279,49 @@
         <v>313</v>
       </c>
       <c r="M38" s="1" t="s">
-        <v>453</v>
+        <v>449</v>
       </c>
       <c r="N38" t="s">
         <v>313</v>
       </c>
       <c r="O38" s="1" t="s">
-        <v>463</v>
+        <v>459</v>
       </c>
       <c r="P38" t="s">
         <v>313</v>
       </c>
       <c r="Q38" s="1" t="s">
-        <v>473</v>
+        <v>469</v>
       </c>
       <c r="R38" t="s">
         <v>313</v>
       </c>
       <c r="S38" s="1" t="s">
-        <v>482</v>
+        <v>478</v>
       </c>
       <c r="T38" t="s">
         <v>313</v>
       </c>
       <c r="U38" s="1" t="s">
-        <v>491</v>
+        <v>487</v>
       </c>
       <c r="V38" t="s">
         <v>313</v>
       </c>
       <c r="W38" s="1" t="s">
-        <v>498</v>
+        <v>494</v>
       </c>
       <c r="X38" t="s">
         <v>313</v>
       </c>
       <c r="Y38" s="1" t="s">
-        <v>508</v>
+        <v>504</v>
       </c>
       <c r="Z38" t="s">
         <v>313</v>
       </c>
       <c r="AA38" s="1" t="s">
-        <v>517</v>
+        <v>513</v>
       </c>
       <c r="AB38" s="3" t="s">
         <v>308</v>
@@ -11875,16 +11333,16 @@
         <v>66</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>403</v>
+        <v>399</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>557</v>
+        <v>553</v>
       </c>
       <c r="D39" s="1" t="s">
         <v>192</v>
       </c>
       <c r="E39" s="1" t="s">
-        <v>558</v>
+        <v>554</v>
       </c>
       <c r="F39" s="1" t="s">
         <v>193</v>
@@ -11896,49 +11354,49 @@
         <v>313</v>
       </c>
       <c r="M39" s="1" t="s">
-        <v>458</v>
+        <v>454</v>
       </c>
       <c r="N39" t="s">
         <v>313</v>
       </c>
       <c r="O39" s="1" t="s">
-        <v>468</v>
+        <v>464</v>
       </c>
       <c r="P39" t="s">
         <v>313</v>
       </c>
       <c r="Q39" s="1" t="s">
-        <v>477</v>
+        <v>473</v>
       </c>
       <c r="R39" t="s">
         <v>313</v>
       </c>
       <c r="S39" s="1" t="s">
-        <v>486</v>
+        <v>482</v>
       </c>
       <c r="T39" t="s">
         <v>313</v>
       </c>
       <c r="U39" s="1" t="s">
-        <v>496</v>
+        <v>492</v>
       </c>
       <c r="V39" t="s">
         <v>313</v>
       </c>
       <c r="W39" s="1" t="s">
-        <v>503</v>
+        <v>499</v>
       </c>
       <c r="X39" t="s">
         <v>313</v>
       </c>
       <c r="Y39" s="1" t="s">
-        <v>513</v>
+        <v>509</v>
       </c>
       <c r="Z39" t="s">
         <v>313</v>
       </c>
       <c r="AA39" s="1" t="s">
-        <v>522</v>
+        <v>518</v>
       </c>
       <c r="AB39" s="3" t="s">
         <v>308</v>
@@ -11964,7 +11422,7 @@
         <v>48</v>
       </c>
       <c r="H40" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
       <c r="K40" t="s">
         <v>307</v>
@@ -11982,7 +11440,7 @@
         <v>75</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>406</v>
+        <v>402</v>
       </c>
       <c r="C41" s="1" t="s">
         <v>119</v>
@@ -11991,7 +11449,7 @@
         <v>217</v>
       </c>
       <c r="E41" s="1" t="s">
-        <v>559</v>
+        <v>555</v>
       </c>
       <c r="F41" s="1" t="s">
         <v>100</v>
@@ -12003,25 +11461,25 @@
         <v>313</v>
       </c>
       <c r="M41" s="1" t="s">
-        <v>529</v>
+        <v>525</v>
       </c>
       <c r="N41" t="s">
         <v>313</v>
       </c>
       <c r="O41" s="1" t="s">
-        <v>547</v>
+        <v>543</v>
       </c>
       <c r="P41" t="s">
         <v>313</v>
       </c>
       <c r="Q41" s="1" t="s">
-        <v>394</v>
+        <v>390</v>
       </c>
       <c r="R41" t="s">
         <v>313</v>
       </c>
       <c r="S41" s="1" t="s">
-        <v>413</v>
+        <v>409</v>
       </c>
       <c r="T41" t="s">
         <v>313</v>
@@ -12033,7 +11491,7 @@
         <v>313</v>
       </c>
       <c r="W41" s="1" t="s">
-        <v>427</v>
+        <v>423</v>
       </c>
       <c r="X41" t="s">
         <v>313</v>
@@ -12045,7 +11503,7 @@
         <v>313</v>
       </c>
       <c r="AA41" s="1" t="s">
-        <v>427</v>
+        <v>423</v>
       </c>
       <c r="AB41" s="2" t="s">
         <v>308</v>
@@ -12071,7 +11529,7 @@
         <v>82</v>
       </c>
       <c r="H42" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
       <c r="L42" t="s">
         <v>313</v>
@@ -12139,10 +11597,10 @@
         <v>180</v>
       </c>
       <c r="E43" s="1" t="s">
-        <v>560</v>
+        <v>556</v>
       </c>
       <c r="F43" s="1" t="s">
-        <v>561</v>
+        <v>557</v>
       </c>
       <c r="K43" t="s">
         <v>41</v>
@@ -12175,7 +11633,7 @@
         <v>313</v>
       </c>
       <c r="U43" s="1" t="s">
-        <v>397</v>
+        <v>393</v>
       </c>
       <c r="V43" t="s">
         <v>313</v>
@@ -12187,7 +11645,7 @@
         <v>313</v>
       </c>
       <c r="Y43" s="1" t="s">
-        <v>397</v>
+        <v>393</v>
       </c>
       <c r="Z43" t="s">
         <v>313</v>
@@ -12204,22 +11662,22 @@
         <v>27</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>411</v>
+        <v>407</v>
       </c>
       <c r="C44" s="1" t="s">
         <v>136</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>562</v>
+        <v>558</v>
       </c>
       <c r="E44" s="1" t="s">
-        <v>563</v>
+        <v>559</v>
       </c>
       <c r="F44" s="1" t="s">
         <v>209</v>
       </c>
       <c r="H44" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
       <c r="L44" t="s">
         <v>313</v>
@@ -12284,7 +11742,7 @@
         <v>313</v>
       </c>
       <c r="M45" s="1" t="s">
-        <v>533</v>
+        <v>529</v>
       </c>
       <c r="N45" t="s">
         <v>313</v>
@@ -12308,25 +11766,25 @@
         <v>313</v>
       </c>
       <c r="U45" s="1" t="s">
-        <v>415</v>
+        <v>411</v>
       </c>
       <c r="V45" t="s">
         <v>313</v>
       </c>
       <c r="W45" s="1" t="s">
-        <v>415</v>
+        <v>411</v>
       </c>
       <c r="X45" t="s">
         <v>313</v>
       </c>
       <c r="Y45" s="1" t="s">
-        <v>415</v>
+        <v>411</v>
       </c>
       <c r="Z45" t="s">
         <v>313</v>
       </c>
       <c r="AA45" s="1" t="s">
-        <v>415</v>
+        <v>411</v>
       </c>
       <c r="AB45" s="2" t="s">
         <v>308</v>
@@ -12399,25 +11857,25 @@
         <v>313</v>
       </c>
       <c r="M47" s="1" t="s">
-        <v>535</v>
+        <v>531</v>
       </c>
       <c r="N47" t="s">
         <v>313</v>
       </c>
       <c r="O47" s="1" t="s">
-        <v>551</v>
+        <v>547</v>
       </c>
       <c r="P47" t="s">
         <v>313</v>
       </c>
       <c r="Q47" s="1" t="s">
-        <v>398</v>
+        <v>394</v>
       </c>
       <c r="R47" t="s">
         <v>313</v>
       </c>
       <c r="S47" s="1" t="s">
-        <v>418</v>
+        <v>414</v>
       </c>
       <c r="T47" t="s">
         <v>313</v>
@@ -12455,7 +11913,7 @@
         <v>313</v>
       </c>
       <c r="M48" s="1" t="s">
-        <v>335</v>
+        <v>331</v>
       </c>
       <c r="N48" t="s">
         <v>313</v>
@@ -12467,19 +11925,19 @@
         <v>313</v>
       </c>
       <c r="Q48" s="1" t="s">
-        <v>335</v>
+        <v>331</v>
       </c>
       <c r="R48" t="s">
         <v>313</v>
       </c>
       <c r="S48" s="1" t="s">
-        <v>421</v>
+        <v>417</v>
       </c>
       <c r="T48" t="s">
         <v>313</v>
       </c>
       <c r="U48" s="1" t="s">
-        <v>412</v>
+        <v>408</v>
       </c>
       <c r="V48" t="s">
         <v>313</v>
@@ -12491,7 +11949,7 @@
         <v>313</v>
       </c>
       <c r="Y48" s="1" t="s">
-        <v>412</v>
+        <v>408</v>
       </c>
       <c r="Z48" t="s">
         <v>313</v>
@@ -12514,31 +11972,31 @@
         <v>313</v>
       </c>
       <c r="M49" s="1" t="s">
-        <v>541</v>
+        <v>537</v>
       </c>
       <c r="N49" t="s">
         <v>313</v>
       </c>
       <c r="O49" s="1" t="s">
-        <v>557</v>
+        <v>553</v>
       </c>
       <c r="P49" t="s">
         <v>313</v>
       </c>
       <c r="Q49" s="1" t="s">
-        <v>404</v>
+        <v>400</v>
       </c>
       <c r="R49" t="s">
         <v>313</v>
       </c>
       <c r="S49" s="1" t="s">
-        <v>344</v>
+        <v>340</v>
       </c>
       <c r="T49" t="s">
         <v>313</v>
       </c>
       <c r="U49" s="1" t="s">
-        <v>404</v>
+        <v>400</v>
       </c>
       <c r="V49" t="s">
         <v>313</v>
@@ -12550,7 +12008,7 @@
         <v>313</v>
       </c>
       <c r="Y49" s="1" t="s">
-        <v>404</v>
+        <v>400</v>
       </c>
       <c r="Z49" t="s">
         <v>313</v>
@@ -12629,7 +12087,7 @@
         <v>313</v>
       </c>
       <c r="M51" s="1" t="s">
-        <v>542</v>
+        <v>538</v>
       </c>
       <c r="N51" t="s">
         <v>313</v>
@@ -12647,13 +12105,13 @@
         <v>313</v>
       </c>
       <c r="S51" s="1" t="s">
-        <v>425</v>
+        <v>421</v>
       </c>
       <c r="T51" t="s">
         <v>313</v>
       </c>
       <c r="U51" s="1" t="s">
-        <v>358</v>
+        <v>354</v>
       </c>
       <c r="V51" t="s">
         <v>313</v>
@@ -12665,7 +12123,7 @@
         <v>313</v>
       </c>
       <c r="Y51" s="1" t="s">
-        <v>358</v>
+        <v>354</v>
       </c>
       <c r="Z51" t="s">
         <v>313</v>
@@ -12697,13 +12155,13 @@
         <v>313</v>
       </c>
       <c r="Q52" s="1" t="s">
-        <v>408</v>
+        <v>404</v>
       </c>
       <c r="R52" t="s">
         <v>313</v>
       </c>
       <c r="S52" s="1" t="s">
-        <v>408</v>
+        <v>404</v>
       </c>
       <c r="T52" t="s">
         <v>313</v>
@@ -12744,7 +12202,7 @@
         <v>313</v>
       </c>
       <c r="M53" s="1" t="s">
-        <v>544</v>
+        <v>540</v>
       </c>
       <c r="N53" t="s">
         <v>313</v>
@@ -12756,37 +12214,37 @@
         <v>313</v>
       </c>
       <c r="Q53" s="1" t="s">
-        <v>375</v>
+        <v>371</v>
       </c>
       <c r="R53" t="s">
         <v>313</v>
       </c>
       <c r="S53" s="1" t="s">
-        <v>427</v>
+        <v>423</v>
       </c>
       <c r="T53" t="s">
         <v>313</v>
       </c>
       <c r="U53" s="1" t="s">
-        <v>426</v>
+        <v>422</v>
       </c>
       <c r="V53" t="s">
         <v>313</v>
       </c>
       <c r="W53" s="1" t="s">
-        <v>362</v>
+        <v>358</v>
       </c>
       <c r="X53" t="s">
         <v>313</v>
       </c>
       <c r="Y53" s="1" t="s">
-        <v>426</v>
+        <v>422</v>
       </c>
       <c r="Z53" t="s">
         <v>313</v>
       </c>
       <c r="AA53" s="1" t="s">
-        <v>362</v>
+        <v>358</v>
       </c>
       <c r="AB53" s="2" t="s">
         <v>308</v>
@@ -12809,10 +12267,10 @@
         <v>31</v>
       </c>
       <c r="F54" s="1" t="s">
-        <v>327</v>
+        <v>323</v>
       </c>
       <c r="H54" t="s">
-        <v>328</v>
+        <v>324</v>
       </c>
       <c r="L54" t="s">
         <v>313</v>
@@ -12882,13 +12340,13 @@
         <v>188</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>394</v>
+        <v>390</v>
       </c>
       <c r="D56" s="1" t="s">
-        <v>395</v>
+        <v>391</v>
       </c>
       <c r="E56" s="1" t="s">
-        <v>358</v>
+        <v>354</v>
       </c>
       <c r="F56" s="1" t="s">
         <v>101</v>
@@ -12917,10 +12375,10 @@
         <v>183</v>
       </c>
       <c r="H57" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
       <c r="K57" t="s">
-        <v>569</v>
+        <v>565</v>
       </c>
     </row>
     <row r="58" spans="1:28" x14ac:dyDescent="0.25">
@@ -12966,7 +12424,7 @@
         <v>55</v>
       </c>
       <c r="H59" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
     </row>
     <row r="60" spans="1:28" x14ac:dyDescent="0.25">
@@ -12974,7 +12432,7 @@
         <v>50</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>396</v>
+        <v>392</v>
       </c>
       <c r="C60" s="1" t="s">
         <v>240</v>
@@ -12983,7 +12441,7 @@
         <v>105</v>
       </c>
       <c r="E60" s="1" t="s">
-        <v>397</v>
+        <v>393</v>
       </c>
       <c r="F60" s="1" t="s">
         <v>250</v>
@@ -13012,7 +12470,7 @@
         <v>103</v>
       </c>
       <c r="H61" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
       <c r="K61" t="s">
         <v>312</v>
@@ -13026,10 +12484,10 @@
         <v>250</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>398</v>
+        <v>394</v>
       </c>
       <c r="D62" s="1" t="s">
-        <v>399</v>
+        <v>395</v>
       </c>
       <c r="E62" s="1" t="s">
         <v>119</v>
@@ -13038,7 +12496,7 @@
         <v>244</v>
       </c>
       <c r="K62" t="s">
-        <v>568</v>
+        <v>564</v>
       </c>
     </row>
     <row r="63" spans="1:28" x14ac:dyDescent="0.25">
@@ -13049,19 +12507,19 @@
         <v>49</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>335</v>
+        <v>331</v>
       </c>
       <c r="D63" s="1" t="s">
-        <v>400</v>
+        <v>396</v>
       </c>
       <c r="E63" s="1" t="s">
-        <v>401</v>
+        <v>397</v>
       </c>
       <c r="F63" s="1" t="s">
-        <v>402</v>
+        <v>398</v>
       </c>
       <c r="H63" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
       <c r="K63" t="s">
         <v>309</v>
@@ -13072,16 +12530,16 @@
         <v>66</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>403</v>
+        <v>399</v>
       </c>
       <c r="C64" s="1" t="s">
-        <v>404</v>
+        <v>400</v>
       </c>
       <c r="D64" s="1" t="s">
         <v>245</v>
       </c>
       <c r="E64" s="1" t="s">
-        <v>405</v>
+        <v>401</v>
       </c>
       <c r="F64" s="1" t="s">
         <v>203</v>
@@ -13110,7 +12568,7 @@
         <v>48</v>
       </c>
       <c r="H65" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
       <c r="K65" t="s">
         <v>307</v>
@@ -13121,16 +12579,16 @@
         <v>75</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>406</v>
+        <v>402</v>
       </c>
       <c r="C66" s="1" t="s">
         <v>248</v>
       </c>
       <c r="D66" s="1" t="s">
-        <v>407</v>
+        <v>403</v>
       </c>
       <c r="E66" s="1" t="s">
-        <v>356</v>
+        <v>352</v>
       </c>
       <c r="F66" s="1" t="s">
         <v>185</v>
@@ -13193,19 +12651,19 @@
         <v>73</v>
       </c>
       <c r="C67" s="1" t="s">
-        <v>408</v>
+        <v>404</v>
       </c>
       <c r="D67" s="1" t="s">
-        <v>335</v>
+        <v>331</v>
       </c>
       <c r="E67" s="1" t="s">
         <v>158</v>
       </c>
       <c r="F67" s="1" t="s">
-        <v>409</v>
+        <v>405</v>
       </c>
       <c r="H67" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
       <c r="K67" t="s">
         <v>305</v>
@@ -13214,49 +12672,49 @@
         <v>313</v>
       </c>
       <c r="M67" s="1" t="s">
-        <v>454</v>
+        <v>450</v>
       </c>
       <c r="N67" s="1" t="s">
         <v>313</v>
       </c>
       <c r="O67" s="1" t="s">
-        <v>464</v>
+        <v>460</v>
       </c>
       <c r="P67" s="1" t="s">
         <v>313</v>
       </c>
       <c r="Q67" s="1" t="s">
-        <v>474</v>
+        <v>470</v>
       </c>
       <c r="R67" s="1" t="s">
         <v>313</v>
       </c>
       <c r="S67" s="1" t="s">
-        <v>483</v>
+        <v>479</v>
       </c>
       <c r="T67" s="1" t="s">
         <v>313</v>
       </c>
       <c r="U67" s="1" t="s">
-        <v>492</v>
+        <v>488</v>
       </c>
       <c r="V67" s="1" t="s">
         <v>313</v>
       </c>
       <c r="W67" s="1" t="s">
-        <v>499</v>
+        <v>495</v>
       </c>
       <c r="X67" s="1" t="s">
         <v>313</v>
       </c>
       <c r="Y67" s="1" t="s">
-        <v>509</v>
+        <v>505</v>
       </c>
       <c r="Z67" s="1" t="s">
         <v>313</v>
       </c>
       <c r="AA67" s="1" t="s">
-        <v>518</v>
+        <v>514</v>
       </c>
       <c r="AB67" s="3" t="s">
         <v>308</v>
@@ -13270,10 +12728,10 @@
         <v>228</v>
       </c>
       <c r="C68" s="1" t="s">
-        <v>375</v>
+        <v>371</v>
       </c>
       <c r="D68" s="1" t="s">
-        <v>410</v>
+        <v>406</v>
       </c>
       <c r="E68" s="1" t="s">
         <v>107</v>
@@ -13288,49 +12746,49 @@
         <v>313</v>
       </c>
       <c r="M68" s="1" t="s">
-        <v>459</v>
+        <v>455</v>
       </c>
       <c r="N68" t="s">
         <v>313</v>
       </c>
       <c r="O68" s="1" t="s">
-        <v>469</v>
+        <v>465</v>
       </c>
       <c r="P68" t="s">
         <v>313</v>
       </c>
       <c r="Q68" s="1" t="s">
-        <v>478</v>
+        <v>474</v>
       </c>
       <c r="R68" t="s">
         <v>313</v>
       </c>
       <c r="S68" s="1" t="s">
-        <v>487</v>
+        <v>483</v>
       </c>
       <c r="T68" t="s">
         <v>313</v>
       </c>
       <c r="U68" s="1" t="s">
-        <v>496</v>
+        <v>492</v>
       </c>
       <c r="V68" t="s">
         <v>313</v>
       </c>
       <c r="W68" s="1" t="s">
-        <v>504</v>
+        <v>500</v>
       </c>
       <c r="X68" t="s">
         <v>313</v>
       </c>
       <c r="Y68" s="1" t="s">
-        <v>514</v>
+        <v>510</v>
       </c>
       <c r="Z68" t="s">
         <v>313</v>
       </c>
       <c r="AA68" s="1" t="s">
-        <v>523</v>
+        <v>519</v>
       </c>
       <c r="AB68" s="3" t="s">
         <v>308</v>
@@ -13341,7 +12799,7 @@
         <v>27</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>411</v>
+        <v>407</v>
       </c>
       <c r="C69" s="1" t="s">
         <v>186</v>
@@ -13353,10 +12811,10 @@
         <v>135</v>
       </c>
       <c r="F69" s="1" t="s">
-        <v>412</v>
+        <v>408</v>
       </c>
       <c r="H69" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
       <c r="K69" t="s">
         <v>307</v>
@@ -13380,31 +12838,31 @@
         <v>313</v>
       </c>
       <c r="M70" s="1" t="s">
-        <v>530</v>
+        <v>526</v>
       </c>
       <c r="N70" t="s">
         <v>313</v>
       </c>
       <c r="O70" s="1" t="s">
-        <v>548</v>
+        <v>544</v>
       </c>
       <c r="P70" t="s">
         <v>313</v>
       </c>
       <c r="Q70" s="1" t="s">
-        <v>395</v>
+        <v>391</v>
       </c>
       <c r="R70" t="s">
         <v>313</v>
       </c>
       <c r="S70" s="1" t="s">
-        <v>414</v>
+        <v>410</v>
       </c>
       <c r="T70" t="s">
         <v>313</v>
       </c>
       <c r="U70" s="1" t="s">
-        <v>429</v>
+        <v>425</v>
       </c>
       <c r="V70" t="s">
         <v>313</v>
@@ -13416,7 +12874,7 @@
         <v>313</v>
       </c>
       <c r="Y70" s="1" t="s">
-        <v>429</v>
+        <v>425</v>
       </c>
       <c r="Z70" t="s">
         <v>313</v>
@@ -13454,7 +12912,7 @@
         <v>313</v>
       </c>
       <c r="S71" s="1" t="s">
-        <v>416</v>
+        <v>412</v>
       </c>
       <c r="T71" t="s">
         <v>313</v>
@@ -13610,7 +13068,7 @@
         <v>313</v>
       </c>
       <c r="M74" s="1" t="s">
-        <v>534</v>
+        <v>530</v>
       </c>
       <c r="N74" t="s">
         <v>313</v>
@@ -13725,49 +13183,49 @@
         <v>313</v>
       </c>
       <c r="M76" s="1" t="s">
-        <v>536</v>
+        <v>532</v>
       </c>
       <c r="N76" t="s">
         <v>313</v>
       </c>
       <c r="O76" s="1" t="s">
-        <v>552</v>
+        <v>548</v>
       </c>
       <c r="P76" t="s">
         <v>313</v>
       </c>
       <c r="Q76" s="1" t="s">
-        <v>399</v>
+        <v>395</v>
       </c>
       <c r="R76" t="s">
         <v>313</v>
       </c>
       <c r="S76" s="1" t="s">
-        <v>419</v>
+        <v>415</v>
       </c>
       <c r="T76" t="s">
         <v>313</v>
       </c>
       <c r="U76" s="1" t="s">
-        <v>430</v>
+        <v>426</v>
       </c>
       <c r="V76" t="s">
         <v>313</v>
       </c>
       <c r="W76" s="1" t="s">
-        <v>439</v>
+        <v>435</v>
       </c>
       <c r="X76" t="s">
         <v>313</v>
       </c>
       <c r="Y76" s="1" t="s">
-        <v>430</v>
+        <v>426</v>
       </c>
       <c r="Z76" t="s">
         <v>313</v>
       </c>
       <c r="AA76" s="1" t="s">
-        <v>439</v>
+        <v>435</v>
       </c>
       <c r="AB76" s="2" t="s">
         <v>308</v>
@@ -13787,43 +13245,43 @@
         <v>313</v>
       </c>
       <c r="O77" s="1" t="s">
-        <v>555</v>
+        <v>551</v>
       </c>
       <c r="P77" t="s">
         <v>313</v>
       </c>
       <c r="Q77" s="1" t="s">
-        <v>400</v>
+        <v>396</v>
       </c>
       <c r="R77" t="s">
         <v>313</v>
       </c>
       <c r="S77" s="1" t="s">
-        <v>422</v>
+        <v>418</v>
       </c>
       <c r="T77" t="s">
         <v>313</v>
       </c>
       <c r="U77" s="1" t="s">
-        <v>431</v>
+        <v>427</v>
       </c>
       <c r="V77" t="s">
         <v>313</v>
       </c>
       <c r="W77" s="1" t="s">
-        <v>442</v>
+        <v>438</v>
       </c>
       <c r="X77" t="s">
         <v>313</v>
       </c>
       <c r="Y77" s="1" t="s">
-        <v>431</v>
+        <v>427</v>
       </c>
       <c r="Z77" t="s">
         <v>313</v>
       </c>
       <c r="AA77" s="1" t="s">
-        <v>442</v>
+        <v>438</v>
       </c>
       <c r="AB77" s="2" t="s">
         <v>308</v>
@@ -13905,10 +13363,10 @@
         <v>31</v>
       </c>
       <c r="F79" s="1" t="s">
-        <v>327</v>
+        <v>323</v>
       </c>
       <c r="H79" t="s">
-        <v>328</v>
+        <v>324</v>
       </c>
       <c r="L79" t="s">
         <v>313</v>
@@ -13985,37 +13443,37 @@
         <v>313</v>
       </c>
       <c r="Q80" s="1" t="s">
-        <v>407</v>
+        <v>403</v>
       </c>
       <c r="R80" t="s">
         <v>313</v>
       </c>
       <c r="S80" s="1" t="s">
-        <v>426</v>
+        <v>422</v>
       </c>
       <c r="T80" t="s">
         <v>313</v>
       </c>
       <c r="U80" s="1" t="s">
-        <v>434</v>
+        <v>430</v>
       </c>
       <c r="V80" t="s">
         <v>313</v>
       </c>
       <c r="W80" s="1" t="s">
-        <v>444</v>
+        <v>440</v>
       </c>
       <c r="X80" t="s">
         <v>313</v>
       </c>
       <c r="Y80" s="1" t="s">
-        <v>434</v>
+        <v>430</v>
       </c>
       <c r="Z80" t="s">
         <v>313</v>
       </c>
       <c r="AA80" s="1" t="s">
-        <v>444</v>
+        <v>440</v>
       </c>
       <c r="AB80" s="2" t="s">
         <v>308</v>
@@ -14029,16 +13487,16 @@
         <v>188</v>
       </c>
       <c r="C81" s="1" t="s">
-        <v>413</v>
+        <v>409</v>
       </c>
       <c r="D81" s="1" t="s">
-        <v>414</v>
+        <v>410</v>
       </c>
       <c r="E81" s="1" t="s">
         <v>119</v>
       </c>
       <c r="F81" s="1" t="s">
-        <v>415</v>
+        <v>411</v>
       </c>
       <c r="L81" t="s">
         <v>313</v>
@@ -14056,13 +13514,13 @@
         <v>313</v>
       </c>
       <c r="Q81" s="1" t="s">
-        <v>335</v>
+        <v>331</v>
       </c>
       <c r="R81" t="s">
         <v>313</v>
       </c>
       <c r="S81" s="1" t="s">
-        <v>335</v>
+        <v>331</v>
       </c>
       <c r="T81" t="s">
         <v>313</v>
@@ -14103,16 +13561,16 @@
         <v>108</v>
       </c>
       <c r="D82" s="1" t="s">
-        <v>416</v>
+        <v>412</v>
       </c>
       <c r="E82" s="1" t="s">
-        <v>417</v>
+        <v>413</v>
       </c>
       <c r="F82" s="1" t="s">
         <v>183</v>
       </c>
       <c r="H82" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
       <c r="K82" t="s">
         <v>84</v>
@@ -14121,7 +13579,7 @@
         <v>313</v>
       </c>
       <c r="M82" s="1" t="s">
-        <v>545</v>
+        <v>541</v>
       </c>
       <c r="N82" t="s">
         <v>313</v>
@@ -14133,37 +13591,37 @@
         <v>313</v>
       </c>
       <c r="Q82" s="1" t="s">
-        <v>410</v>
+        <v>406</v>
       </c>
       <c r="R82" t="s">
         <v>313</v>
       </c>
       <c r="S82" s="1" t="s">
-        <v>428</v>
+        <v>424</v>
       </c>
       <c r="T82" t="s">
         <v>313</v>
       </c>
       <c r="U82" s="1" t="s">
-        <v>435</v>
+        <v>431</v>
       </c>
       <c r="V82" t="s">
         <v>313</v>
       </c>
       <c r="W82" s="1" t="s">
-        <v>445</v>
+        <v>441</v>
       </c>
       <c r="X82" t="s">
         <v>313</v>
       </c>
       <c r="Y82" s="1" t="s">
-        <v>435</v>
+        <v>431</v>
       </c>
       <c r="Z82" t="s">
         <v>313</v>
       </c>
       <c r="AA82" s="1" t="s">
-        <v>445</v>
+        <v>441</v>
       </c>
       <c r="AB82" s="2" t="s">
         <v>308</v>
@@ -14192,13 +13650,13 @@
         <v>313</v>
       </c>
       <c r="M83" s="1" t="s">
-        <v>546</v>
+        <v>542</v>
       </c>
       <c r="N83" t="s">
         <v>313</v>
       </c>
       <c r="O83" s="1" t="s">
-        <v>562</v>
+        <v>558</v>
       </c>
       <c r="P83" t="s">
         <v>313</v>
@@ -14216,25 +13674,25 @@
         <v>313</v>
       </c>
       <c r="U83" s="1" t="s">
-        <v>436</v>
+        <v>432</v>
       </c>
       <c r="V83" t="s">
         <v>313</v>
       </c>
       <c r="W83" s="1" t="s">
-        <v>446</v>
+        <v>442</v>
       </c>
       <c r="X83" t="s">
         <v>313</v>
       </c>
       <c r="Y83" s="1" t="s">
-        <v>436</v>
+        <v>432</v>
       </c>
       <c r="Z83" t="s">
         <v>313</v>
       </c>
       <c r="AA83" s="1" t="s">
-        <v>446</v>
+        <v>442</v>
       </c>
       <c r="AB83" s="2" t="s">
         <v>308</v>
@@ -14260,7 +13718,7 @@
         <v>55</v>
       </c>
       <c r="H84" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
       <c r="K84" t="s">
         <v>314</v>
@@ -14271,7 +13729,7 @@
         <v>50</v>
       </c>
       <c r="B85" s="1" t="s">
-        <v>396</v>
+        <v>392</v>
       </c>
       <c r="C85" s="1" t="s">
         <v>120</v>
@@ -14280,7 +13738,7 @@
         <v>130</v>
       </c>
       <c r="E85" s="1" t="s">
-        <v>397</v>
+        <v>393</v>
       </c>
       <c r="F85" s="1" t="s">
         <v>250</v>
@@ -14309,10 +13767,10 @@
         <v>103</v>
       </c>
       <c r="H86" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
       <c r="K86" t="s">
-        <v>570</v>
+        <v>566</v>
       </c>
     </row>
     <row r="87" spans="1:28" x14ac:dyDescent="0.25">
@@ -14323,16 +13781,16 @@
         <v>250</v>
       </c>
       <c r="C87" s="1" t="s">
-        <v>418</v>
+        <v>414</v>
       </c>
       <c r="D87" s="1" t="s">
-        <v>419</v>
+        <v>415</v>
       </c>
       <c r="E87" s="1" t="s">
-        <v>420</v>
+        <v>416</v>
       </c>
       <c r="F87" s="1" t="s">
-        <v>344</v>
+        <v>340</v>
       </c>
       <c r="K87" t="s">
         <v>316</v>
@@ -14346,19 +13804,19 @@
         <v>49</v>
       </c>
       <c r="C88" s="1" t="s">
-        <v>421</v>
+        <v>417</v>
       </c>
       <c r="D88" s="1" t="s">
-        <v>422</v>
+        <v>418</v>
       </c>
       <c r="E88" s="1" t="s">
-        <v>423</v>
+        <v>419</v>
       </c>
       <c r="F88" s="1" t="s">
-        <v>424</v>
+        <v>420</v>
       </c>
       <c r="H88" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
     </row>
     <row r="89" spans="1:28" x14ac:dyDescent="0.25">
@@ -14366,10 +13824,10 @@
         <v>66</v>
       </c>
       <c r="B89" s="1" t="s">
-        <v>403</v>
+        <v>399</v>
       </c>
       <c r="C89" s="1" t="s">
-        <v>344</v>
+        <v>340</v>
       </c>
       <c r="D89" s="1" t="s">
         <v>44</v>
@@ -14404,7 +13862,7 @@
         <v>48</v>
       </c>
       <c r="H90" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
       <c r="K90" t="s">
         <v>312</v>
@@ -14415,22 +13873,22 @@
         <v>75</v>
       </c>
       <c r="B91" s="1" t="s">
-        <v>406</v>
+        <v>402</v>
       </c>
       <c r="C91" s="1" t="s">
-        <v>425</v>
+        <v>421</v>
       </c>
       <c r="D91" s="1" t="s">
-        <v>426</v>
+        <v>422</v>
       </c>
       <c r="E91" s="1" t="s">
-        <v>356</v>
+        <v>352</v>
       </c>
       <c r="F91" s="1" t="s">
         <v>185</v>
       </c>
       <c r="K91" t="s">
-        <v>564</v>
+        <v>560</v>
       </c>
     </row>
     <row r="92" spans="1:28" x14ac:dyDescent="0.25">
@@ -14441,19 +13899,19 @@
         <v>73</v>
       </c>
       <c r="C92" s="1" t="s">
-        <v>408</v>
+        <v>404</v>
       </c>
       <c r="D92" s="1" t="s">
-        <v>335</v>
+        <v>331</v>
       </c>
       <c r="E92" s="1" t="s">
         <v>158</v>
       </c>
       <c r="F92" s="1" t="s">
-        <v>409</v>
+        <v>405</v>
       </c>
       <c r="H92" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
       <c r="K92" t="s">
         <v>309</v>
@@ -14467,10 +13925,10 @@
         <v>228</v>
       </c>
       <c r="C93" s="1" t="s">
-        <v>427</v>
+        <v>423</v>
       </c>
       <c r="D93" s="1" t="s">
-        <v>428</v>
+        <v>424</v>
       </c>
       <c r="E93" s="1" t="s">
         <v>67</v>
@@ -14487,7 +13945,7 @@
         <v>27</v>
       </c>
       <c r="B94" s="1" t="s">
-        <v>411</v>
+        <v>407</v>
       </c>
       <c r="C94" s="1" t="s">
         <v>186</v>
@@ -14499,10 +13957,10 @@
         <v>135</v>
       </c>
       <c r="F94" s="1" t="s">
-        <v>412</v>
+        <v>408</v>
       </c>
       <c r="H94" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
       <c r="K94" t="s">
         <v>307</v>
@@ -14572,49 +14030,49 @@
         <v>313</v>
       </c>
       <c r="M96" s="1" t="s">
-        <v>455</v>
+        <v>451</v>
       </c>
       <c r="N96" t="s">
         <v>313</v>
       </c>
       <c r="O96" s="1" t="s">
-        <v>465</v>
+        <v>461</v>
       </c>
       <c r="P96" t="s">
         <v>313</v>
       </c>
       <c r="Q96" s="1" t="s">
-        <v>475</v>
+        <v>471</v>
       </c>
       <c r="R96" t="s">
         <v>313</v>
       </c>
       <c r="S96" s="1" t="s">
-        <v>484</v>
+        <v>480</v>
       </c>
       <c r="T96" t="s">
         <v>313</v>
       </c>
       <c r="U96" s="1" t="s">
-        <v>493</v>
+        <v>489</v>
       </c>
       <c r="V96" t="s">
         <v>313</v>
       </c>
       <c r="W96" s="1" t="s">
-        <v>500</v>
+        <v>496</v>
       </c>
       <c r="X96" t="s">
         <v>313</v>
       </c>
       <c r="Y96" s="1" t="s">
-        <v>510</v>
+        <v>506</v>
       </c>
       <c r="Z96" t="s">
         <v>313</v>
       </c>
       <c r="AA96" s="1" t="s">
-        <v>519</v>
+        <v>515</v>
       </c>
       <c r="AB96" s="3" t="s">
         <v>308</v>
@@ -14631,49 +14089,49 @@
         <v>313</v>
       </c>
       <c r="M97" s="1" t="s">
-        <v>460</v>
+        <v>456</v>
       </c>
       <c r="N97" t="s">
         <v>313</v>
       </c>
       <c r="O97" s="1" t="s">
-        <v>470</v>
+        <v>466</v>
       </c>
       <c r="P97" t="s">
         <v>313</v>
       </c>
       <c r="Q97" s="1" t="s">
-        <v>479</v>
+        <v>475</v>
       </c>
       <c r="R97" t="s">
         <v>313</v>
       </c>
       <c r="S97" s="1" t="s">
-        <v>488</v>
+        <v>484</v>
       </c>
       <c r="T97" t="s">
         <v>313</v>
       </c>
       <c r="U97" s="1" t="s">
-        <v>495</v>
+        <v>491</v>
       </c>
       <c r="V97" t="s">
         <v>313</v>
       </c>
       <c r="W97" s="1" t="s">
-        <v>505</v>
+        <v>501</v>
       </c>
       <c r="X97" t="s">
         <v>313</v>
       </c>
       <c r="Y97" s="1" t="s">
-        <v>515</v>
+        <v>511</v>
       </c>
       <c r="Z97" t="s">
         <v>313</v>
       </c>
       <c r="AA97" s="1" t="s">
-        <v>524</v>
+        <v>520</v>
       </c>
       <c r="AB97" s="3" t="s">
         <v>308</v>
@@ -14705,19 +14163,19 @@
         <v>313</v>
       </c>
       <c r="M99" s="1" t="s">
-        <v>531</v>
+        <v>527</v>
       </c>
       <c r="N99" t="s">
         <v>313</v>
       </c>
       <c r="O99" s="1" t="s">
-        <v>549</v>
+        <v>545</v>
       </c>
       <c r="P99" t="s">
         <v>313</v>
       </c>
       <c r="Q99" s="1" t="s">
-        <v>358</v>
+        <v>354</v>
       </c>
       <c r="R99" t="s">
         <v>313</v>
@@ -14729,7 +14187,7 @@
         <v>313</v>
       </c>
       <c r="U99" s="1" t="s">
-        <v>372</v>
+        <v>368</v>
       </c>
       <c r="V99" t="s">
         <v>313</v>
@@ -14741,7 +14199,7 @@
         <v>313</v>
       </c>
       <c r="Y99" s="1" t="s">
-        <v>372</v>
+        <v>368</v>
       </c>
       <c r="Z99" t="s">
         <v>313</v>
@@ -14761,13 +14219,13 @@
         <v>313</v>
       </c>
       <c r="M100" s="1" t="s">
-        <v>377</v>
+        <v>373</v>
       </c>
       <c r="N100" t="s">
         <v>313</v>
       </c>
       <c r="O100" s="1" t="s">
-        <v>365</v>
+        <v>361</v>
       </c>
       <c r="P100" t="s">
         <v>313</v>
@@ -14779,13 +14237,13 @@
         <v>313</v>
       </c>
       <c r="S100" s="1" t="s">
-        <v>417</v>
+        <v>413</v>
       </c>
       <c r="T100" t="s">
         <v>313</v>
       </c>
       <c r="U100" s="1" t="s">
-        <v>417</v>
+        <v>413</v>
       </c>
       <c r="V100" t="s">
         <v>313</v>
@@ -14797,7 +14255,7 @@
         <v>313</v>
       </c>
       <c r="Y100" s="1" t="s">
-        <v>417</v>
+        <v>413</v>
       </c>
       <c r="Z100" t="s">
         <v>313</v>
@@ -14947,37 +14405,37 @@
         <v>313</v>
       </c>
       <c r="Q103" s="1" t="s">
-        <v>397</v>
+        <v>393</v>
       </c>
       <c r="R103" t="s">
         <v>313</v>
       </c>
       <c r="S103" s="1" t="s">
-        <v>397</v>
+        <v>393</v>
       </c>
       <c r="T103" t="s">
         <v>313</v>
       </c>
       <c r="U103" s="1" t="s">
-        <v>397</v>
+        <v>393</v>
       </c>
       <c r="V103" t="s">
         <v>313</v>
       </c>
       <c r="W103" s="1" t="s">
-        <v>397</v>
+        <v>393</v>
       </c>
       <c r="X103" t="s">
         <v>313</v>
       </c>
       <c r="Y103" s="1" t="s">
-        <v>397</v>
+        <v>393</v>
       </c>
       <c r="Z103" t="s">
         <v>313</v>
       </c>
       <c r="AA103" s="1" t="s">
-        <v>397</v>
+        <v>393</v>
       </c>
       <c r="AB103" s="2" t="s">
         <v>308</v>
@@ -15000,10 +14458,10 @@
         <v>31</v>
       </c>
       <c r="F104" s="1" t="s">
-        <v>327</v>
+        <v>323</v>
       </c>
       <c r="H104" t="s">
-        <v>328</v>
+        <v>324</v>
       </c>
       <c r="L104" t="s">
         <v>313</v>
@@ -15068,13 +14526,13 @@
         <v>313</v>
       </c>
       <c r="M105" s="1" t="s">
-        <v>537</v>
+        <v>533</v>
       </c>
       <c r="N105" t="s">
         <v>313</v>
       </c>
       <c r="O105" s="1" t="s">
-        <v>553</v>
+        <v>549</v>
       </c>
       <c r="P105" t="s">
         <v>313</v>
@@ -15086,7 +14544,7 @@
         <v>313</v>
       </c>
       <c r="S105" s="1" t="s">
-        <v>420</v>
+        <v>416</v>
       </c>
       <c r="T105" t="s">
         <v>313</v>
@@ -15098,7 +14556,7 @@
         <v>313</v>
       </c>
       <c r="W105" s="1" t="s">
-        <v>440</v>
+        <v>436</v>
       </c>
       <c r="X105" t="s">
         <v>313</v>
@@ -15110,7 +14568,7 @@
         <v>313</v>
       </c>
       <c r="AA105" s="1" t="s">
-        <v>440</v>
+        <v>436</v>
       </c>
       <c r="AB105" s="2" t="s">
         <v>308</v>
@@ -15127,10 +14585,10 @@
         <v>191</v>
       </c>
       <c r="D106" s="1" t="s">
-        <v>429</v>
+        <v>425</v>
       </c>
       <c r="E106" s="1" t="s">
-        <v>372</v>
+        <v>368</v>
       </c>
       <c r="F106" s="1" t="s">
         <v>192</v>
@@ -15139,31 +14597,31 @@
         <v>313</v>
       </c>
       <c r="M106" s="1" t="s">
-        <v>539</v>
+        <v>535</v>
       </c>
       <c r="N106" t="s">
         <v>313</v>
       </c>
       <c r="O106" s="1" t="s">
-        <v>556</v>
+        <v>552</v>
       </c>
       <c r="P106" t="s">
         <v>313</v>
       </c>
       <c r="Q106" s="1" t="s">
-        <v>401</v>
+        <v>397</v>
       </c>
       <c r="R106" t="s">
         <v>313</v>
       </c>
       <c r="S106" s="1" t="s">
-        <v>423</v>
+        <v>419</v>
       </c>
       <c r="T106" t="s">
         <v>313</v>
       </c>
       <c r="U106" s="1" t="s">
-        <v>432</v>
+        <v>428</v>
       </c>
       <c r="V106" t="s">
         <v>313</v>
@@ -15175,7 +14633,7 @@
         <v>313</v>
       </c>
       <c r="Y106" s="1" t="s">
-        <v>432</v>
+        <v>428</v>
       </c>
       <c r="Z106" t="s">
         <v>313</v>
@@ -15201,13 +14659,13 @@
         <v>258</v>
       </c>
       <c r="E107" s="1" t="s">
-        <v>417</v>
+        <v>413</v>
       </c>
       <c r="F107" s="1" t="s">
         <v>128</v>
       </c>
       <c r="H107" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
       <c r="K107" t="s">
         <v>66</v>
@@ -15222,13 +14680,13 @@
         <v>313</v>
       </c>
       <c r="O107" s="1" t="s">
-        <v>558</v>
+        <v>554</v>
       </c>
       <c r="P107" t="s">
         <v>313</v>
       </c>
       <c r="Q107" s="1" t="s">
-        <v>405</v>
+        <v>401</v>
       </c>
       <c r="R107" t="s">
         <v>313</v>
@@ -15240,7 +14698,7 @@
         <v>313</v>
       </c>
       <c r="U107" s="1" t="s">
-        <v>405</v>
+        <v>401</v>
       </c>
       <c r="V107" t="s">
         <v>313</v>
@@ -15252,7 +14710,7 @@
         <v>313</v>
       </c>
       <c r="Y107" s="1" t="s">
-        <v>405</v>
+        <v>401</v>
       </c>
       <c r="Z107" t="s">
         <v>313</v>
@@ -15272,7 +14730,7 @@
         <v>188</v>
       </c>
       <c r="C108" s="1" t="s">
-        <v>397</v>
+        <v>393</v>
       </c>
       <c r="D108" s="1" t="s">
         <v>240</v>
@@ -15355,7 +14813,7 @@
         <v>55</v>
       </c>
       <c r="H109" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
       <c r="K109" t="s">
         <v>75</v>
@@ -15364,25 +14822,25 @@
         <v>313</v>
       </c>
       <c r="M109" s="1" t="s">
-        <v>543</v>
+        <v>539</v>
       </c>
       <c r="N109" t="s">
         <v>313</v>
       </c>
       <c r="O109" s="1" t="s">
-        <v>559</v>
+        <v>555</v>
       </c>
       <c r="P109" t="s">
         <v>313</v>
       </c>
       <c r="Q109" s="1" t="s">
-        <v>356</v>
+        <v>352</v>
       </c>
       <c r="R109" t="s">
         <v>313</v>
       </c>
       <c r="S109" s="1" t="s">
-        <v>356</v>
+        <v>352</v>
       </c>
       <c r="T109" t="s">
         <v>313</v>
@@ -15394,7 +14852,7 @@
         <v>313</v>
       </c>
       <c r="W109" s="1" t="s">
-        <v>440</v>
+        <v>436</v>
       </c>
       <c r="X109" t="s">
         <v>313</v>
@@ -15406,7 +14864,7 @@
         <v>313</v>
       </c>
       <c r="AA109" s="1" t="s">
-        <v>440</v>
+        <v>436</v>
       </c>
       <c r="AB109" s="2" t="s">
         <v>308</v>
@@ -15420,13 +14878,13 @@
         <v>105</v>
       </c>
       <c r="C110" s="1" t="s">
-        <v>415</v>
+        <v>411</v>
       </c>
       <c r="D110" s="1" t="s">
         <v>192</v>
       </c>
       <c r="E110" s="1" t="s">
-        <v>397</v>
+        <v>393</v>
       </c>
       <c r="F110" s="1" t="s">
         <v>99</v>
@@ -15435,7 +14893,7 @@
         <v>313</v>
       </c>
       <c r="M110" s="1" t="s">
-        <v>335</v>
+        <v>331</v>
       </c>
       <c r="N110" t="s">
         <v>313</v>
@@ -15459,25 +14917,25 @@
         <v>313</v>
       </c>
       <c r="U110" s="1" t="s">
-        <v>335</v>
+        <v>331</v>
       </c>
       <c r="V110" t="s">
         <v>313</v>
       </c>
       <c r="W110" s="1" t="s">
-        <v>335</v>
+        <v>331</v>
       </c>
       <c r="X110" t="s">
         <v>313</v>
       </c>
       <c r="Y110" s="1" t="s">
-        <v>335</v>
+        <v>331</v>
       </c>
       <c r="Z110" t="s">
         <v>313</v>
       </c>
       <c r="AA110" s="1" t="s">
-        <v>335</v>
+        <v>331</v>
       </c>
       <c r="AB110" s="2" t="s">
         <v>308</v>
@@ -15503,7 +14961,7 @@
         <v>103</v>
       </c>
       <c r="H111" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
       <c r="K111" t="s">
         <v>84</v>
@@ -15518,7 +14976,7 @@
         <v>313</v>
       </c>
       <c r="O111" s="1" t="s">
-        <v>560</v>
+        <v>556</v>
       </c>
       <c r="P111" t="s">
         <v>313</v>
@@ -15571,7 +15029,7 @@
         <v>180</v>
       </c>
       <c r="D112" s="1" t="s">
-        <v>430</v>
+        <v>426</v>
       </c>
       <c r="E112" s="1" t="s">
         <v>248</v>
@@ -15589,7 +15047,7 @@
         <v>313</v>
       </c>
       <c r="O112" s="1" t="s">
-        <v>563</v>
+        <v>559</v>
       </c>
       <c r="P112" t="s">
         <v>313</v>
@@ -15607,7 +15065,7 @@
         <v>313</v>
       </c>
       <c r="U112" s="1" t="s">
-        <v>437</v>
+        <v>433</v>
       </c>
       <c r="V112" t="s">
         <v>313</v>
@@ -15619,7 +15077,7 @@
         <v>313</v>
       </c>
       <c r="Y112" s="1" t="s">
-        <v>437</v>
+        <v>433</v>
       </c>
       <c r="Z112" t="s">
         <v>313</v>
@@ -15639,19 +15097,19 @@
         <v>49</v>
       </c>
       <c r="C113" s="1" t="s">
-        <v>412</v>
+        <v>408</v>
       </c>
       <c r="D113" s="1" t="s">
-        <v>431</v>
+        <v>427</v>
       </c>
       <c r="E113" s="1" t="s">
-        <v>432</v>
+        <v>428</v>
       </c>
       <c r="F113" s="1" t="s">
-        <v>433</v>
+        <v>429</v>
       </c>
       <c r="H113" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
       <c r="K113" t="s">
         <v>314</v>
@@ -15662,16 +15120,16 @@
         <v>66</v>
       </c>
       <c r="B114" s="1" t="s">
-        <v>403</v>
+        <v>399</v>
       </c>
       <c r="C114" s="1" t="s">
-        <v>404</v>
+        <v>400</v>
       </c>
       <c r="D114" s="1" t="s">
         <v>132</v>
       </c>
       <c r="E114" s="1" t="s">
-        <v>405</v>
+        <v>401</v>
       </c>
       <c r="F114" s="1" t="s">
         <v>220</v>
@@ -15700,10 +15158,10 @@
         <v>48</v>
       </c>
       <c r="H115" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
       <c r="K115" t="s">
-        <v>571</v>
+        <v>567</v>
       </c>
     </row>
     <row r="116" spans="1:28" x14ac:dyDescent="0.25">
@@ -15711,13 +15169,13 @@
         <v>75</v>
       </c>
       <c r="B116" s="1" t="s">
-        <v>426</v>
+        <v>422</v>
       </c>
       <c r="C116" s="1" t="s">
-        <v>358</v>
+        <v>354</v>
       </c>
       <c r="D116" s="1" t="s">
-        <v>434</v>
+        <v>430</v>
       </c>
       <c r="E116" s="1" t="s">
         <v>249</v>
@@ -15743,13 +15201,13 @@
         <v>81</v>
       </c>
       <c r="E117" s="1" t="s">
-        <v>335</v>
+        <v>331</v>
       </c>
       <c r="F117" s="1" t="s">
         <v>209</v>
       </c>
       <c r="H117" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
     </row>
     <row r="118" spans="1:28" x14ac:dyDescent="0.25">
@@ -15760,10 +15218,10 @@
         <v>171</v>
       </c>
       <c r="C118" s="1" t="s">
-        <v>426</v>
+        <v>422</v>
       </c>
       <c r="D118" s="1" t="s">
-        <v>435</v>
+        <v>431</v>
       </c>
       <c r="E118" s="1" t="s">
         <v>208</v>
@@ -15780,22 +15238,22 @@
         <v>27</v>
       </c>
       <c r="B119" s="1" t="s">
-        <v>345</v>
+        <v>341</v>
       </c>
       <c r="C119" s="1" t="s">
         <v>134</v>
       </c>
       <c r="D119" s="1" t="s">
-        <v>436</v>
+        <v>432</v>
       </c>
       <c r="E119" s="1" t="s">
-        <v>437</v>
+        <v>433</v>
       </c>
       <c r="F119" s="1" t="s">
-        <v>409</v>
+        <v>405</v>
       </c>
       <c r="H119" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
       <c r="K119" t="s">
         <v>312</v>
@@ -15806,7 +15264,7 @@
         <v>2</v>
       </c>
       <c r="K120" t="s">
-        <v>565</v>
+        <v>561</v>
       </c>
     </row>
     <row r="121" spans="1:28" x14ac:dyDescent="0.25">
@@ -15897,49 +15355,49 @@
         <v>313</v>
       </c>
       <c r="M125" s="1" t="s">
-        <v>456</v>
+        <v>452</v>
       </c>
       <c r="N125" s="1" t="s">
         <v>313</v>
       </c>
       <c r="O125" s="1" t="s">
-        <v>466</v>
+        <v>462</v>
       </c>
       <c r="P125" s="1" t="s">
         <v>313</v>
       </c>
       <c r="Q125" s="1" t="s">
-        <v>476</v>
+        <v>472</v>
       </c>
       <c r="R125" s="1" t="s">
         <v>313</v>
       </c>
       <c r="S125" s="1" t="s">
-        <v>485</v>
+        <v>481</v>
       </c>
       <c r="T125" s="1" t="s">
         <v>313</v>
       </c>
       <c r="U125" s="1" t="s">
-        <v>494</v>
+        <v>490</v>
       </c>
       <c r="V125" s="1" t="s">
         <v>313</v>
       </c>
       <c r="W125" s="1" t="s">
-        <v>501</v>
+        <v>497</v>
       </c>
       <c r="X125" s="1" t="s">
         <v>313</v>
       </c>
       <c r="Y125" s="1" t="s">
-        <v>511</v>
+        <v>507</v>
       </c>
       <c r="Z125" s="1" t="s">
         <v>313</v>
       </c>
       <c r="AA125" s="1" t="s">
-        <v>520</v>
+        <v>516</v>
       </c>
       <c r="AB125" s="3" t="s">
         <v>308</v>
@@ -15956,49 +15414,49 @@
         <v>313</v>
       </c>
       <c r="M126" s="1" t="s">
-        <v>461</v>
+        <v>457</v>
       </c>
       <c r="N126" t="s">
         <v>313</v>
       </c>
       <c r="O126" s="1" t="s">
-        <v>471</v>
+        <v>467</v>
       </c>
       <c r="P126" t="s">
         <v>313</v>
       </c>
       <c r="Q126" s="1" t="s">
-        <v>480</v>
+        <v>476</v>
       </c>
       <c r="R126" t="s">
         <v>313</v>
       </c>
       <c r="S126" s="1" t="s">
-        <v>489</v>
+        <v>485</v>
       </c>
       <c r="T126" t="s">
         <v>313</v>
       </c>
       <c r="U126" s="1" t="s">
-        <v>496</v>
+        <v>492</v>
       </c>
       <c r="V126" t="s">
         <v>313</v>
       </c>
       <c r="W126" s="1" t="s">
-        <v>506</v>
+        <v>502</v>
       </c>
       <c r="X126" t="s">
         <v>313</v>
       </c>
       <c r="Y126" s="1" t="s">
-        <v>515</v>
+        <v>511</v>
       </c>
       <c r="Z126" t="s">
         <v>313</v>
       </c>
       <c r="AA126" s="1" t="s">
-        <v>525</v>
+        <v>521</v>
       </c>
       <c r="AB126" s="3" t="s">
         <v>308</v>
@@ -16030,13 +15488,13 @@
         <v>313</v>
       </c>
       <c r="M128" s="1" t="s">
-        <v>532</v>
+        <v>528</v>
       </c>
       <c r="N128" t="s">
         <v>313</v>
       </c>
       <c r="O128" s="1" t="s">
-        <v>550</v>
+        <v>546</v>
       </c>
       <c r="P128" t="s">
         <v>313</v>
@@ -16048,7 +15506,7 @@
         <v>313</v>
       </c>
       <c r="S128" s="1" t="s">
-        <v>415</v>
+        <v>411</v>
       </c>
       <c r="T128" t="s">
         <v>313</v>
@@ -16095,10 +15553,10 @@
         <v>31</v>
       </c>
       <c r="F129" s="1" t="s">
-        <v>327</v>
+        <v>323</v>
       </c>
       <c r="H129" t="s">
-        <v>328</v>
+        <v>324</v>
       </c>
       <c r="L129" t="s">
         <v>313</v>
@@ -16193,7 +15651,7 @@
         <v>313</v>
       </c>
       <c r="W130" s="1" t="s">
-        <v>438</v>
+        <v>434</v>
       </c>
       <c r="X130" t="s">
         <v>313</v>
@@ -16205,7 +15663,7 @@
         <v>313</v>
       </c>
       <c r="AA130" s="1" t="s">
-        <v>438</v>
+        <v>434</v>
       </c>
       <c r="AB130" s="2" t="s">
         <v>308</v>
@@ -16219,7 +15677,7 @@
         <v>188</v>
       </c>
       <c r="C131" s="1" t="s">
-        <v>427</v>
+        <v>423</v>
       </c>
       <c r="D131" s="1" t="s">
         <v>44</v>
@@ -16302,7 +15760,7 @@
         <v>128</v>
       </c>
       <c r="H132" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
       <c r="K132" t="s">
         <v>50</v>
@@ -16311,7 +15769,7 @@
         <v>313</v>
       </c>
       <c r="M132" s="1" t="s">
-        <v>427</v>
+        <v>423</v>
       </c>
       <c r="N132" t="s">
         <v>313</v>
@@ -16376,7 +15834,7 @@
         <v>181</v>
       </c>
       <c r="F133" s="1" t="s">
-        <v>438</v>
+        <v>434</v>
       </c>
       <c r="L133" t="s">
         <v>313</v>
@@ -16450,7 +15908,7 @@
         <v>55</v>
       </c>
       <c r="H134" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
       <c r="K134" t="s">
         <v>57</v>
@@ -16459,13 +15917,13 @@
         <v>313</v>
       </c>
       <c r="M134" s="1" t="s">
-        <v>538</v>
+        <v>534</v>
       </c>
       <c r="N134" t="s">
         <v>313</v>
       </c>
       <c r="O134" s="1" t="s">
-        <v>554</v>
+        <v>550</v>
       </c>
       <c r="P134" t="s">
         <v>313</v>
@@ -16477,7 +15935,7 @@
         <v>313</v>
       </c>
       <c r="S134" s="1" t="s">
-        <v>344</v>
+        <v>340</v>
       </c>
       <c r="T134" t="s">
         <v>313</v>
@@ -16489,7 +15947,7 @@
         <v>313</v>
       </c>
       <c r="W134" s="1" t="s">
-        <v>441</v>
+        <v>437</v>
       </c>
       <c r="X134" t="s">
         <v>313</v>
@@ -16501,7 +15959,7 @@
         <v>313</v>
       </c>
       <c r="AA134" s="1" t="s">
-        <v>441</v>
+        <v>437</v>
       </c>
       <c r="AB134" s="2" t="s">
         <v>308</v>
@@ -16512,16 +15970,16 @@
         <v>50</v>
       </c>
       <c r="B135" s="1" t="s">
-        <v>396</v>
+        <v>392</v>
       </c>
       <c r="C135" s="1" t="s">
-        <v>415</v>
+        <v>411</v>
       </c>
       <c r="D135" s="1" t="s">
         <v>107</v>
       </c>
       <c r="E135" s="1" t="s">
-        <v>397</v>
+        <v>393</v>
       </c>
       <c r="F135" s="1" t="s">
         <v>99</v>
@@ -16530,7 +15988,7 @@
         <v>313</v>
       </c>
       <c r="M135" s="1" t="s">
-        <v>540</v>
+        <v>536</v>
       </c>
       <c r="N135" t="s">
         <v>313</v>
@@ -16542,37 +16000,37 @@
         <v>313</v>
       </c>
       <c r="Q135" s="1" t="s">
-        <v>402</v>
+        <v>398</v>
       </c>
       <c r="R135" t="s">
         <v>313</v>
       </c>
       <c r="S135" s="1" t="s">
-        <v>424</v>
+        <v>420</v>
       </c>
       <c r="T135" t="s">
         <v>313</v>
       </c>
       <c r="U135" s="1" t="s">
-        <v>433</v>
+        <v>429</v>
       </c>
       <c r="V135" t="s">
         <v>313</v>
       </c>
       <c r="W135" s="1" t="s">
-        <v>443</v>
+        <v>439</v>
       </c>
       <c r="X135" t="s">
         <v>313</v>
       </c>
       <c r="Y135" s="1" t="s">
-        <v>433</v>
+        <v>429</v>
       </c>
       <c r="Z135" t="s">
         <v>313</v>
       </c>
       <c r="AA135" s="1" t="s">
-        <v>443</v>
+        <v>439</v>
       </c>
       <c r="AB135" s="2" t="s">
         <v>308</v>
@@ -16598,7 +16056,7 @@
         <v>103</v>
       </c>
       <c r="H136" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
       <c r="K136" t="s">
         <v>66</v>
@@ -16666,13 +16124,13 @@
         <v>93</v>
       </c>
       <c r="D137" s="1" t="s">
-        <v>439</v>
+        <v>435</v>
       </c>
       <c r="E137" s="1" t="s">
-        <v>440</v>
+        <v>436</v>
       </c>
       <c r="F137" s="1" t="s">
-        <v>441</v>
+        <v>437</v>
       </c>
       <c r="L137" t="s">
         <v>313</v>
@@ -16737,16 +16195,16 @@
         <v>39</v>
       </c>
       <c r="D138" s="1" t="s">
-        <v>442</v>
+        <v>438</v>
       </c>
       <c r="E138" s="1" t="s">
         <v>225</v>
       </c>
       <c r="F138" s="1" t="s">
-        <v>443</v>
+        <v>439</v>
       </c>
       <c r="H138" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
       <c r="K138" t="s">
         <v>75</v>
@@ -16808,7 +16266,7 @@
         <v>66</v>
       </c>
       <c r="B139" s="1" t="s">
-        <v>403</v>
+        <v>399</v>
       </c>
       <c r="C139" s="1" t="s">
         <v>142</v>
@@ -16838,13 +16296,13 @@
         <v>313</v>
       </c>
       <c r="Q139" s="1" t="s">
-        <v>409</v>
+        <v>405</v>
       </c>
       <c r="R139" t="s">
         <v>313</v>
       </c>
       <c r="S139" s="1" t="s">
-        <v>409</v>
+        <v>405</v>
       </c>
       <c r="T139" t="s">
         <v>313</v>
@@ -16894,7 +16352,7 @@
         <v>48</v>
       </c>
       <c r="H140" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
       <c r="K140" t="s">
         <v>84</v>
@@ -16909,7 +16367,7 @@
         <v>313</v>
       </c>
       <c r="O140" s="1" t="s">
-        <v>561</v>
+        <v>557</v>
       </c>
       <c r="P140" t="s">
         <v>313</v>
@@ -16956,16 +16414,16 @@
         <v>75</v>
       </c>
       <c r="B141" s="1" t="s">
-        <v>406</v>
+        <v>402</v>
       </c>
       <c r="C141" s="1" t="s">
         <v>43</v>
       </c>
       <c r="D141" s="1" t="s">
-        <v>444</v>
+        <v>440</v>
       </c>
       <c r="E141" s="1" t="s">
-        <v>440</v>
+        <v>436</v>
       </c>
       <c r="F141" s="1" t="s">
         <v>101</v>
@@ -16986,19 +16444,19 @@
         <v>313</v>
       </c>
       <c r="Q141" s="1" t="s">
-        <v>412</v>
+        <v>408</v>
       </c>
       <c r="R141" t="s">
         <v>313</v>
       </c>
       <c r="S141" s="1" t="s">
-        <v>412</v>
+        <v>408</v>
       </c>
       <c r="T141" t="s">
         <v>313</v>
       </c>
       <c r="U141" s="1" t="s">
-        <v>409</v>
+        <v>405</v>
       </c>
       <c r="V141" t="s">
         <v>313</v>
@@ -17010,7 +16468,7 @@
         <v>313</v>
       </c>
       <c r="Y141" s="1" t="s">
-        <v>409</v>
+        <v>405</v>
       </c>
       <c r="Z141" t="s">
         <v>313</v>
@@ -17036,13 +16494,13 @@
         <v>163</v>
       </c>
       <c r="E142" s="1" t="s">
-        <v>335</v>
+        <v>331</v>
       </c>
       <c r="F142" s="1" t="s">
         <v>209</v>
       </c>
       <c r="H142" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
       <c r="K142" t="s">
         <v>314</v>
@@ -17056,10 +16514,10 @@
         <v>228</v>
       </c>
       <c r="C143" s="1" t="s">
-        <v>362</v>
+        <v>358</v>
       </c>
       <c r="D143" s="1" t="s">
-        <v>445</v>
+        <v>441</v>
       </c>
       <c r="E143" s="1" t="s">
         <v>118</v>
@@ -17076,13 +16534,13 @@
         <v>27</v>
       </c>
       <c r="B144" s="1" t="s">
-        <v>411</v>
+        <v>407</v>
       </c>
       <c r="C144" s="1" t="s">
         <v>134</v>
       </c>
       <c r="D144" s="1" t="s">
-        <v>446</v>
+        <v>442</v>
       </c>
       <c r="E144" s="1" t="s">
         <v>210</v>
@@ -17091,10 +16549,10 @@
         <v>261</v>
       </c>
       <c r="H144" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
       <c r="K144" t="s">
-        <v>572</v>
+        <v>568</v>
       </c>
     </row>
     <row r="145" spans="1:11" x14ac:dyDescent="0.25">
@@ -17162,10 +16620,10 @@
         <v>31</v>
       </c>
       <c r="F154" s="1" t="s">
-        <v>327</v>
+        <v>323</v>
       </c>
       <c r="H154" t="s">
-        <v>328</v>
+        <v>324</v>
       </c>
     </row>
     <row r="155" spans="1:11" x14ac:dyDescent="0.25">
@@ -17184,10 +16642,10 @@
         <v>191</v>
       </c>
       <c r="D156" s="1" t="s">
-        <v>429</v>
+        <v>425</v>
       </c>
       <c r="E156" s="1" t="s">
-        <v>372</v>
+        <v>368</v>
       </c>
       <c r="F156" s="1" t="s">
         <v>192</v>
@@ -17207,13 +16665,13 @@
         <v>258</v>
       </c>
       <c r="E157" s="1" t="s">
-        <v>417</v>
+        <v>413</v>
       </c>
       <c r="F157" s="1" t="s">
         <v>128</v>
       </c>
       <c r="H157" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
     </row>
     <row r="158" spans="1:11" x14ac:dyDescent="0.25">
@@ -17224,7 +16682,7 @@
         <v>188</v>
       </c>
       <c r="C158" s="1" t="s">
-        <v>397</v>
+        <v>393</v>
       </c>
       <c r="D158" s="1" t="s">
         <v>240</v>
@@ -17256,7 +16714,7 @@
         <v>55</v>
       </c>
       <c r="H159" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
     </row>
     <row r="160" spans="1:11" x14ac:dyDescent="0.25">
@@ -17267,13 +16725,13 @@
         <v>105</v>
       </c>
       <c r="C160" s="1" t="s">
-        <v>415</v>
+        <v>411</v>
       </c>
       <c r="D160" s="1" t="s">
         <v>192</v>
       </c>
       <c r="E160" s="1" t="s">
-        <v>397</v>
+        <v>393</v>
       </c>
       <c r="F160" s="1" t="s">
         <v>99</v>
@@ -17299,7 +16757,7 @@
         <v>103</v>
       </c>
       <c r="H161" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
     </row>
     <row r="162" spans="1:8" x14ac:dyDescent="0.25">
@@ -17313,7 +16771,7 @@
         <v>180</v>
       </c>
       <c r="D162" s="1" t="s">
-        <v>430</v>
+        <v>426</v>
       </c>
       <c r="E162" s="1" t="s">
         <v>248</v>
@@ -17330,19 +16788,19 @@
         <v>49</v>
       </c>
       <c r="C163" s="1" t="s">
-        <v>412</v>
+        <v>408</v>
       </c>
       <c r="D163" s="1" t="s">
-        <v>431</v>
+        <v>427</v>
       </c>
       <c r="E163" s="1" t="s">
-        <v>432</v>
+        <v>428</v>
       </c>
       <c r="F163" s="1" t="s">
-        <v>433</v>
+        <v>429</v>
       </c>
       <c r="H163" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
     </row>
     <row r="164" spans="1:8" x14ac:dyDescent="0.25">
@@ -17350,16 +16808,16 @@
         <v>66</v>
       </c>
       <c r="B164" s="1" t="s">
-        <v>403</v>
+        <v>399</v>
       </c>
       <c r="C164" s="1" t="s">
-        <v>404</v>
+        <v>400</v>
       </c>
       <c r="D164" s="1" t="s">
         <v>132</v>
       </c>
       <c r="E164" s="1" t="s">
-        <v>405</v>
+        <v>401</v>
       </c>
       <c r="F164" s="1" t="s">
         <v>220</v>
@@ -17385,7 +16843,7 @@
         <v>48</v>
       </c>
       <c r="H165" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
     </row>
     <row r="166" spans="1:8" x14ac:dyDescent="0.25">
@@ -17393,13 +16851,13 @@
         <v>75</v>
       </c>
       <c r="B166" s="1" t="s">
-        <v>426</v>
+        <v>422</v>
       </c>
       <c r="C166" s="1" t="s">
-        <v>358</v>
+        <v>354</v>
       </c>
       <c r="D166" s="1" t="s">
-        <v>434</v>
+        <v>430</v>
       </c>
       <c r="E166" s="1" t="s">
         <v>249</v>
@@ -17422,13 +16880,13 @@
         <v>81</v>
       </c>
       <c r="E167" s="1" t="s">
-        <v>335</v>
+        <v>331</v>
       </c>
       <c r="F167" s="1" t="s">
         <v>209</v>
       </c>
       <c r="H167" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
     </row>
     <row r="168" spans="1:8" x14ac:dyDescent="0.25">
@@ -17439,10 +16897,10 @@
         <v>171</v>
       </c>
       <c r="C168" s="1" t="s">
-        <v>426</v>
+        <v>422</v>
       </c>
       <c r="D168" s="1" t="s">
-        <v>435</v>
+        <v>431</v>
       </c>
       <c r="E168" s="1" t="s">
         <v>208</v>
@@ -17456,22 +16914,22 @@
         <v>27</v>
       </c>
       <c r="B169" s="1" t="s">
-        <v>345</v>
+        <v>341</v>
       </c>
       <c r="C169" s="1" t="s">
         <v>134</v>
       </c>
       <c r="D169" s="1" t="s">
-        <v>436</v>
+        <v>432</v>
       </c>
       <c r="E169" s="1" t="s">
-        <v>437</v>
+        <v>433</v>
       </c>
       <c r="F169" s="1" t="s">
-        <v>409</v>
+        <v>405</v>
       </c>
       <c r="H169" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
     </row>
     <row r="170" spans="1:8" x14ac:dyDescent="0.25">
@@ -17536,10 +16994,10 @@
         <v>31</v>
       </c>
       <c r="F179" s="1" t="s">
-        <v>327</v>
+        <v>323</v>
       </c>
       <c r="H179" t="s">
-        <v>328</v>
+        <v>324</v>
       </c>
     </row>
     <row r="180" spans="1:8" x14ac:dyDescent="0.25">
@@ -17555,7 +17013,7 @@
         <v>188</v>
       </c>
       <c r="C181" s="1" t="s">
-        <v>427</v>
+        <v>423</v>
       </c>
       <c r="D181" s="1" t="s">
         <v>44</v>
@@ -17587,7 +17045,7 @@
         <v>128</v>
       </c>
       <c r="H182" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
     </row>
     <row r="183" spans="1:8" x14ac:dyDescent="0.25">
@@ -17607,7 +17065,7 @@
         <v>181</v>
       </c>
       <c r="F183" s="1" t="s">
-        <v>438</v>
+        <v>434</v>
       </c>
     </row>
     <row r="184" spans="1:8" x14ac:dyDescent="0.25">
@@ -17630,7 +17088,7 @@
         <v>55</v>
       </c>
       <c r="H184" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
     </row>
     <row r="185" spans="1:8" x14ac:dyDescent="0.25">
@@ -17638,16 +17096,16 @@
         <v>50</v>
       </c>
       <c r="B185" s="1" t="s">
-        <v>396</v>
+        <v>392</v>
       </c>
       <c r="C185" s="1" t="s">
-        <v>415</v>
+        <v>411</v>
       </c>
       <c r="D185" s="1" t="s">
         <v>107</v>
       </c>
       <c r="E185" s="1" t="s">
-        <v>397</v>
+        <v>393</v>
       </c>
       <c r="F185" s="1" t="s">
         <v>99</v>
@@ -17673,7 +17131,7 @@
         <v>103</v>
       </c>
       <c r="H186" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
     </row>
     <row r="187" spans="1:8" x14ac:dyDescent="0.25">
@@ -17687,13 +17145,13 @@
         <v>93</v>
       </c>
       <c r="D187" s="1" t="s">
-        <v>439</v>
+        <v>435</v>
       </c>
       <c r="E187" s="1" t="s">
-        <v>440</v>
+        <v>436</v>
       </c>
       <c r="F187" s="1" t="s">
-        <v>441</v>
+        <v>437</v>
       </c>
     </row>
     <row r="188" spans="1:8" x14ac:dyDescent="0.25">
@@ -17707,16 +17165,16 @@
         <v>39</v>
       </c>
       <c r="D188" s="1" t="s">
-        <v>442</v>
+        <v>438</v>
       </c>
       <c r="E188" s="1" t="s">
         <v>225</v>
       </c>
       <c r="F188" s="1" t="s">
-        <v>443</v>
+        <v>439</v>
       </c>
       <c r="H188" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
     </row>
     <row r="189" spans="1:8" x14ac:dyDescent="0.25">
@@ -17724,7 +17182,7 @@
         <v>66</v>
       </c>
       <c r="B189" s="1" t="s">
-        <v>403</v>
+        <v>399</v>
       </c>
       <c r="C189" s="1" t="s">
         <v>142</v>
@@ -17759,7 +17217,7 @@
         <v>48</v>
       </c>
       <c r="H190" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
     </row>
     <row r="191" spans="1:8" x14ac:dyDescent="0.25">
@@ -17767,16 +17225,16 @@
         <v>75</v>
       </c>
       <c r="B191" s="1" t="s">
-        <v>406</v>
+        <v>402</v>
       </c>
       <c r="C191" s="1" t="s">
         <v>43</v>
       </c>
       <c r="D191" s="1" t="s">
-        <v>444</v>
+        <v>440</v>
       </c>
       <c r="E191" s="1" t="s">
-        <v>440</v>
+        <v>436</v>
       </c>
       <c r="F191" s="1" t="s">
         <v>101</v>
@@ -17796,13 +17254,13 @@
         <v>163</v>
       </c>
       <c r="E192" s="1" t="s">
-        <v>335</v>
+        <v>331</v>
       </c>
       <c r="F192" s="1" t="s">
         <v>209</v>
       </c>
       <c r="H192" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
     </row>
     <row r="193" spans="1:8" x14ac:dyDescent="0.25">
@@ -17813,10 +17271,10 @@
         <v>228</v>
       </c>
       <c r="C193" s="1" t="s">
-        <v>362</v>
+        <v>358</v>
       </c>
       <c r="D193" s="1" t="s">
-        <v>445</v>
+        <v>441</v>
       </c>
       <c r="E193" s="1" t="s">
         <v>118</v>
@@ -17830,13 +17288,13 @@
         <v>27</v>
       </c>
       <c r="B194" s="1" t="s">
-        <v>411</v>
+        <v>407</v>
       </c>
       <c r="C194" s="1" t="s">
         <v>134</v>
       </c>
       <c r="D194" s="1" t="s">
-        <v>446</v>
+        <v>442</v>
       </c>
       <c r="E194" s="1" t="s">
         <v>210</v>
@@ -17845,7 +17303,7 @@
         <v>261</v>
       </c>
       <c r="H194" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
     </row>
     <row r="195" spans="1:8" x14ac:dyDescent="0.25">
@@ -17870,27 +17328,27 @@
     </row>
     <row r="199" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A199" s="1" t="s">
-        <v>447</v>
+        <v>443</v>
       </c>
     </row>
     <row r="200" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A200" s="1" t="s">
-        <v>448</v>
+        <v>444</v>
       </c>
     </row>
     <row r="201" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A201" s="1" t="s">
-        <v>449</v>
+        <v>445</v>
       </c>
     </row>
     <row r="202" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A202" s="1" t="s">
-        <v>450</v>
+        <v>446</v>
       </c>
     </row>
     <row r="203" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A203" s="1" t="s">
-        <v>451</v>
+        <v>447</v>
       </c>
     </row>
     <row r="204" spans="1:8" x14ac:dyDescent="0.25">
@@ -17910,15 +17368,15 @@
         <v>31</v>
       </c>
       <c r="F204" s="1" t="s">
-        <v>327</v>
+        <v>323</v>
       </c>
       <c r="H204" t="s">
-        <v>381</v>
+        <v>377</v>
       </c>
     </row>
     <row r="205" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A205" s="1" t="s">
-        <v>451</v>
+        <v>447</v>
       </c>
     </row>
     <row r="206" spans="1:8" x14ac:dyDescent="0.25">
@@ -17926,22 +17384,22 @@
         <v>262</v>
       </c>
       <c r="B206" s="1" t="s">
+        <v>448</v>
+      </c>
+      <c r="C206" s="1" t="s">
+        <v>449</v>
+      </c>
+      <c r="D206" s="1" t="s">
+        <v>450</v>
+      </c>
+      <c r="E206" s="1" t="s">
+        <v>451</v>
+      </c>
+      <c r="F206" s="1" t="s">
         <v>452</v>
       </c>
-      <c r="C206" s="1" t="s">
-        <v>453</v>
-      </c>
-      <c r="D206" s="1" t="s">
-        <v>454</v>
-      </c>
-      <c r="E206" s="1" t="s">
-        <v>455</v>
-      </c>
-      <c r="F206" s="1" t="s">
-        <v>456</v>
-      </c>
       <c r="H206" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
     </row>
     <row r="207" spans="1:8" x14ac:dyDescent="0.25">
@@ -17949,22 +17407,22 @@
         <v>27</v>
       </c>
       <c r="B207" s="1" t="s">
+        <v>453</v>
+      </c>
+      <c r="C207" s="1" t="s">
+        <v>454</v>
+      </c>
+      <c r="D207" s="1" t="s">
+        <v>455</v>
+      </c>
+      <c r="E207" s="1" t="s">
+        <v>456</v>
+      </c>
+      <c r="F207" s="1" t="s">
         <v>457</v>
       </c>
-      <c r="C207" s="1" t="s">
-        <v>458</v>
-      </c>
-      <c r="D207" s="1" t="s">
-        <v>459</v>
-      </c>
-      <c r="E207" s="1" t="s">
-        <v>460</v>
-      </c>
-      <c r="F207" s="1" t="s">
-        <v>461</v>
-      </c>
       <c r="H207" t="s">
-        <v>383</v>
+        <v>379</v>
       </c>
     </row>
     <row r="208" spans="1:8" x14ac:dyDescent="0.25">
@@ -17972,22 +17430,22 @@
         <v>268</v>
       </c>
       <c r="B208" s="1" t="s">
+        <v>458</v>
+      </c>
+      <c r="C208" s="1" t="s">
+        <v>459</v>
+      </c>
+      <c r="D208" s="1" t="s">
+        <v>460</v>
+      </c>
+      <c r="E208" s="1" t="s">
+        <v>461</v>
+      </c>
+      <c r="F208" s="1" t="s">
         <v>462</v>
       </c>
-      <c r="C208" s="1" t="s">
-        <v>463</v>
-      </c>
-      <c r="D208" s="1" t="s">
-        <v>464</v>
-      </c>
-      <c r="E208" s="1" t="s">
-        <v>465</v>
-      </c>
-      <c r="F208" s="1" t="s">
-        <v>466</v>
-      </c>
       <c r="H208" t="s">
-        <v>385</v>
+        <v>381</v>
       </c>
     </row>
     <row r="209" spans="1:8" x14ac:dyDescent="0.25">
@@ -17995,22 +17453,22 @@
         <v>27</v>
       </c>
       <c r="B209" s="1" t="s">
+        <v>463</v>
+      </c>
+      <c r="C209" s="1" t="s">
+        <v>464</v>
+      </c>
+      <c r="D209" s="1" t="s">
+        <v>465</v>
+      </c>
+      <c r="E209" s="1" t="s">
+        <v>466</v>
+      </c>
+      <c r="F209" s="1" t="s">
         <v>467</v>
       </c>
-      <c r="C209" s="1" t="s">
-        <v>468</v>
-      </c>
-      <c r="D209" s="1" t="s">
-        <v>469</v>
-      </c>
-      <c r="E209" s="1" t="s">
-        <v>470</v>
-      </c>
-      <c r="F209" s="1" t="s">
-        <v>471</v>
-      </c>
       <c r="H209" t="s">
-        <v>383</v>
+        <v>379</v>
       </c>
     </row>
     <row r="210" spans="1:8" x14ac:dyDescent="0.25">
@@ -18018,22 +17476,22 @@
         <v>273</v>
       </c>
       <c r="B210" s="1" t="s">
+        <v>468</v>
+      </c>
+      <c r="C210" s="1" t="s">
+        <v>469</v>
+      </c>
+      <c r="D210" s="1" t="s">
+        <v>470</v>
+      </c>
+      <c r="E210" s="1" t="s">
+        <v>471</v>
+      </c>
+      <c r="F210" s="1" t="s">
         <v>472</v>
       </c>
-      <c r="C210" s="1" t="s">
-        <v>473</v>
-      </c>
-      <c r="D210" s="1" t="s">
-        <v>474</v>
-      </c>
-      <c r="E210" s="1" t="s">
-        <v>475</v>
-      </c>
-      <c r="F210" s="1" t="s">
-        <v>476</v>
-      </c>
       <c r="H210" t="s">
-        <v>385</v>
+        <v>381</v>
       </c>
     </row>
     <row r="211" spans="1:8" x14ac:dyDescent="0.25">
@@ -18041,22 +17499,22 @@
         <v>27</v>
       </c>
       <c r="B211" s="1" t="s">
-        <v>457</v>
+        <v>453</v>
       </c>
       <c r="C211" s="1" t="s">
-        <v>477</v>
+        <v>473</v>
       </c>
       <c r="D211" s="1" t="s">
-        <v>478</v>
+        <v>474</v>
       </c>
       <c r="E211" s="1" t="s">
-        <v>479</v>
+        <v>475</v>
       </c>
       <c r="F211" s="1" t="s">
-        <v>480</v>
+        <v>476</v>
       </c>
       <c r="H211" t="s">
-        <v>383</v>
+        <v>379</v>
       </c>
     </row>
     <row r="212" spans="1:8" x14ac:dyDescent="0.25">
@@ -18064,22 +17522,22 @@
         <v>278</v>
       </c>
       <c r="B212" s="1" t="s">
+        <v>477</v>
+      </c>
+      <c r="C212" s="1" t="s">
+        <v>478</v>
+      </c>
+      <c r="D212" s="1" t="s">
+        <v>479</v>
+      </c>
+      <c r="E212" s="1" t="s">
+        <v>480</v>
+      </c>
+      <c r="F212" s="1" t="s">
         <v>481</v>
       </c>
-      <c r="C212" s="1" t="s">
-        <v>482</v>
-      </c>
-      <c r="D212" s="1" t="s">
-        <v>483</v>
-      </c>
-      <c r="E212" s="1" t="s">
-        <v>484</v>
-      </c>
-      <c r="F212" s="1" t="s">
-        <v>485</v>
-      </c>
       <c r="H212" t="s">
-        <v>388</v>
+        <v>384</v>
       </c>
     </row>
     <row r="213" spans="1:8" x14ac:dyDescent="0.25">
@@ -18087,22 +17545,22 @@
         <v>27</v>
       </c>
       <c r="B213" s="1" t="s">
-        <v>467</v>
+        <v>463</v>
       </c>
       <c r="C213" s="1" t="s">
-        <v>486</v>
+        <v>482</v>
       </c>
       <c r="D213" s="1" t="s">
-        <v>487</v>
+        <v>483</v>
       </c>
       <c r="E213" s="1" t="s">
-        <v>488</v>
+        <v>484</v>
       </c>
       <c r="F213" s="1" t="s">
-        <v>489</v>
+        <v>485</v>
       </c>
       <c r="H213" t="s">
-        <v>383</v>
+        <v>379</v>
       </c>
     </row>
     <row r="214" spans="1:8" x14ac:dyDescent="0.25">
@@ -18110,22 +17568,22 @@
         <v>283</v>
       </c>
       <c r="B214" s="1" t="s">
+        <v>486</v>
+      </c>
+      <c r="C214" s="1" t="s">
+        <v>487</v>
+      </c>
+      <c r="D214" s="1" t="s">
+        <v>488</v>
+      </c>
+      <c r="E214" s="1" t="s">
+        <v>489</v>
+      </c>
+      <c r="F214" s="1" t="s">
         <v>490</v>
       </c>
-      <c r="C214" s="1" t="s">
-        <v>491</v>
-      </c>
-      <c r="D214" s="1" t="s">
-        <v>492</v>
-      </c>
-      <c r="E214" s="1" t="s">
-        <v>493</v>
-      </c>
-      <c r="F214" s="1" t="s">
-        <v>494</v>
-      </c>
       <c r="H214" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
     </row>
     <row r="215" spans="1:8" x14ac:dyDescent="0.25">
@@ -18133,22 +17591,22 @@
         <v>27</v>
       </c>
       <c r="B215" s="1" t="s">
-        <v>495</v>
+        <v>491</v>
       </c>
       <c r="C215" s="1" t="s">
-        <v>496</v>
+        <v>492</v>
       </c>
       <c r="D215" s="1" t="s">
-        <v>496</v>
+        <v>492</v>
       </c>
       <c r="E215" s="1" t="s">
-        <v>495</v>
+        <v>491</v>
       </c>
       <c r="F215" s="1" t="s">
-        <v>496</v>
+        <v>492</v>
       </c>
       <c r="H215" t="s">
-        <v>383</v>
+        <v>379</v>
       </c>
     </row>
     <row r="216" spans="1:8" x14ac:dyDescent="0.25">
@@ -18156,22 +17614,22 @@
         <v>288</v>
       </c>
       <c r="B216" s="1" t="s">
+        <v>493</v>
+      </c>
+      <c r="C216" s="1" t="s">
+        <v>494</v>
+      </c>
+      <c r="D216" s="1" t="s">
+        <v>495</v>
+      </c>
+      <c r="E216" s="1" t="s">
+        <v>496</v>
+      </c>
+      <c r="F216" s="1" t="s">
         <v>497</v>
       </c>
-      <c r="C216" s="1" t="s">
-        <v>498</v>
-      </c>
-      <c r="D216" s="1" t="s">
-        <v>499</v>
-      </c>
-      <c r="E216" s="1" t="s">
-        <v>500</v>
-      </c>
-      <c r="F216" s="1" t="s">
-        <v>501</v>
-      </c>
       <c r="H216" t="s">
-        <v>391</v>
+        <v>387</v>
       </c>
     </row>
     <row r="217" spans="1:8" x14ac:dyDescent="0.25">
@@ -18179,22 +17637,22 @@
         <v>27</v>
       </c>
       <c r="B217" s="1" t="s">
+        <v>498</v>
+      </c>
+      <c r="C217" s="1" t="s">
+        <v>499</v>
+      </c>
+      <c r="D217" s="1" t="s">
+        <v>500</v>
+      </c>
+      <c r="E217" s="1" t="s">
+        <v>501</v>
+      </c>
+      <c r="F217" s="1" t="s">
         <v>502</v>
       </c>
-      <c r="C217" s="1" t="s">
-        <v>503</v>
-      </c>
-      <c r="D217" s="1" t="s">
-        <v>504</v>
-      </c>
-      <c r="E217" s="1" t="s">
-        <v>505</v>
-      </c>
-      <c r="F217" s="1" t="s">
-        <v>506</v>
-      </c>
       <c r="H217" t="s">
-        <v>383</v>
+        <v>379</v>
       </c>
     </row>
     <row r="218" spans="1:8" x14ac:dyDescent="0.25">
@@ -18202,19 +17660,19 @@
         <v>293</v>
       </c>
       <c r="B218" s="1" t="s">
+        <v>503</v>
+      </c>
+      <c r="C218" s="1" t="s">
+        <v>504</v>
+      </c>
+      <c r="D218" s="1" t="s">
+        <v>505</v>
+      </c>
+      <c r="E218" s="1" t="s">
+        <v>506</v>
+      </c>
+      <c r="F218" s="1" t="s">
         <v>507</v>
-      </c>
-      <c r="C218" s="1" t="s">
-        <v>508</v>
-      </c>
-      <c r="D218" s="1" t="s">
-        <v>509</v>
-      </c>
-      <c r="E218" s="1" t="s">
-        <v>510</v>
-      </c>
-      <c r="F218" s="1" t="s">
-        <v>511</v>
       </c>
     </row>
     <row r="219" spans="1:8" x14ac:dyDescent="0.25">
@@ -18222,22 +17680,22 @@
         <v>27</v>
       </c>
       <c r="B219" s="1" t="s">
-        <v>512</v>
+        <v>508</v>
       </c>
       <c r="C219" s="1" t="s">
-        <v>513</v>
+        <v>509</v>
       </c>
       <c r="D219" s="1" t="s">
-        <v>514</v>
+        <v>510</v>
       </c>
       <c r="E219" s="1" t="s">
-        <v>515</v>
+        <v>511</v>
       </c>
       <c r="F219" s="1" t="s">
-        <v>515</v>
+        <v>511</v>
       </c>
       <c r="H219" t="s">
-        <v>383</v>
+        <v>379</v>
       </c>
     </row>
     <row r="220" spans="1:8" x14ac:dyDescent="0.25">
@@ -18245,22 +17703,22 @@
         <v>298</v>
       </c>
       <c r="B220" s="1" t="s">
+        <v>512</v>
+      </c>
+      <c r="C220" s="1" t="s">
+        <v>513</v>
+      </c>
+      <c r="D220" s="1" t="s">
+        <v>514</v>
+      </c>
+      <c r="E220" s="1" t="s">
+        <v>515</v>
+      </c>
+      <c r="F220" s="1" t="s">
         <v>516</v>
       </c>
-      <c r="C220" s="1" t="s">
-        <v>517</v>
-      </c>
-      <c r="D220" s="1" t="s">
-        <v>518</v>
-      </c>
-      <c r="E220" s="1" t="s">
-        <v>519</v>
-      </c>
-      <c r="F220" s="1" t="s">
-        <v>520</v>
-      </c>
       <c r="H220" t="s">
-        <v>388</v>
+        <v>384</v>
       </c>
     </row>
     <row r="221" spans="1:8" x14ac:dyDescent="0.25">
@@ -18268,42 +17726,42 @@
         <v>27</v>
       </c>
       <c r="B221" s="1" t="s">
+        <v>517</v>
+      </c>
+      <c r="C221" s="1" t="s">
+        <v>518</v>
+      </c>
+      <c r="D221" s="1" t="s">
+        <v>519</v>
+      </c>
+      <c r="E221" s="1" t="s">
+        <v>520</v>
+      </c>
+      <c r="F221" s="1" t="s">
         <v>521</v>
       </c>
-      <c r="C221" s="1" t="s">
-        <v>522</v>
-      </c>
-      <c r="D221" s="1" t="s">
-        <v>523</v>
-      </c>
-      <c r="E221" s="1" t="s">
-        <v>524</v>
-      </c>
-      <c r="F221" s="1" t="s">
-        <v>525</v>
-      </c>
       <c r="H221" t="s">
-        <v>383</v>
+        <v>379</v>
       </c>
     </row>
     <row r="222" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A222" s="1" t="s">
-        <v>451</v>
+        <v>447</v>
       </c>
     </row>
     <row r="223" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A223" s="1" t="s">
-        <v>526</v>
+        <v>522</v>
       </c>
     </row>
     <row r="224" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A224" s="1" t="s">
-        <v>527</v>
+        <v>523</v>
       </c>
     </row>
     <row r="225" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A225" s="1" t="s">
-        <v>528</v>
+        <v>524</v>
       </c>
     </row>
   </sheetData>
